--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\ontouml-graph-validator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DCC12C-ED03-41AA-AD19-1DAFBD2AB44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A7B954-BA5E-4D13-A6E0-B9632E6E9BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEFINITIONS" sheetId="3" r:id="rId1"/>
-    <sheet name="Rules Definition" sheetId="2" r:id="rId2"/>
-    <sheet name="Rules Implementation" sheetId="5" r:id="rId3"/>
+    <sheet name="Rules Definition" sheetId="2" r:id="rId1"/>
+    <sheet name="Rules Implementation" sheetId="5" r:id="rId2"/>
+    <sheet name="Tests" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="227">
   <si>
     <t>Source Element</t>
   </si>
@@ -270,18 +270,6 @@
     <t>remove isExtensional: use metaproperty isReadOnly</t>
   </si>
   <si>
-    <t>ONTOUML_CLASS_STEREOTYPES</t>
-  </si>
-  <si>
-    <t>ONTOUML_RELATION_STEREOTYPES</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>OWA Level</t>
   </si>
   <si>
@@ -678,12 +666,6 @@
     <t>Error</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>Situation Description</t>
   </si>
   <si>
@@ -691,6 +673,36 @@
   </si>
   <si>
     <t>Situation Number</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>CL001A</t>
+  </si>
+  <si>
+    <t>CL001B</t>
+  </si>
+  <si>
+    <t>Tested Situation</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -788,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -815,15 +827,55 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -860,18 +912,32 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -914,31 +980,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -957,13 +998,20 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -979,58 +1027,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="Tabela2" displayName="Tabela2" ref="D1:E6" totalsRowShown="0">
-  <autoFilter ref="D1:E6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D78" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:D78" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Source Element" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{1DEB1013-754C-4E97-AF35-6F79DD0210E4}" name="Group Number" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="14">
+      <calculatedColumnFormula>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="F1:G6" totalsRowShown="0">
+  <autoFilter ref="F1:G6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Source Element" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Source Element" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Code"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB3FFAAD-8FFC-4BF3-B4FF-2A1E1667452F}" name="Tabela3" displayName="Tabela3" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{AB3FFAAD-8FFC-4BF3-B4FF-2A1E1667452F}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4053D24E-C59A-4CC1-8BF6-4264D23D25C7}" name="Constant" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7A1710D5-7CD0-4165-8BEF-9928F6B5514E}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="Tabel1" displayName="Tabel1" ref="A1:D78" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:D78" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Source Element" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{1DEB1013-754C-4E97-AF35-6F79DD0210E4}" name="Group Number" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="7">
-      <calculatedColumnFormula>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="Tabela4" displayName="Tabela4" ref="A1:F79" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:F79" totalsRowShown="0">
   <autoFilter ref="A1:F79" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="4">
-      <calculatedColumnFormula>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="11">
+      <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation Number"/>
-    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="0">
-      <calculatedColumnFormula>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="10">
+      <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F491E82A-09B4-4B22-AA08-7E6DFD336A64}" name="Situation Description"/>
     <tableColumn id="4" xr3:uid="{92BCF063-80EB-4A9C-AA1A-6F95CC9435A7}" name="OWA Level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3972FF2B-7E14-4F0A-8D4F-83215667A78F}" name="Tabela3" displayName="Tabela3" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{3972FF2B-7E14-4F0A-8D4F-83215667A78F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A4CDC979-3683-4895-92BB-E45FA5675A74}" name="#" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B16175A5-7A99-4338-8DC8-D4165DBD8230}" name="Test Name" dataDxfId="7">
+      <calculatedColumnFormula>"test_"&amp;Tabela3[[#This Row],['#]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{FD340880-929F-4898-9A0F-738CE745BD87}" name="Tested Situation"/>
+    <tableColumn id="4" xr3:uid="{317FC71C-5BF7-4053-A4C9-6D2D86767D70}" name="Expected Result"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1330,1322 +1382,1273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136EF0F5-A62F-4035-982D-03901763DDA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD8FC3-5AD0-44A2-98AA-E09AF263FE43}">
   <sheetPr>
-    <tabColor theme="5"/>
+    <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="130.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL001</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL002</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL003</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL004</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL005</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL006</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL007</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL008</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL009</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL010</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL011</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL012</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL013</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL014</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL015</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL016</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL017</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL018</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL019</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL020</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL021</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL022</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL023</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL024</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL025</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL026</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL027</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL028</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL029</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL030</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL031</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL032</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL033</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL034</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL035</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL036</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL037</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL038</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL039</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+      <c r="B41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE001</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE002</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE003</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE004</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE005</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE006</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE007</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE008</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE009</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE010</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GE011</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE001</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE002</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE003</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE004</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE005</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE006</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE007</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE008</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE009</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE010</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE011</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE012</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE013</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE014</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE015</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE016</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE017</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE018</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>RE019</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>PR001</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>PR002</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GS001</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GS002</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GS003</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GS004</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GS005</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="9" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>GS006</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C78">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B78" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD8FC3-5AD0-44A2-98AA-E09AF263FE43}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:D82"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="248.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL001</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL002</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL003</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL004</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL005</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL006</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL007</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL008</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL009</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL010</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL011</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL012</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL013</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL014</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL015</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL016</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL017</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL018</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL019</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL020</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL021</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL022</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL023</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL024</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL025</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL026</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL027</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL028</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL029</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL030</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL031</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL032</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL033</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL034</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL035</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL036</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL037</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL038</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>CL039</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE001</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE002</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE003</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE004</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE005</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE006</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE007</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE008</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE009</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE010</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GE011</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE001</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE002</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE003</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE004</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE005</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE006</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE007</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE008</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE009</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE010</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE011</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE012</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE013</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE014</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE015</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE016</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE017</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE018</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>RE019</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>PR001</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>PR002</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GS001</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GS002</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GS003</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GS004</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GS005</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f>VLOOKUP(Tabel1[[#This Row],[Source Element]],Tabela2[#All],2,FALSE)&amp;Tabel1[[#This Row],[Group Number]]</f>
-        <v>GS006</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C78">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:B78" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D2BF44-67F1-4935-ADE5-39702D5039FF}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,1064 +2662,1067 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with a unique stereotype.</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="11" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL001.01</v>
+      <c r="C2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL001A</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="10" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <v>132</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with a unique stereotype.</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="11" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL001.02</v>
+      <c r="C3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL001B</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="D4" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL002.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="D5" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL003.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL003</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype «enumeration».</v>
       </c>
       <c r="D6" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL004.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL004</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype «enumeration».</v>
       </c>
       <c r="D7" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL005.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL005</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="D8" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL006.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL006</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B9" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must not specialize multiple classes decorated with ultimate sortal stereotypes (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="D9" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL007.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL007</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B10" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype «kind» must have the tagged value "restrictedTo" set to an array containing the value [ "functional-complex" ].</v>
       </c>
       <c r="D10" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL008.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL008</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype «collective» must have the tagged value "restrictedTo" set to an array containing the value [ "collective" ].</v>
       </c>
       <c r="D11" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL009.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL009</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B12" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype «quantity» must have the tagged value "restrictedTo" set to an array containing the value [ "quantity" ].</v>
       </c>
       <c r="D12" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL010.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL010</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B13" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype «relator» must have the tagged value "restrictedTo" set to an array containing the value [ "relator" ].</v>
       </c>
       <c r="D13" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL011.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL011</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B14" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype «mode» must have the tagged value "restrictedTo" set to an array containing one of or both the values [ "intrinsic-mode", "extrinsic-mode" ].</v>
       </c>
       <c r="D14" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL012.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL012</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B15" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype «quality» must have the tagged value "restrictedTo" set to an array containing the value [ "quality" ].</v>
       </c>
       <c r="D15" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL013.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL013</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B16" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype «event» must have the tagged value "restrictedTo" set to an array containing the value [ "event" ].</v>
       </c>
       <c r="D16" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL014.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL014</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B17" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype «situation» must have the tagged value "restrictedTo" set to an array containing the value [ "situation" ].</v>
       </c>
       <c r="D17" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL015.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL015</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B18" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with an abstract stereotype (i.e., «abstract», «datatype», or «enumeration») must have the tagged value "restrictedTo" set to an array containing the value [ "abstract" ].</v>
       </c>
       <c r="D18" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL016.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL016</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B19" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») and the tagged value "order" set to "1" must have the tagged value "restrictedTo" set to an array containing one or more of the values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality" ].</v>
       </c>
       <c r="D19" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL017.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL017</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B20" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») and the tagged value "order" set to "1" must have the tagged value "restrictedTo" set to an array containing one of the values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality" ].</v>
       </c>
       <c r="D20" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL018.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL018</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B21" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype «type» must have the have the tagged "order" set to a number greater than "1" or set to "*".</v>
       </c>
       <c r="D21" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL019.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL019</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B22" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a stereotype from the set «kind», «collective», «quantity», «relator», «mode», «quality», «event», «situation», «abstract», «datatype», or «enumeration», must have the have the tagged "order" set to "1".</v>
       </c>
       <c r="D22" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL020.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL020</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B23" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class with the tagged value "restrictedTo" set to [ "type" ] must have the have the tagged "order" set to a number greater than "1".</v>
       </c>
       <c r="D23" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL021.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL021</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class with the tagged value "restrictedTo" set to [ "type" ] and some other value must have the have the tagged "order" set to "*".</v>
       </c>
       <c r="D24" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL022.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL022</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B25" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class with the tagged value "restrictedTo" set to [ "type" ] and some other value must have the have the tagged "order" set to "*".</v>
       </c>
       <c r="D25" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL023.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL023</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B26" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must have the tagged value "restrictedTo" set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "event", "situation", "abstract", "type" ].</v>
       </c>
       <c r="D26" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL024.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL024</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B27" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class whose tagged value "restrictedTo" does not include the value [ "type" ] must have the tagged value "isPowertype" set to "null".</v>
       </c>
       <c r="D27" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL025.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL025</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B28" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class whose tagged value "restrictedTo" does includes the value [ "type" ] must have the tagged value "isPowertype" set to either "true" or "false".</v>
       </c>
       <c r="D28" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL026.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL026</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B29" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class whose tagged value "restrictedTo" is not [ "collective" ] must have the tagged value "isExtensional" set to "null".</v>
       </c>
       <c r="D29" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL027.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL027</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B30" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class whose tagged value "restrictedTo" is [ "collective" ] must have the tagged value "isExtensional" set to either "true" or "false".</v>
       </c>
       <c r="D30" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL028.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL028</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B31" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class whose tagged value "restrictedTo" is [ "collective" ] must have the tagged value "isExtensional" set to either "true" or "false".</v>
       </c>
       <c r="D31" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL029.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL029</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B32" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must have the tagged value "order" set to a number greater than "0" or set to "*".</v>
       </c>
       <c r="D32" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL030.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL030</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B33" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
       </c>
       <c r="D33" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL031.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL031</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B34" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every abstract class should be specialized by some concrete class or have a super class that is specialized by a concrete class.</v>
       </c>
       <c r="D34" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL032.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL032</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B35" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can be an ancestor of itself.</v>
       </c>
       <c r="D35" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL033.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL033</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B36" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class representing a powertype (i.e., whose tagged value "isPowertype" is set to "true") can be the target of more than one non-derived instantiation relation.</v>
       </c>
       <c r="D36" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL034.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL034</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B37" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class representing a powertype (i.e., whose tagged value "isPowertype" is set to "true") must only have types as instances (i.e., its tagged value "restrictedTo" must be set to [ "type" ]).</v>
       </c>
       <c r="D37" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL035.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL035</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B38" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class representing a powertype (i.e., whose tagged value "isPowertype" is set to "true") must be decorated with a rigid stereotype (i.e., either «category», «type», or «subkind»).</v>
       </c>
       <c r="D38" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL036.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL036</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B39" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a «phase» must be part of a disjoint and complete generalization set including only classes decorated with «phase» as the generalizations' specific classes.</v>
       </c>
       <c r="D39" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL037.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL037</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B40" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a «phaseMixin» must be part of a disjoint and complete generalization set including only classes decorated with «phaseMixin» as the generalizations' specific classes.</v>
       </c>
       <c r="D40" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL038.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL038</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B41" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every non-derived class decorated with a «role» must be connected directly or indirectly to some relation decorated with the stereotype «mediation» where the opposited end has a cardinality with lower bound "1".</v>
       </c>
       <c r="D41" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>CL039.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>CL039</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B42" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No generalization can connect a general class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type») to a specific class decorated with a ultimate sortal stereotype.</v>
       </c>
       <c r="D42" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE001.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B43" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No generalization can connect a general class decorated with a sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», «type», «subkind», «phase», «role», or «historicalRole») to a specific class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin»).</v>
       </c>
       <c r="D43" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE002.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE002</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B44" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No generalization can connect a general class decorated with «event» to a specific class decorated with a different stereotype.</v>
       </c>
       <c r="D44" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE003.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE003</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B45" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No generalization can connect a general class decorated with «situation» to a specific class decorated with a different stereotype.</v>
       </c>
       <c r="D45" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE004.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE004</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B46" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No generalization can connect a general class decorated with «enumeration» to a specific class decorated with a different stereotype.</v>
       </c>
       <c r="D46" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE005.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE005</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B47" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No generalization can connect a general class decorated with «datatype» to a specific class decorated with a different stereotype.</v>
       </c>
       <c r="D47" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE006.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE006</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B48" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No generalization can connect a general class decorated with «abstract» to a specific class that is not decorated with some abstract stereotype (i.e., «abstract», «datatype», or «enumeration»).</v>
       </c>
       <c r="D48" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE007.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE007</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B49" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No generalization can connect a general class decorated with an anti-rigid stereotype (i.e., «phase», «phaseMixin», «role», «roleMixin», «historicalRole», or «historicalRoleMixin») to a specific class decorated with a rigid or semi-rigid stereotype (i.e., «category», «mixin», «kind», «collective», «quantity», «relator», «mode», «quality», or «subkind»).</v>
       </c>
       <c r="D49" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE008.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE008</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B50" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No generalization can connect a general class to an specific class where the specific class has in its tagged value "restrictedTo" values that are not present in the same tagged value of the general class.</v>
       </c>
       <c r="D50" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE009.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE009</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B51" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every generalization connected to a general class with its tagged value "order" set to a number can only connect a specific class whose tagged value "order" is set to the same number.</v>
       </c>
       <c r="D51" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE010.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE010</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B52" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every generalization connected to a general class with its tagged value "isExtensional" set to "true" can only connect a specific class whose tagged value "isExtensional" is set to "true" as well.</v>
       </c>
       <c r="D52" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GE011.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GE011</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B53" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «mediation» must connect a source class representing a relator (i.e., whose tagged value "restrictedTo" set to [ "relator" ]) to a target class representing an endurant (i.e., whose tagged value is set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "type" ]).</v>
       </c>
       <c r="D53" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE001.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B54" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «characterization» must connect a source class representing mode or quality (i.e., whose tagged value "restrictedTo" set to one or more values in the list [ "intrinsic-mode", "extrinsic-mode", "quality" ]) to a target class representing an endurant (i.e., whose tagged value is set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "type" ]).</v>
       </c>
       <c r="D54" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE002.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE002</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B55" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «externalDependence» must connect a source class representing extrinsic mode (i.e., whose tagged value "restrictedTo" set to [ "extrinsic-mode" ]) to a target class representing an endurant (i.e., whose tagged value is set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "type" ]).</v>
       </c>
       <c r="D55" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE003.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE003</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B56" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «derivation» must connect a source relation to a target class.</v>
       </c>
       <c r="D56" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE004.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE004</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B57" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «componentOf» must connect a source class and a target class representing functional-complexes (i.e., whose tagged value "restrictedTo" is set to [ "functional-complex" ]).</v>
       </c>
       <c r="D57" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE005.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE005</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B58" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «memberOf» must connect a source class representing a functional-complex (i.e., whose tagged value "restrictedTo" is set to [ "functional-complex" ]) to a target class representing a collective (i.e., whose tagged value "restrictedTo" is set to [ "collective" ]).</v>
       </c>
       <c r="D58" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE006.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE006</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B59" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «subCollectionOf» must connect a source class and a target class representing collectives (i.e., whose tagged value "restrictedTo" is set to [ "collective" ]).</v>
       </c>
       <c r="D59" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE007.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE007</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B60" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «participational» must connect a source class and a target class representing events (i.e., whose tagged value "restrictedTo" is set to [ "event" ]).</v>
       </c>
       <c r="D60" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE008.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE008</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B61" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «instantiation» must connect a target class representing a high-order type whose instances are types (i.e., whose tagged value "restrictedTo" is set to [ "type" ]).</v>
       </c>
       <c r="D61" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE009.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE009</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B62" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No relation decorated with a stereotype «instantiation» can connect an ordered source class (i.e., whose tagged value "order" is set to a number "x") to a target class that is not an orderless (i.e., whose tagged value "order" is set to "*") or in the order immediately above (i.e., whose tagged value "order" is set to a number "x+1").</v>
       </c>
       <c r="D62" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE010.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE010</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B63" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>No relation decorated with a stereotype «instantiation» can connect an orderless source class (i.e., whose tagged value "order" is set to "*") to a target class that is not an orderless as well.</v>
       </c>
       <c r="D63" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE011.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE011</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B64" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «participation» must connect a source class representing an endurant (i.e., whose tagged value is set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "type" ]) to a target class representing an event (i.e., whose tagged value "restrictedTo" is set to [ "event" ]).</v>
       </c>
       <c r="D64" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE012.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE012</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B65" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «creation» must connect a source class representing an endurant (i.e., whose tagged value is set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "type" ]) to a target class representing an event (i.e., whose tagged value "restrictedTo" is set to [ "event" ]).</v>
       </c>
       <c r="D65" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE013.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE013</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B66" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «termination» must connect a source class representing an endurant (i.e., whose tagged value is set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "type" ]) to a target class representing an event (i.e., whose tagged value "restrictedTo" is set to [ "event" ]).</v>
       </c>
       <c r="D66" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE014.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE014</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B67" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «manifestation» must connect a source class representing a moment (i.e., whose tagged value is set to one or more values in the list [ "relator", "intrinsic-mode", "extrinsic-mode", "quality" ]) to a target class representing an event (i.e., whose tagged value "restrictedTo" is set to [ "event" ]).</v>
       </c>
       <c r="D67" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE015.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE015</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B68" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «historicalDepedence» must connect source class and target class where either both represent endurants (i.e., whose tagged value is set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "type" ]) or both represent events (i.e., whose tagged value "restrictedTo" is set to [ "event" ]).</v>
       </c>
       <c r="D68" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE016.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE016</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B69" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «bringsAbout» must connect a source class representing an event (i.e., whose tagged value is set to [ "event" ]) to a target class representing a situation (i.e., whose tagged value "restrictedTo" is set to [ "situation" ]).</v>
       </c>
       <c r="D69" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE017.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE017</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B70" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation decorated with a stereotype «triggers» must connect a source class representing a situation (i.e., whose tagged value is set to [ "situation" ]) to a target class representing an event (i.e., whose tagged value "restrictedTo" is set to [ "event" ]).</v>
       </c>
       <c r="D70" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE018.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE018</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B71" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every relation must be decorated with at most one stereotype.</v>
       </c>
       <c r="D71" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>RE019.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>RE019</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B72" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every property decorated with a stereotype «begin» must be defined within a class representing an event (i.e., whose tagged value is set to [ "event" ]).</v>
       </c>
       <c r="D72" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>PR001.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>PR001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B73" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every property decorated with a stereotype «end» must be defined within a class representing an event (i.e., whose tagged value is set to [ "event" ]).</v>
       </c>
       <c r="D73" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>PR002.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>PR002</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B74" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every generalization in a generalization set must share the same general class.</v>
       </c>
       <c r="D74" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GS001.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GS001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B75" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every categorizer in a generalization set must be the target of an instantiation relation (i.e., a relation decorated with a stereotype «instantiation») whose source is the generalization set's general class.</v>
       </c>
       <c r="D75" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GS002.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GS002</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B76" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every categorizer in a generalization set must have the tagged value "isPowertype" set to "false".</v>
       </c>
       <c r="D76" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GS003.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GS003</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B77" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every categorizer in a generalization set must be a high-order type whose instances are types (i.e., whose tagged value "restrictedTo" is set to [ "type" ]).</v>
       </c>
       <c r="D77" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GS004.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GS004</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B78" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>The target's cardinality of the instantiation relation between the general class and the categorizer must not have a lower bound "0" if the generalization set is complete.</v>
       </c>
       <c r="D78" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GS005.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GS005</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B79" t="str">
-        <f>VLOOKUP(Tabela4[[#This Row],[Rule Code]],Tabel1[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>The target's cardinality of the instantiation relation between the general class and the categorizer must not have an upper bound "1" if the generalization set is overlapping (or covering).</v>
       </c>
       <c r="D79" t="str">
-        <f>Tabela4[[#This Row],[Rule Code]]&amp;"."&amp;Tabela4[[#This Row],[Situation Number]]</f>
-        <v>GS006.</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</f>
+        <v>GS006</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F79">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D79">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F79" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
@@ -3728,4 +3734,115 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E913DDA7-ABFE-486C-846B-0FA52E6A06DF}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],['#]]</f>
+        <v>test_001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],['#]]</f>
+        <v>test_002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],['#]]</f>
+        <v>test_003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],['#]]</f>
+        <v>test_004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Valid"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Invalid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A5" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A7B954-BA5E-4D13-A6E0-B9632E6E9BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B7382C-625F-4F49-AF25-D34FFE53512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules Definition" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
   <si>
     <t>Source Element</t>
   </si>
@@ -684,12 +684,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Test Name</t>
-  </si>
-  <si>
     <t>CL001A</t>
   </si>
   <si>
@@ -702,7 +696,40 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>Invalid</t>
+    <t>Test Number</t>
+  </si>
+  <si>
+    <t>World Assumption</t>
+  </si>
+  <si>
+    <t>Invalid - Error</t>
+  </si>
+  <si>
+    <t>Invalid - Warning</t>
+  </si>
+  <si>
+    <t>Tested File</t>
+  </si>
+  <si>
+    <t>ExpectedResultParam</t>
+  </si>
+  <si>
+    <t>CSV Line</t>
+  </si>
+  <si>
+    <t>owa</t>
+  </si>
+  <si>
+    <t>cwa</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -800,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -831,12 +858,31 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -844,6 +890,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -869,6 +925,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -876,6 +942,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -908,23 +977,121 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1027,15 +1194,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D78" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D78" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:D78" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Source Element" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{1DEB1013-754C-4E97-AF35-6F79DD0210E4}" name="Group Number" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Source Element" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{1DEB1013-754C-4E97-AF35-6F79DD0210E4}" name="Group Number" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(TabRules[[#This Row],[Source Element]],TabGroups[#All],2,FALSE)&amp;TabRules[[#This Row],[Group Number]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,7 +1212,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="F1:G6" totalsRowShown="0">
   <autoFilter ref="F1:G6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Source Element" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Source Element" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Code"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1056,12 +1223,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:F79" totalsRowShown="0">
   <autoFilter ref="A1:F79" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation Number"/>
-    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="25">
       <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation Number]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F491E82A-09B4-4B22-AA08-7E6DFD336A64}" name="Situation Description"/>
@@ -1072,17 +1239,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3972FF2B-7E14-4F0A-8D4F-83215667A78F}" name="Tabela3" displayName="Tabela3" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{3972FF2B-7E14-4F0A-8D4F-83215667A78F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A4CDC979-3683-4895-92BB-E45FA5675A74}" name="#" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B16175A5-7A99-4338-8DC8-D4165DBD8230}" name="Test Name" dataDxfId="7">
-      <calculatedColumnFormula>"test_"&amp;Tabela3[[#This Row],['#]]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3972FF2B-7E14-4F0A-8D4F-83215667A78F}" name="Tabela3" displayName="Tabela3" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7" xr:uid="{3972FF2B-7E14-4F0A-8D4F-83215667A78F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A4CDC979-3683-4895-92BB-E45FA5675A74}" name="Test Number" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{FD340880-929F-4898-9A0F-738CE745BD87}" name="Tested Situation" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{CA5F3CEA-B9B0-4265-BF39-EDF9E1E770B7}" name="Tested File" dataDxfId="0">
+      <calculatedColumnFormula>"test_"&amp;Tabela3[[#This Row],[Tested Situation]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FD340880-929F-4898-9A0F-738CE745BD87}" name="Tested Situation"/>
+    <tableColumn id="2" xr3:uid="{9C901F82-4E5C-4C56-9EA7-E8212FC0FC48}" name="World Assumption" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{317FC71C-5BF7-4053-A4C9-6D2D86767D70}" name="Expected Result"/>
+    <tableColumn id="8" xr3:uid="{CCED7E0B-3A26-468B-9595-29D16CBD0165}" name="ExpectedResultParam" dataDxfId="13">
+      <calculatedColumnFormula>VLOOKUP(Tabela3[[#This Row],[Expected Result]],Tabela5[#All],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{EE9D88FB-C108-4C05-AA7C-49CB1CFF288E}" name="CSV Line" dataDxfId="8">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Tested File]]&amp;","&amp;Tabela3[[#This Row],[World Assumption]]&amp;","&amp;Tabela3[[#This Row],[ExpectedResultParam]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{37F96372-9988-4E18-B947-884302FE8710}" name="Tabela5" displayName="Tabela5" ref="I1:J4" totalsRowShown="0">
+  <autoFilter ref="I1:J4" xr:uid="{37F96372-9988-4E18-B947-884302FE8710}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1737D440-4059-4582-BD3A-641BF51BE972}" name="Expected Result"/>
+    <tableColumn id="2" xr3:uid="{ABF2CB5D-A9B7-415A-A868-4A594DC35126}" name="ExpectedResultParam"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1388,7 +1573,7 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2626,7 +2811,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C2:C78">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2648,7 +2833,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,16 +3898,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D79">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F79">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D79">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F79" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
@@ -3741,108 +3926,254 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="str">
-        <f>"test_"&amp;Tabela3[[#This Row],['#]]</f>
-        <v>test_001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="13" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],[Tested Situation]]&amp;".ttl"</f>
+        <v>test_CL001.ttl</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" t="str">
+        <f>VLOOKUP(Tabela3[[#This Row],[Expected Result]],Tabela5[#All],2,FALSE)</f>
+        <v>valid</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Tabela3[[#This Row],[Tested File]]&amp;","&amp;Tabela3[[#This Row],[World Assumption]]&amp;","&amp;Tabela3[[#This Row],[ExpectedResultParam]]</f>
+        <v>test_CL001.ttl,owa,valid</v>
+      </c>
+      <c r="I2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="str">
-        <f>"test_"&amp;Tabela3[[#This Row],['#]]</f>
-        <v>test_002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],[Tested Situation]]&amp;".ttl"</f>
+        <v>test_CL001.ttl</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(Tabela3[[#This Row],[Expected Result]],Tabela5[#All],2,FALSE)</f>
+        <v>valid</v>
+      </c>
+      <c r="G3" t="str">
+        <f>Tabela3[[#This Row],[Tested File]]&amp;","&amp;Tabela3[[#This Row],[World Assumption]]&amp;","&amp;Tabela3[[#This Row],[ExpectedResultParam]]</f>
+        <v>test_CL001.ttl,cwa,valid</v>
+      </c>
+      <c r="I3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="str">
-        <f>"test_"&amp;Tabela3[[#This Row],['#]]</f>
-        <v>test_003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],[Tested Situation]]&amp;".ttl"</f>
+        <v>test_CL001A.ttl</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(Tabela3[[#This Row],[Expected Result]],Tabela5[#All],2,FALSE)</f>
+        <v>warning</v>
+      </c>
+      <c r="G4" t="str">
+        <f>Tabela3[[#This Row],[Tested File]]&amp;","&amp;Tabela3[[#This Row],[World Assumption]]&amp;","&amp;Tabela3[[#This Row],[ExpectedResultParam]]</f>
+        <v>test_CL001A.ttl,owa,warning</v>
+      </c>
+      <c r="I4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="str">
-        <f>"test_"&amp;Tabela3[[#This Row],['#]]</f>
-        <v>test_004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="13" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],[Tested Situation]]&amp;".ttl"</f>
+        <v>test_CL001A.ttl</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" t="s">
         <v>226</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(Tabela3[[#This Row],[Expected Result]],Tabela5[#All],2,FALSE)</f>
+        <v>error</v>
+      </c>
+      <c r="G5" t="str">
+        <f>Tabela3[[#This Row],[Tested File]]&amp;","&amp;Tabela3[[#This Row],[World Assumption]]&amp;","&amp;Tabela3[[#This Row],[ExpectedResultParam]]</f>
+        <v>test_CL001A.ttl,cwa,error</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],[Tested Situation]]&amp;".ttl"</f>
+        <v>test_CL001B.ttl</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(Tabela3[[#This Row],[Expected Result]],Tabela5[#All],2,FALSE)</f>
+        <v>warning</v>
+      </c>
+      <c r="G6" t="str">
+        <f>Tabela3[[#This Row],[Tested File]]&amp;","&amp;Tabela3[[#This Row],[World Assumption]]&amp;","&amp;Tabela3[[#This Row],[ExpectedResultParam]]</f>
+        <v>test_CL001B.ttl,owa,warning</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>"test_"&amp;Tabela3[[#This Row],[Tested Situation]]&amp;".ttl"</f>
+        <v>test_CL001B.ttl</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(Tabela3[[#This Row],[Expected Result]],Tabela5[#All],2,FALSE)</f>
+        <v>error</v>
+      </c>
+      <c r="G7" t="str">
+        <f>Tabela3[[#This Row],[Tested File]]&amp;","&amp;Tabela3[[#This Row],[World Assumption]]&amp;","&amp;Tabela3[[#This Row],[ExpectedResultParam]]</f>
+        <v>test_CL001B.ttl,cwa,error</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Warning">
+      <formula>NOT(ISERROR(SEARCH("Warning",E2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Invalid"</formula>
-    </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A7">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{989DA538-BFAC-4DA0-8E72-6DFE524FCF42}">
+      <formula1>"Valid,Invalid - Error,Invalid - Warning"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A3 A4:A7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\validator\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BFF5AA-3811-41DF-A8B8-0AF443DE533A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241F916F-0F1D-4CCF-93A9-C0A527413900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="159">
   <si>
     <t>Description</t>
   </si>
@@ -405,9 +405,6 @@
     <t>Enumeration classes cannot be specialized by other classes.</t>
   </si>
   <si>
-    <t>Enumeration classes' supertypes must be of stereotype Abstract</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -499,6 +496,21 @@
   </si>
   <si>
     <t>Class that is an enumeration with two literals</t>
+  </si>
+  <si>
+    <t>CL_EN_04</t>
+  </si>
+  <si>
+    <t>Class that is an enumeration without specialization</t>
+  </si>
+  <si>
+    <t>Class that is an enumeration with one specialization</t>
+  </si>
+  <si>
+    <t>Class that is an enumeration with two specializations (no generalization set)</t>
+  </si>
+  <si>
+    <t>Class that is an enumeration with two specializations (generalization set)</t>
   </si>
 </sst>
 </file>
@@ -600,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -619,14 +631,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -638,18 +649,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -711,84 +716,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -812,123 +740,41 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -938,12 +784,50 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1046,88 +930,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1152,58 +960,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:E80" totalsRowShown="0" headerRowDxfId="45" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:E80" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:E80" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{92D3A8C7-5541-45DC-A40E-AED787463128}" name="SubGroup" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{1DEB1013-754C-4E97-AF35-6F79DD0210E4}" name="Group Number" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{92D3A8C7-5541-45DC-A40E-AED787463128}" name="SubGroup" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{1DEB1013-754C-4E97-AF35-6F79DD0210E4}" name="Group Number" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="G1:J6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="G1:J6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="G1:J6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{598019D5-4069-412F-A57E-586DD6241ACC}" name="Subgroup" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{90E1C2A9-5C06-48CB-A78C-54E7D56B3BFC}" name="Subgroup Code" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{598019D5-4069-412F-A57E-586DD6241ACC}" name="Subgroup" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{90E1C2A9-5C06-48CB-A78C-54E7D56B3BFC}" name="Subgroup Code" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K28" totalsRowShown="0">
-  <autoFilter ref="A1:K28" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K32" totalsRowShown="0">
+  <autoFilter ref="A1:K32" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation ID"/>
-    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="10">
       <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="9">
       <calculatedColumnFormula>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F491E82A-09B4-4B22-AA08-7E6DFD336A64}" name="Situation Description"/>
     <tableColumn id="4" xr3:uid="{92BCF063-80EB-4A9C-AA1A-6F95CC9435A7}" name="OWA Level"/>
-    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="8">
       <calculatedColumnFormula>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="7">
       <calculatedColumnFormula>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="6">
       <calculatedColumnFormula>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9CF1643D-B8F2-452E-B29E-AD6EF72070C4}" name="Comments"/>
@@ -1512,11 +1320,11 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1536,10 +1344,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>85</v>
@@ -1550,1200 +1358,1200 @@
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="13" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL_ST_01</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="14" t="str">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>CL_ST_01</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
         <v>CL_ST_02</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>134</v>
+      <c r="I3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="14" t="str">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
         <v>CL_EN_01</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="14" t="str">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
         <v>CL_EN_02</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>146</v>
+      <c r="E5" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="14" t="str">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
         <v>CL_EN_03</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="14" t="str">
+      <c r="A7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
         <v>CL_EN_04</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>122</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="13" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>CL_EN_05</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="15" t="str">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>CL_EN_05</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="A9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="A10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="A11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="A12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="A14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="A17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="A18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="A19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="A20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="A21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="A23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="A24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="A25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="A26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="A27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="A28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="A29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="12" t="s">
+      <c r="A32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="A33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="A34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="A35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="A36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="A37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="A38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="A39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="A40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="12" t="s">
+      <c r="A41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="12" t="s">
+      <c r="A42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="12" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="12" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E58" s="12" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="12" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="12" t="s">
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="12" t="s">
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="12" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="12" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="12" t="s">
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="12" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="12" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="12" t="s">
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="12" t="s">
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="12" t="s">
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="12" t="s">
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="12" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="12" t="s">
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="12" t="s">
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="12" t="s">
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="12" t="s">
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="12" t="s">
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="12" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2762,23 +2570,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D2:D80">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E80">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="C2:C8" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -2792,11 +2595,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,7 +2654,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2889,7 +2692,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2927,7 +2730,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2965,7 +2768,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3006,7 +2809,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3047,7 +2850,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3088,7 +2891,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3126,7 +2929,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3164,7 +2967,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3202,7 +3005,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3243,7 +3046,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3284,7 +3087,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3325,7 +3128,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3363,7 +3166,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3401,7 +3204,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3439,7 +3242,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3477,7 +3280,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3515,7 +3318,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3553,25 +3356,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="16" t="str">
+        <v>141</v>
+      </c>
+      <c r="B20" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02A</v>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>CL_EN_02A.ttl</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3580,36 +3383,36 @@
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I20" s="16" t="str">
+      <c r="I20" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,CL_EN_02,CL_EN_02A.ttl,valid</v>
       </c>
-      <c r="J20" s="16" t="str">
+      <c r="J20" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,CL_EN_02,CL_EN_02A.ttl,valid</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="16" t="str">
+        <v>141</v>
+      </c>
+      <c r="B21" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C21" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02B</v>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>CL_EN_02B.ttl</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
         <v>91</v>
@@ -3618,39 +3421,39 @@
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I21" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,CL_EN_02,CL_EN_02B.ttl,warning</v>
       </c>
-      <c r="J21" s="16" t="str">
+      <c r="J21" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,CL_EN_02,CL_EN_02B.ttl,error</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="16" t="str">
+        <v>141</v>
+      </c>
+      <c r="B22" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C22" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02C</v>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>CL_EN_02C.ttl</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3659,39 +3462,39 @@
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I22" s="16" t="str">
+      <c r="I22" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,CL_EN_02,CL_EN_02C.ttl,valid</v>
       </c>
-      <c r="J22" s="16" t="str">
+      <c r="J22" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,CL_EN_02,CL_EN_02C.ttl,valid</v>
       </c>
       <c r="K22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="16" t="str">
+        <v>141</v>
+      </c>
+      <c r="B23" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C23" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02D</v>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>CL_EN_02D.ttl</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
         <v>92</v>
@@ -3700,39 +3503,39 @@
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I23" s="16" t="str">
+      <c r="I23" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,CL_EN_02,CL_EN_02D.ttl,error</v>
       </c>
-      <c r="J23" s="16" t="str">
+      <c r="J23" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,CL_EN_02,CL_EN_02D.ttl,error</v>
       </c>
       <c r="K23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="16" t="str">
+        <v>141</v>
+      </c>
+      <c r="B24" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C24" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02E</v>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>CL_EN_02E.ttl</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3741,36 +3544,36 @@
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I24" s="16" t="str">
+      <c r="I24" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,CL_EN_02,CL_EN_02E.ttl,valid</v>
       </c>
-      <c r="J24" s="16" t="str">
+      <c r="J24" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,CL_EN_02,CL_EN_02E.ttl,valid</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="16" t="str">
+        <v>141</v>
+      </c>
+      <c r="B25" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02F</v>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>CL_EN_02F.ttl</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -3779,36 +3582,36 @@
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I25" s="16" t="str">
+      <c r="I25" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,CL_EN_02,CL_EN_02F.ttl,valid</v>
       </c>
-      <c r="J25" s="16" t="str">
+      <c r="J25" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,CL_EN_02,CL_EN_02F.ttl,valid</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="16" t="str">
+        <v>151</v>
+      </c>
+      <c r="B26" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_03A</v>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>CL_EN_03A.ttl</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
         <v>91</v>
@@ -3817,36 +3620,36 @@
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,CL_EN_03,CL_EN_03A.ttl,warning</v>
       </c>
-      <c r="J26" s="16" t="str">
+      <c r="J26" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,CL_EN_03,CL_EN_03A.ttl,error</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="16" t="str">
+        <v>151</v>
+      </c>
+      <c r="B27" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C27" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_03B</v>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>CL_EN_03B.ttl</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
         <v>91</v>
@@ -3855,36 +3658,36 @@
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I27" s="16" t="str">
+      <c r="I27" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,CL_EN_03,CL_EN_03B.ttl,warning</v>
       </c>
-      <c r="J27" s="16" t="str">
+      <c r="J27" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,CL_EN_03,CL_EN_03B.ttl,error</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="16" t="str">
+        <v>151</v>
+      </c>
+      <c r="B28" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_03C</v>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>CL_EN_03C.ttl</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -3893,32 +3696,184 @@
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,CL_EN_03,CL_EN_03C.ttl,valid</v>
       </c>
-      <c r="J28" s="16" t="str">
+      <c r="J28" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,CL_EN_03,CL_EN_03C.ttl,valid</v>
       </c>
     </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="14" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="14" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_04A</v>
+      </c>
+      <c r="E29" s="14" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_04A.ttl</v>
+      </c>
+      <c r="F29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="14" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I29" s="14" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_04,CL_EN_04A.ttl,valid</v>
+      </c>
+      <c r="J29" s="14" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_04,CL_EN_04A.ttl,valid</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="14" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="14" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_04B</v>
+      </c>
+      <c r="E30" s="14" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_04B.ttl</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="14" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I30" s="14" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_04,CL_EN_04B.ttl,error</v>
+      </c>
+      <c r="J30" s="14" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_04,CL_EN_04B.ttl,error</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="14" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="14" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_04C</v>
+      </c>
+      <c r="E31" s="14" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_04C.ttl</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="14" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I31" s="14" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_04,CL_EN_04C.ttl,error</v>
+      </c>
+      <c r="J31" s="14" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_04,CL_EN_04C.ttl,error</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="14" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="14" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_04D</v>
+      </c>
+      <c r="E32" s="14" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_04D.ttl</v>
+      </c>
+      <c r="F32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="14" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I32" s="14" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_04,CL_EN_04D.ttl,error</v>
+      </c>
+      <c r="J32" s="14" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_04,CL_EN_04D.ttl,error</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:E28">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  <conditionalFormatting sqref="D2:E32">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H213">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="G2:H217">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H28" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H32" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
       <formula1>"Valid,Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241F916F-0F1D-4CCF-93A9-C0A527413900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07723452-D2CF-4EEF-89FB-A67D036CEEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="164">
   <si>
     <t>Description</t>
   </si>
@@ -387,15 +387,6 @@
     <t>Class that is not an enumeration with one attribute</t>
   </si>
   <si>
-    <t>Class that is an enumeration with one attribute</t>
-  </si>
-  <si>
-    <t>Class that is an enumeration without attributes</t>
-  </si>
-  <si>
-    <t>Class that is an enumeration with two attributes</t>
-  </si>
-  <si>
     <t>Class that is not an enumeration with two attributes</t>
   </si>
   <si>
@@ -456,18 +447,9 @@
     <t>05</t>
   </si>
   <si>
-    <t>Enumeration classes cannot be generalized by classes with stereotype Abstract.</t>
-  </si>
-  <si>
     <t>CL_EN_02</t>
   </si>
   <si>
-    <t>Class that is an enumeration without literals</t>
-  </si>
-  <si>
-    <t>Class that is an enumeration with one enumeration literal</t>
-  </si>
-  <si>
     <t>Created manually as it is not possible to export from VP.</t>
   </si>
   <si>
@@ -492,25 +474,58 @@
     <t>CL_EN_03</t>
   </si>
   <si>
-    <t>Class that is an enumeration with one literal</t>
-  </si>
-  <si>
-    <t>Class that is an enumeration with two literals</t>
-  </si>
-  <si>
     <t>CL_EN_04</t>
   </si>
   <si>
-    <t>Class that is an enumeration without specialization</t>
-  </si>
-  <si>
-    <t>Class that is an enumeration with one specialization</t>
-  </si>
-  <si>
-    <t>Class that is an enumeration with two specializations (no generalization set)</t>
-  </si>
-  <si>
-    <t>Class that is an enumeration with two specializations (generalization set)</t>
+    <t>Enumeration classes can only be generalized by classes with stereotype Abstract.</t>
+  </si>
+  <si>
+    <t>CL_EN_05</t>
+  </si>
+  <si>
+    <t>Enumeration class without attributes</t>
+  </si>
+  <si>
+    <t>Enumeration class with one attribute</t>
+  </si>
+  <si>
+    <t>Enumeration class with two attributes</t>
+  </si>
+  <si>
+    <t>Enumeration class without literals</t>
+  </si>
+  <si>
+    <t>Enumeration class with one enumeration literal</t>
+  </si>
+  <si>
+    <t>Enumeration class with one literal</t>
+  </si>
+  <si>
+    <t>Enumeration class with two literals</t>
+  </si>
+  <si>
+    <t>Enumeration class without specialization</t>
+  </si>
+  <si>
+    <t>Enumeration class with one specialization</t>
+  </si>
+  <si>
+    <t>Enumeration class with two specializations (no generalization set)</t>
+  </si>
+  <si>
+    <t>Enumeration class with two specializations (generalization set)</t>
+  </si>
+  <si>
+    <t>Enumeration class without generalization</t>
+  </si>
+  <si>
+    <t>Enumeration class with generalization without stereotype</t>
+  </si>
+  <si>
+    <t>Enumeration class with generalization with stereotype different from Abstract</t>
+  </si>
+  <si>
+    <t>Enumeration class with generalization with stereotype Abstract</t>
   </si>
 </sst>
 </file>
@@ -989,8 +1004,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K32" totalsRowShown="0">
-  <autoFilter ref="A1:K32" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K36" totalsRowShown="0">
+  <autoFilter ref="A1:K36" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="11">
@@ -1324,7 +1339,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1344,10 +1359,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>85</v>
@@ -1359,16 +1374,16 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1376,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
@@ -1395,10 +1410,10 @@
         <v>80</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1406,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D3" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
@@ -1425,10 +1440,10 @@
         <v>81</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1436,10 +1451,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D4" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
@@ -1462,17 +1477,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
         <v>CL_EN_02</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>68</v>
@@ -1488,17 +1503,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D6" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
         <v>CL_EN_03</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>71</v>
@@ -1514,17 +1529,17 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D7" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
         <v>CL_EN_04</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7"/>
@@ -1534,17 +1549,17 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D8" s="13" t="str">
         <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
         <v>CL_EN_05</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2595,11 +2610,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2669,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2692,7 +2707,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2730,7 +2745,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2768,7 +2783,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2809,7 +2824,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2850,7 +2865,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2891,7 +2906,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2929,7 +2944,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -2967,7 +2982,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3005,7 +3020,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3046,7 +3061,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3087,7 +3102,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3128,7 +3143,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3166,7 +3181,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3204,7 +3219,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3222,7 +3237,7 @@
         <v>CL_EN_01C.ttl</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -3242,7 +3257,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3260,7 +3275,7 @@
         <v>CL_EN_01D.ttl</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -3280,7 +3295,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3298,7 +3313,7 @@
         <v>CL_EN_01E.ttl</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
         <v>92</v>
@@ -3318,7 +3333,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3336,7 +3351,7 @@
         <v>CL_EN_01F.ttl</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
         <v>92</v>
@@ -3356,7 +3371,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3374,7 +3389,7 @@
         <v>CL_EN_02A.ttl</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3394,7 +3409,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3412,7 +3427,7 @@
         <v>CL_EN_02B.ttl</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
         <v>91</v>
@@ -3430,12 +3445,12 @@
         <v>cwa,CL_EN_02,CL_EN_02B.ttl,error</v>
       </c>
       <c r="K21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3453,7 +3468,7 @@
         <v>CL_EN_02C.ttl</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3471,12 +3486,12 @@
         <v>cwa,CL_EN_02,CL_EN_02C.ttl,valid</v>
       </c>
       <c r="K22" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3494,7 +3509,7 @@
         <v>CL_EN_02D.ttl</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G23" t="s">
         <v>92</v>
@@ -3512,12 +3527,12 @@
         <v>cwa,CL_EN_02,CL_EN_02D.ttl,error</v>
       </c>
       <c r="K23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3535,7 +3550,7 @@
         <v>CL_EN_02E.ttl</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3555,7 +3570,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3573,7 +3588,7 @@
         <v>CL_EN_02F.ttl</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -3593,7 +3608,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3611,7 +3626,7 @@
         <v>CL_EN_03A.ttl</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
         <v>91</v>
@@ -3631,7 +3646,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3649,7 +3664,7 @@
         <v>CL_EN_03B.ttl</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G27" t="s">
         <v>91</v>
@@ -3669,7 +3684,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3687,7 +3702,7 @@
         <v>CL_EN_03C.ttl</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -3707,7 +3722,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B29" s="14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3725,7 +3740,7 @@
         <v>CL_EN_04A.ttl</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
@@ -3745,7 +3760,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B30" s="14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3763,7 +3778,7 @@
         <v>CL_EN_04B.ttl</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
         <v>92</v>
@@ -3783,7 +3798,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B31" s="14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3801,7 +3816,7 @@
         <v>CL_EN_04C.ttl</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G31" t="s">
         <v>92</v>
@@ -3821,7 +3836,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B32" s="14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
@@ -3839,7 +3854,7 @@
         <v>CL_EN_04D.ttl</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
         <v>92</v>
@@ -3857,11 +3872,163 @@
         <v>cwa,CL_EN_04,CL_EN_04D.ttl,error</v>
       </c>
     </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="14" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="14" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_05A</v>
+      </c>
+      <c r="E33" s="14" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_05A.ttl</v>
+      </c>
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="14" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I33" s="14" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_05,CL_EN_05A.ttl,valid</v>
+      </c>
+      <c r="J33" s="14" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_05,CL_EN_05A.ttl,valid</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="14" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="14" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_05B</v>
+      </c>
+      <c r="E34" s="14" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_05B.ttl</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="14" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I34" s="14" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_05,CL_EN_05B.ttl,warning</v>
+      </c>
+      <c r="J34" s="14" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_05,CL_EN_05B.ttl,error</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="14" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="14" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_05C</v>
+      </c>
+      <c r="E35" s="14" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_05C.ttl</v>
+      </c>
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="14" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I35" s="14" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_05,CL_EN_05C.ttl,error</v>
+      </c>
+      <c r="J35" s="14" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_05,CL_EN_05C.ttl,error</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="14" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="14" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_05D</v>
+      </c>
+      <c r="E36" s="14" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_05D.ttl</v>
+      </c>
+      <c r="F36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="14" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I36" s="14" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_05,CL_EN_05D.ttl,valid</v>
+      </c>
+      <c r="J36" s="14" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_05,CL_EN_05D.ttl,valid</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:E32">
+  <conditionalFormatting sqref="D2:E36">
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H217">
+  <conditionalFormatting sqref="G2:H221">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
@@ -3873,7 +4040,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H32" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H36" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
       <formula1>"Valid,Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07723452-D2CF-4EEF-89FB-A67D036CEEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB665E72-161F-421A-A13C-EAEBBE618898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="6420" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules Definition" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="277">
   <si>
     <t>Description</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</t>
   </si>
   <si>
-    <t>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must not specialize multiple classes decorated with ultimate sortal stereotypes (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</t>
-  </si>
-  <si>
     <t>Every class decorated with a stereotype «kind» must have the tagged value "restrictedTo" set to an array containing the value [ "functional-complex" ].</t>
   </si>
   <si>
@@ -414,18 +411,6 @@
     <t>Subgroup Code</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
     <t>EN</t>
   </si>
   <si>
@@ -444,9 +429,6 @@
     <t>CL_ST_02</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>CL_EN_02</t>
   </si>
   <si>
@@ -526,6 +508,363 @@
   </si>
   <si>
     <t>Enumeration class with generalization with stereotype Abstract</t>
+  </si>
+  <si>
+    <t>Sortal</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>CL_SO_01</t>
+  </si>
+  <si>
+    <t>ultimate sortals do not specialize ultimate sortals</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; B &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; B &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; B &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; N &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; N &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; N &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; U &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; U &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; U &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; B &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; B &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; B &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; N &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; N &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; N &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; U &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; U &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; U &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; B &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; B &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; B &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; N &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; N &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; N &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; U &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; U &gt; N</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; U &gt; U</t>
+  </si>
+  <si>
+    <t>Taxonomy: B</t>
+  </si>
+  <si>
+    <t>Taxonomy: N</t>
+  </si>
+  <si>
+    <t>Taxonomy: U</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; (B , B)</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; (B , N)</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; (B , U)</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; (N , N)</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; (N , U)</t>
+  </si>
+  <si>
+    <t>Taxonomy: B &gt; (U , U)</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; (B , B)</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; (B , N)</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; (B , U)</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; (N , N)</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; (N , U)</t>
+  </si>
+  <si>
+    <t>Taxonomy: N &gt; (U , U)</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; (B , B)</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; (B , N)</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; (B , U)</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; (N , N)</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; (N , U)</t>
+  </si>
+  <si>
+    <t>Taxonomy: U &gt; (U , U)</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <t>N18</t>
+  </si>
+  <si>
+    <t>N19</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N09</t>
+  </si>
+  <si>
+    <t>U01</t>
+  </si>
+  <si>
+    <t>U02</t>
+  </si>
+  <si>
+    <t>U03</t>
+  </si>
+  <si>
+    <t>U04</t>
+  </si>
+  <si>
+    <t>U05</t>
+  </si>
+  <si>
+    <t>U06</t>
+  </si>
+  <si>
+    <t>U07</t>
+  </si>
+  <si>
+    <t>U08</t>
+  </si>
+  <si>
+    <t>U09</t>
+  </si>
+  <si>
+    <t>B: base sortal, N: not set, U: ultimate sortal. Used B = role, phase, subkind and U = kind, mode, relator (1st, 2nd, and 3rd appearances)</t>
   </si>
 </sst>
 </file>
@@ -533,9 +872,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +945,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -627,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,18 +1010,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -721,16 +1087,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -752,6 +1108,46 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -861,46 +1257,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -975,41 +1331,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:E80" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:E80" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:E79" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:E79" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E79">
+    <sortCondition ref="A2:A79"/>
+    <sortCondition ref="B2:B79"/>
+    <sortCondition ref="C2:C79"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{92D3A8C7-5541-45DC-A40E-AED787463128}" name="SubGroup" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{1DEB1013-754C-4E97-AF35-6F79DD0210E4}" name="Group Number" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="20">
-      <calculatedColumnFormula>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{1DEB1013-754C-4E97-AF35-6F79DD0210E4}" name="Group Number" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="13">
+      <calculatedColumnFormula>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="G1:J6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="G1:J6" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="G1:J6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{598019D5-4069-412F-A57E-586DD6241ACC}" name="Subgroup" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{90E1C2A9-5C06-48CB-A78C-54E7D56B3BFC}" name="Subgroup Code" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{598019D5-4069-412F-A57E-586DD6241ACC}" name="Subgroup" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{90E1C2A9-5C06-48CB-A78C-54E7D56B3BFC}" name="Subgroup Code" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K36" totalsRowShown="0">
-  <autoFilter ref="A1:K36" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K93" totalsRowShown="0">
+  <autoFilter ref="A1:K93" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
+    <sortCondition ref="D1:D93"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="11">
-      <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation ID"/>
     <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="10">
@@ -1335,11 +1699,11 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1359,31 +1723,31 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1391,29 +1755,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="13" t="str">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>CL_ST_01</v>
+        <v>121</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_EN_01</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1421,29 +1785,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="13" t="str">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>CL_ST_02</v>
+        <v>121</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_EN_02</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1451,49 +1815,53 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="13" t="str">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>CL_EN_01</v>
+        <v>121</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_EN_03</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="13" t="str">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>CL_EN_02</v>
+        <v>121</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_EN_04</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
@@ -1503,23 +1871,23 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="13" t="str">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>CL_EN_03</v>
+        <v>121</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_EN_05</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
@@ -1529,17 +1897,17 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="13" t="str">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>CL_EN_04</v>
+        <v>158</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_SO_01</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7"/>
@@ -1549,73 +1917,89 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="13" t="str">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>CL_EN_05</v>
+        <v>158</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_SO_02</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
+      <c r="B9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_SO_03</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
+      <c r="B10" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_SO_04</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
+      <c r="B11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_ST_01</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
+      <c r="B12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>CL_ST_02</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1623,13 +2007,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1637,13 +2021,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C14" s="14"/>
+      <c r="D14" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1651,13 +2035,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C15" s="14"/>
+      <c r="D15" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1665,13 +2049,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1679,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1693,13 +2077,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C18" s="14"/>
+      <c r="D18" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1707,13 +2091,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1721,13 +2105,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1735,13 +2119,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1749,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C22" s="14"/>
+      <c r="D22" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1763,13 +2147,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1777,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1791,13 +2175,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1805,13 +2189,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C26" s="14"/>
+      <c r="D26" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1819,13 +2203,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C27" s="14"/>
+      <c r="D27" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1833,13 +2217,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C28" s="14"/>
+      <c r="D28" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1847,13 +2231,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C29" s="14"/>
+      <c r="D29" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1861,13 +2245,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C30" s="14"/>
+      <c r="D30" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1875,13 +2259,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C31" s="14"/>
+      <c r="D31" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1889,13 +2273,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C32" s="14"/>
+      <c r="D32" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1903,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C33" s="14"/>
+      <c r="D33" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1917,13 +2301,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C34" s="14"/>
+      <c r="D34" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1931,13 +2315,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C35" s="14"/>
+      <c r="D35" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1945,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C36" s="14"/>
+      <c r="D36" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1959,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C37" s="14"/>
+      <c r="D37" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1973,13 +2357,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C38" s="14"/>
+      <c r="D38" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1987,13 +2371,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C39" s="14"/>
+      <c r="D39" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2001,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C40" s="14"/>
+      <c r="D40" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2015,79 +2399,79 @@
         <v>1</v>
       </c>
       <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C41" s="14"/>
+      <c r="D41" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C42" s="14"/>
+      <c r="D42" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C43" s="14"/>
+      <c r="D43" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C44" s="14"/>
+      <c r="D44" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C45" s="14"/>
+      <c r="D45" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C46" s="14"/>
+      <c r="D46" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E46" s="11" t="s">
@@ -2096,483 +2480,474 @@
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C47" s="14"/>
+      <c r="D47" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C48" s="14"/>
+      <c r="D48" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C49" s="14"/>
+      <c r="D49" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C51" s="14"/>
+      <c r="D51" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C52" s="14"/>
+      <c r="D52" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C53" s="14"/>
+      <c r="D53" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C54" s="14"/>
+      <c r="D54" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C55" s="14"/>
+      <c r="D55" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C56" s="14"/>
+      <c r="D56" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C57" s="14"/>
+      <c r="D57" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C58" s="14"/>
+      <c r="D58" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C59" s="14"/>
+      <c r="D59" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C60" s="14"/>
+      <c r="D60" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C61" s="14"/>
+      <c r="D61" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C62" s="14"/>
+      <c r="D62" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C63" s="14"/>
+      <c r="D63" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C64" s="14"/>
+      <c r="D64" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C65" s="14"/>
+      <c r="D65" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C66" s="14"/>
+      <c r="D66" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C67" s="14"/>
+      <c r="D67" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C68" s="14"/>
+      <c r="D68" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C69" s="14"/>
+      <c r="D69" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C71" s="14"/>
+      <c r="D71" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C72" s="14"/>
+      <c r="D72" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C73" s="14"/>
+      <c r="D73" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C74" s="14"/>
+      <c r="D74" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C75" s="14"/>
+      <c r="D75" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C76" s="14"/>
+      <c r="D76" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C77" s="14"/>
+      <c r="D77" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C78" s="14"/>
+      <c r="D78" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
+      <c r="C79" s="14"/>
+      <c r="D79" s="12" t="e">
+        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TEXT(TabRules[[#This Row],[Group Number]],"00")</f>
         <v>#N/A</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13" t="e">
-        <f>VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;VLOOKUP(TabRules[[#This Row],[SubGroup]],TabGroups[[#All],[Subgroup]:[Subgroup Code]],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[Group Number]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="5" t="s">
-        <v>78</v>
+      <c r="E82" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.25">
@@ -2580,24 +2955,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="6" t="s">
-        <v>87</v>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="15" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D80">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  <conditionalFormatting sqref="D2:D79">
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E80">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+  <conditionalFormatting sqref="E2:E79">
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C2:C8" numberStoredAsText="1"/>
-  </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2610,17 +2982,17 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" hidden="1" customWidth="1"/>
@@ -2634,139 +3006,139 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
       <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>111</v>
-      </c>
-      <c r="K1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_01A</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_01A.ttl</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_01A</v>
+      </c>
+      <c r="E2" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_01A.ttl</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H2" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I2" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_01,CL_ST_01A.ttl,warning</v>
+        <v>owa,CL_EN_01,CL_EN_01A.ttl,valid</v>
       </c>
       <c r="J2" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_01,CL_ST_01A.ttl,error</v>
+        <v>cwa,CL_EN_01,CL_EN_01A.ttl,valid</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C3" s="7" t="s">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_01B</v>
+      </c>
+      <c r="E3" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_01B.ttl</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_01B</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_01B.ttl</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
       <c r="H3" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
       <c r="I3" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_01,CL_ST_01B.ttl,valid</v>
+        <v>owa,CL_EN_01,CL_EN_01B.ttl,valid</v>
       </c>
       <c r="J3" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_01,CL_ST_01B.ttl,valid</v>
+        <v>cwa,CL_EN_01,CL_EN_01B.ttl,valid</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="7" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_01C</v>
-      </c>
-      <c r="E4" s="7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_01C.ttl</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_01C</v>
+      </c>
+      <c r="E4" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_01C.ttl</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -2774,78 +3146,75 @@
       </c>
       <c r="I4" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_01,CL_ST_01C.ttl,valid</v>
+        <v>owa,CL_EN_01,CL_EN_01C.ttl,valid</v>
       </c>
       <c r="J4" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_01,CL_ST_01C.ttl,valid</v>
+        <v>cwa,CL_EN_01,CL_EN_01C.ttl,valid</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B5" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>104</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
       </c>
       <c r="D5" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_01D</v>
+        <v>CL_EN_01D</v>
       </c>
       <c r="E5" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_01D.ttl</v>
+        <v>CL_EN_01D.ttl</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H5" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I5" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_01,CL_ST_01D.ttl,error</v>
+        <v>owa,CL_EN_01,CL_EN_01D.ttl,valid</v>
       </c>
       <c r="J5" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_01,CL_ST_01D.ttl,error</v>
-      </c>
-      <c r="K5" t="s">
-        <v>113</v>
+        <v>cwa,CL_EN_01,CL_EN_01D.ttl,valid</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B6" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>105</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
       </c>
       <c r="D6" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_01E</v>
+        <v>CL_EN_01E</v>
       </c>
       <c r="E6" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_01E.ttl</v>
+        <v>CL_EN_01E.ttl</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -2853,40 +3222,37 @@
       </c>
       <c r="I6" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_01,CL_ST_01E.ttl,error</v>
+        <v>owa,CL_EN_01,CL_EN_01E.ttl,error</v>
       </c>
       <c r="J6" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_01,CL_ST_01E.ttl,error</v>
-      </c>
-      <c r="K6" t="s">
-        <v>113</v>
+        <v>cwa,CL_EN_01,CL_EN_01E.ttl,error</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>106</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
       </c>
       <c r="D7" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_01F</v>
+        <v>CL_EN_01F</v>
       </c>
       <c r="E7" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_01F.ttl</v>
+        <v>CL_EN_01F.ttl</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -2894,154 +3260,157 @@
       </c>
       <c r="I7" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_01,CL_ST_01F.ttl,error</v>
+        <v>owa,CL_EN_01,CL_EN_01F.ttl,error</v>
       </c>
       <c r="J7" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_01,CL_ST_01F.ttl,error</v>
-      </c>
-      <c r="K7" t="s">
-        <v>113</v>
+        <v>cwa,CL_EN_01,CL_EN_01F.ttl,error</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B8" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_02A</v>
+        <v>CL_EN_02A</v>
       </c>
       <c r="E8" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_02A.ttl</v>
+        <v>CL_EN_02A.ttl</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H8" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I8" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_02,CL_ST_02A.ttl,warning</v>
+        <v>owa,CL_EN_02,CL_EN_02A.ttl,valid</v>
       </c>
       <c r="J8" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_02,CL_ST_02A.ttl,error</v>
+        <v>cwa,CL_EN_02,CL_EN_02A.ttl,valid</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B9" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_02B</v>
+        <v>CL_EN_02B</v>
       </c>
       <c r="E9" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_02B.ttl</v>
+        <v>CL_EN_02B.ttl</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H9" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I9" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_02,CL_ST_02B.ttl,valid</v>
+        <v>owa,CL_EN_02,CL_EN_02B.ttl,warning</v>
       </c>
       <c r="J9" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_02,CL_ST_02B.ttl,valid</v>
+        <v>cwa,CL_EN_02,CL_EN_02B.ttl,error</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B10" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_02C</v>
+        <v>CL_EN_02C</v>
       </c>
       <c r="E10" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_02C.ttl</v>
+        <v>CL_EN_02C.ttl</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H10" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I10" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_02,CL_ST_02C.ttl,error</v>
+        <v>owa,CL_EN_02,CL_EN_02C.ttl,valid</v>
       </c>
       <c r="J10" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_02,CL_ST_02C.ttl,error</v>
+        <v>cwa,CL_EN_02,CL_EN_02C.ttl,valid</v>
+      </c>
+      <c r="K10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_02D</v>
+      </c>
+      <c r="E11" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_02D.ttl</v>
+      </c>
+      <c r="F11" t="s">
         <v>135</v>
       </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_02D</v>
-      </c>
-      <c r="E11" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_02D.ttl</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3049,40 +3418,40 @@
       </c>
       <c r="I11" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_02,CL_ST_02D.ttl,error</v>
+        <v>owa,CL_EN_02,CL_EN_02D.ttl,error</v>
       </c>
       <c r="J11" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_02,CL_ST_02D.ttl,error</v>
+        <v>cwa,CL_EN_02,CL_EN_02D.ttl,error</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_02E</v>
+        <v>CL_EN_02E</v>
       </c>
       <c r="E12" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_02E.ttl</v>
+        <v>CL_EN_02E.ttl</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3090,157 +3459,151 @@
       </c>
       <c r="I12" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_02,CL_ST_02E.ttl,valid</v>
+        <v>owa,CL_EN_02,CL_EN_02E.ttl,valid</v>
       </c>
       <c r="J12" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_02,CL_ST_02E.ttl,valid</v>
-      </c>
-      <c r="K12" t="s">
-        <v>113</v>
+        <v>cwa,CL_EN_02,CL_EN_02E.ttl,valid</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B13" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_ST_02F</v>
+        <v>CL_EN_02F</v>
       </c>
       <c r="E13" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_ST_02F.ttl</v>
+        <v>CL_EN_02F.ttl</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I13" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_ST_02,CL_ST_02F.ttl,error</v>
+        <v>owa,CL_EN_02,CL_EN_02F.ttl,valid</v>
       </c>
       <c r="J13" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_ST_02,CL_ST_02F.ttl,error</v>
-      </c>
-      <c r="K13" t="s">
-        <v>113</v>
+        <v>cwa,CL_EN_02,CL_EN_02F.ttl,valid</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B14" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_01A</v>
+        <v>CL_EN_03A</v>
       </c>
       <c r="E14" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_01A.ttl</v>
+        <v>CL_EN_03A.ttl</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H14" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I14" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_01,CL_EN_01A.ttl,valid</v>
+        <v>owa,CL_EN_03,CL_EN_03A.ttl,warning</v>
       </c>
       <c r="J14" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_01,CL_EN_01A.ttl,valid</v>
+        <v>cwa,CL_EN_03,CL_EN_03A.ttl,error</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B15" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_01B</v>
+        <v>CL_EN_03B</v>
       </c>
       <c r="E15" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_01B.ttl</v>
+        <v>CL_EN_03B.ttl</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H15" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I15" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_01,CL_EN_01B.ttl,valid</v>
+        <v>owa,CL_EN_03,CL_EN_03B.ttl,warning</v>
       </c>
       <c r="J15" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_01,CL_EN_01B.ttl,valid</v>
+        <v>cwa,CL_EN_03,CL_EN_03B.ttl,error</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B16" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_01C</v>
+        <v>CL_EN_03C</v>
       </c>
       <c r="E16" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_01C.ttl</v>
+        <v>CL_EN_03C.ttl</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3248,799 +3611,3146 @@
       </c>
       <c r="I16" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_01,CL_EN_01C.ttl,valid</v>
+        <v>owa,CL_EN_03,CL_EN_03C.ttl,valid</v>
       </c>
       <c r="J16" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_01,CL_EN_01C.ttl,valid</v>
+        <v>cwa,CL_EN_03,CL_EN_03C.ttl,valid</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <v>140</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_01D</v>
-      </c>
-      <c r="E17" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_01D.ttl</v>
+        <v>94</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_04A</v>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_04A.ttl</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" t="str">
+        <v>96</v>
+      </c>
+      <c r="H17" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I17" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_01,CL_EN_01D.ttl,valid</v>
-      </c>
-      <c r="J17" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_01,CL_EN_01D.ttl,valid</v>
+      <c r="I17" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_04,CL_EN_04A.ttl,valid</v>
+      </c>
+      <c r="J17" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_04,CL_EN_04A.ttl,valid</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <v>140</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_01E</v>
-      </c>
-      <c r="E18" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_01E.ttl</v>
+        <v>95</v>
+      </c>
+      <c r="D18" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_04B</v>
+      </c>
+      <c r="E18" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_04B.ttl</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" t="str">
+        <v>91</v>
+      </c>
+      <c r="H18" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I18" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_01,CL_EN_01E.ttl,error</v>
-      </c>
-      <c r="J18" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_01,CL_EN_01E.ttl,error</v>
+      <c r="I18" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_04,CL_EN_04B.ttl,error</v>
+      </c>
+      <c r="J18" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_04,CL_EN_04B.ttl,error</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <v>140</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_01F</v>
-      </c>
-      <c r="E19" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_01F.ttl</v>
+        <v>97</v>
+      </c>
+      <c r="D19" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_04C</v>
+      </c>
+      <c r="E19" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_04C.ttl</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" t="str">
+        <v>91</v>
+      </c>
+      <c r="H19" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I19" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_01,CL_EN_01F.ttl,error</v>
-      </c>
-      <c r="J19" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_01,CL_EN_01F.ttl,error</v>
+      <c r="I19" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_04,CL_EN_04C.ttl,error</v>
+      </c>
+      <c r="J19" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_04,CL_EN_04C.ttl,error</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>140</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_02A</v>
-      </c>
-      <c r="E20" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_02A.ttl</v>
+        <v>103</v>
+      </c>
+      <c r="D20" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_04D</v>
+      </c>
+      <c r="E20" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_04D.ttl</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I20" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_02,CL_EN_02A.ttl,valid</v>
-      </c>
-      <c r="J20" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_02,CL_EN_02A.ttl,valid</v>
+        <v>91</v>
+      </c>
+      <c r="H20" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I20" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_04,CL_EN_04D.ttl,error</v>
+      </c>
+      <c r="J20" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_04,CL_EN_04D.ttl,error</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>142</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_05A</v>
+      </c>
+      <c r="E21" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_05A.ttl</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
         <v>96</v>
       </c>
-      <c r="D21" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_02B</v>
-      </c>
-      <c r="E21" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_02B.ttl</v>
-      </c>
-      <c r="F21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I21" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_02,CL_EN_02B.ttl,warning</v>
-      </c>
-      <c r="J21" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_02,CL_EN_02B.ttl,error</v>
-      </c>
-      <c r="K21" t="s">
-        <v>138</v>
+      <c r="H21" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I21" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_05,CL_EN_05A.ttl,valid</v>
+      </c>
+      <c r="J21" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_05,CL_EN_05A.ttl,valid</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>142</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_02C</v>
-      </c>
-      <c r="E22" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_02C.ttl</v>
+        <v>95</v>
+      </c>
+      <c r="D22" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_05B</v>
+      </c>
+      <c r="E22" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_05B.ttl</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I22" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_02,CL_EN_02C.ttl,valid</v>
-      </c>
-      <c r="J22" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_02,CL_EN_02C.ttl,valid</v>
-      </c>
-      <c r="K22" t="s">
-        <v>142</v>
+        <v>90</v>
+      </c>
+      <c r="H22" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I22" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_05,CL_EN_05B.ttl,warning</v>
+      </c>
+      <c r="J22" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_05,CL_EN_05B.ttl,error</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>142</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_02D</v>
-      </c>
-      <c r="E23" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_02D.ttl</v>
+        <v>97</v>
+      </c>
+      <c r="D23" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_05C</v>
+      </c>
+      <c r="E23" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_05C.ttl</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" t="str">
+        <v>91</v>
+      </c>
+      <c r="H23" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I23" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_02,CL_EN_02D.ttl,error</v>
-      </c>
-      <c r="J23" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_02,CL_EN_02D.ttl,error</v>
-      </c>
-      <c r="K23" t="s">
-        <v>142</v>
+      <c r="I23" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_05,CL_EN_05C.ttl,error</v>
+      </c>
+      <c r="J23" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_05,CL_EN_05C.ttl,error</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>142</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_02E</v>
-      </c>
-      <c r="E24" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_02E.ttl</v>
+        <v>103</v>
+      </c>
+      <c r="D24" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_EN_05D</v>
+      </c>
+      <c r="E24" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_EN_05D.ttl</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" t="str">
+        <v>96</v>
+      </c>
+      <c r="H24" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I24" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_02,CL_EN_02E.ttl,valid</v>
-      </c>
-      <c r="J24" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_02,CL_EN_02E.ttl,valid</v>
+      <c r="I24" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_EN_05,CL_EN_05D.ttl,valid</v>
+      </c>
+      <c r="J24" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_EN_05,CL_EN_05D.ttl,valid</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>160</v>
+      </c>
+      <c r="B25" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_02F</v>
-      </c>
-      <c r="E25" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_02F.ttl</v>
+        <v>249</v>
+      </c>
+      <c r="D25" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B01</v>
+      </c>
+      <c r="E25" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B01.ttl</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I25" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_02,CL_EN_02F.ttl,valid</v>
-      </c>
-      <c r="J25" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_02,CL_EN_02F.ttl,valid</v>
+        <v>90</v>
+      </c>
+      <c r="H25" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I25" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B01.ttl,warning</v>
+      </c>
+      <c r="J25" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B01.ttl,error</v>
+      </c>
+      <c r="K25" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every enumeration class must have at least two literals.</v>
+        <v>160</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_03A</v>
-      </c>
-      <c r="E26" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_03A.ttl</v>
+        <v>250</v>
+      </c>
+      <c r="D26" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B02</v>
+      </c>
+      <c r="E26" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B02.ttl</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" t="str">
+        <v>90</v>
+      </c>
+      <c r="H26" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I26" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_03,CL_EN_03A.ttl,warning</v>
-      </c>
-      <c r="J26" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_03,CL_EN_03A.ttl,error</v>
+      <c r="I26" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B02.ttl,warning</v>
+      </c>
+      <c r="J26" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B02.ttl,error</v>
+      </c>
+      <c r="K26" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every enumeration class must have at least two literals.</v>
+        <v>160</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_03B</v>
-      </c>
-      <c r="E27" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_03B.ttl</v>
+        <v>251</v>
+      </c>
+      <c r="D27" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B03</v>
+      </c>
+      <c r="E27" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B03.ttl</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" t="str">
+        <v>90</v>
+      </c>
+      <c r="H27" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I27" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_03,CL_EN_03B.ttl,warning</v>
-      </c>
-      <c r="J27" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_03,CL_EN_03B.ttl,error</v>
+      <c r="I27" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B03.ttl,warning</v>
+      </c>
+      <c r="J27" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B03.ttl,error</v>
+      </c>
+      <c r="K27" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every enumeration class must have at least two literals.</v>
+        <v>160</v>
+      </c>
+      <c r="B28" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_03C</v>
-      </c>
-      <c r="E28" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_03C.ttl</v>
+        <v>252</v>
+      </c>
+      <c r="D28" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B04</v>
+      </c>
+      <c r="E28" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B04.ttl</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I28" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_03,CL_EN_03C.ttl,valid</v>
-      </c>
-      <c r="J28" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_03,CL_EN_03C.ttl,valid</v>
+        <v>90</v>
+      </c>
+      <c r="H28" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I28" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B04.ttl,warning</v>
+      </c>
+      <c r="J28" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B04.ttl,error</v>
+      </c>
+      <c r="K28" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="14" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes cannot be specialized by other classes.</v>
+        <v>160</v>
+      </c>
+      <c r="B29" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="14" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_04A</v>
-      </c>
-      <c r="E29" s="14" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_04A.ttl</v>
+        <v>253</v>
+      </c>
+      <c r="D29" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B05</v>
+      </c>
+      <c r="E29" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B05.ttl</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="14" t="str">
+        <v>96</v>
+      </c>
+      <c r="H29" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I29" s="14" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_04,CL_EN_04A.ttl,valid</v>
-      </c>
-      <c r="J29" s="14" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_04,CL_EN_04A.ttl,valid</v>
+      <c r="I29" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B05.ttl,valid</v>
+      </c>
+      <c r="J29" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B05.ttl,valid</v>
+      </c>
+      <c r="K29" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="14" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes cannot be specialized by other classes.</v>
+        <v>160</v>
+      </c>
+      <c r="B30" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="14" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_04B</v>
-      </c>
-      <c r="E30" s="14" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_04B.ttl</v>
+        <v>254</v>
+      </c>
+      <c r="D30" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B06</v>
+      </c>
+      <c r="E30" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B06.ttl</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="14" t="str">
+        <v>90</v>
+      </c>
+      <c r="H30" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I30" s="14" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_04,CL_EN_04B.ttl,error</v>
-      </c>
-      <c r="J30" s="14" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_04,CL_EN_04B.ttl,error</v>
+      <c r="I30" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B06.ttl,warning</v>
+      </c>
+      <c r="J30" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B06.ttl,error</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="14" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes cannot be specialized by other classes.</v>
+        <v>160</v>
+      </c>
+      <c r="B31" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="14" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_04C</v>
-      </c>
-      <c r="E31" s="14" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_04C.ttl</v>
+        <v>255</v>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B07</v>
+      </c>
+      <c r="E31" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B07.ttl</v>
       </c>
       <c r="F31" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="14" t="str">
+        <v>90</v>
+      </c>
+      <c r="H31" s="13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I31" s="14" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_04,CL_EN_04C.ttl,error</v>
-      </c>
-      <c r="J31" s="14" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_04,CL_EN_04C.ttl,error</v>
+      <c r="I31" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B07.ttl,warning</v>
+      </c>
+      <c r="J31" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B07.ttl,error</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="14" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes cannot be specialized by other classes.</v>
+        <v>160</v>
+      </c>
+      <c r="B32" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B08</v>
+      </c>
+      <c r="E32" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B08.ttl</v>
+      </c>
+      <c r="F32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I32" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B08.ttl,warning</v>
+      </c>
+      <c r="J32" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B08.ttl,error</v>
+      </c>
+      <c r="K32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B09</v>
+      </c>
+      <c r="E33" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B09.ttl</v>
+      </c>
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I33" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B09.ttl,valid</v>
+      </c>
+      <c r="J33" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B09.ttl,valid</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B10</v>
+      </c>
+      <c r="E34" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B10.ttl</v>
+      </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I34" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B10.ttl,valid</v>
+      </c>
+      <c r="J34" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B10.ttl,valid</v>
+      </c>
+      <c r="K34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B11</v>
+      </c>
+      <c r="E35" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B11.ttl</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I35" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B11.ttl,error</v>
+      </c>
+      <c r="J35" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B11.ttl,error</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B12</v>
+      </c>
+      <c r="E36" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B12.ttl</v>
+      </c>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I36" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B12.ttl,valid</v>
+      </c>
+      <c r="J36" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B12.ttl,valid</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B13</v>
+      </c>
+      <c r="E37" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B13.ttl</v>
+      </c>
+      <c r="F37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I37" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B13.ttl,error</v>
+      </c>
+      <c r="J37" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B13.ttl,error</v>
+      </c>
+      <c r="K37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B14</v>
+      </c>
+      <c r="E38" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B14.ttl</v>
+      </c>
+      <c r="F38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I38" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B14.ttl,warning</v>
+      </c>
+      <c r="J38" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B14.ttl,error</v>
+      </c>
+      <c r="K38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B15</v>
+      </c>
+      <c r="E39" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B15.ttl</v>
+      </c>
+      <c r="F39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I39" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B15.ttl,warning</v>
+      </c>
+      <c r="J39" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B15.ttl,error</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B16</v>
+      </c>
+      <c r="E40" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B16.ttl</v>
+      </c>
+      <c r="F40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I40" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B16.ttl,warning</v>
+      </c>
+      <c r="J40" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B16.ttl,error</v>
+      </c>
+      <c r="K40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B17</v>
+      </c>
+      <c r="E41" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B17.ttl</v>
+      </c>
+      <c r="F41" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I41" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B17.ttl,warning</v>
+      </c>
+      <c r="J41" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B17.ttl,error</v>
+      </c>
+      <c r="K41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B18</v>
+      </c>
+      <c r="E42" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B18.ttl</v>
+      </c>
+      <c r="F42" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I42" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B18.ttl,valid</v>
+      </c>
+      <c r="J42" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B18.ttl,valid</v>
+      </c>
+      <c r="K42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01B19</v>
+      </c>
+      <c r="E43" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01B19.ttl</v>
+      </c>
+      <c r="F43" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I43" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01B19.ttl,error</v>
+      </c>
+      <c r="J43" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01B19.ttl,error</v>
+      </c>
+      <c r="K43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N01</v>
+      </c>
+      <c r="E44" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N01.ttl</v>
+      </c>
+      <c r="F44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I44" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N01.ttl,valid</v>
+      </c>
+      <c r="J44" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N01.ttl,valid</v>
+      </c>
+      <c r="K44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N02</v>
+      </c>
+      <c r="E45" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N02.ttl</v>
+      </c>
+      <c r="F45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I45" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N02.ttl,warning</v>
+      </c>
+      <c r="J45" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N02.ttl,error</v>
+      </c>
+      <c r="K45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N03</v>
+      </c>
+      <c r="E46" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N03.ttl</v>
+      </c>
+      <c r="F46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I46" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N03.ttl,warning</v>
+      </c>
+      <c r="J46" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N03.ttl,error</v>
+      </c>
+      <c r="K46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C47" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N04</v>
+      </c>
+      <c r="E47" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N04.ttl</v>
+      </c>
+      <c r="F47" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I47" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N04.ttl,warning</v>
+      </c>
+      <c r="J47" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N04.ttl,error</v>
+      </c>
+      <c r="K47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N05</v>
+      </c>
+      <c r="E48" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N05.ttl</v>
+      </c>
+      <c r="F48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I48" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N05.ttl,valid</v>
+      </c>
+      <c r="J48" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N05.ttl,valid</v>
+      </c>
+      <c r="K48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N06</v>
+      </c>
+      <c r="E49" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N06.ttl</v>
+      </c>
+      <c r="F49" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I49" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N06.ttl,valid</v>
+      </c>
+      <c r="J49" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N06.ttl,valid</v>
+      </c>
+      <c r="K49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C50" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N07</v>
+      </c>
+      <c r="E50" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N07.ttl</v>
+      </c>
+      <c r="F50" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I50" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N07.ttl,warning</v>
+      </c>
+      <c r="J50" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N07.ttl,error</v>
+      </c>
+      <c r="K50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C51" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N08</v>
+      </c>
+      <c r="E51" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N08.ttl</v>
+      </c>
+      <c r="F51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I51" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N08.ttl,valid</v>
+      </c>
+      <c r="J51" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N08.ttl,valid</v>
+      </c>
+      <c r="K51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N09</v>
+      </c>
+      <c r="E52" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N09.ttl</v>
+      </c>
+      <c r="F52" t="s">
+        <v>181</v>
+      </c>
+      <c r="G52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I52" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N09.ttl,valid</v>
+      </c>
+      <c r="J52" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N09.ttl,valid</v>
+      </c>
+      <c r="K52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N10</v>
+      </c>
+      <c r="E53" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N10.ttl</v>
+      </c>
+      <c r="F53" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I53" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N10.ttl,valid</v>
+      </c>
+      <c r="J53" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N10.ttl,valid</v>
+      </c>
+      <c r="K53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N11</v>
+      </c>
+      <c r="E54" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N11.ttl</v>
+      </c>
+      <c r="F54" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I54" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N11.ttl,warning</v>
+      </c>
+      <c r="J54" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N11.ttl,error</v>
+      </c>
+      <c r="K54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N12</v>
+      </c>
+      <c r="E55" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N12.ttl</v>
+      </c>
+      <c r="F55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I55" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N12.ttl,valid</v>
+      </c>
+      <c r="J55" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N12.ttl,valid</v>
+      </c>
+      <c r="K55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N13</v>
+      </c>
+      <c r="E56" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N13.ttl</v>
+      </c>
+      <c r="F56" t="s">
+        <v>185</v>
+      </c>
+      <c r="G56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I56" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N13.ttl,valid</v>
+      </c>
+      <c r="J56" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N13.ttl,valid</v>
+      </c>
+      <c r="K56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N14</v>
+      </c>
+      <c r="E57" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N14.ttl</v>
+      </c>
+      <c r="F57" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I57" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N14.ttl,warning</v>
+      </c>
+      <c r="J57" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N14.ttl,error</v>
+      </c>
+      <c r="K57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N15</v>
+      </c>
+      <c r="E58" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N15.ttl</v>
+      </c>
+      <c r="F58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I58" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N15.ttl,warning</v>
+      </c>
+      <c r="J58" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N15.ttl,error</v>
+      </c>
+      <c r="K58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C59" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N16</v>
+      </c>
+      <c r="E59" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N16.ttl</v>
+      </c>
+      <c r="F59" t="s">
+        <v>209</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I59" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N16.ttl,warning</v>
+      </c>
+      <c r="J59" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N16.ttl,error</v>
+      </c>
+      <c r="K59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C60" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N17</v>
+      </c>
+      <c r="E60" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N17.ttl</v>
+      </c>
+      <c r="F60" t="s">
+        <v>210</v>
+      </c>
+      <c r="G60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I60" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N17.ttl,valid</v>
+      </c>
+      <c r="J60" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N17.ttl,valid</v>
+      </c>
+      <c r="K60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N18</v>
+      </c>
+      <c r="E61" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N18.ttl</v>
+      </c>
+      <c r="F61" t="s">
+        <v>211</v>
+      </c>
+      <c r="G61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I61" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N18.ttl,valid</v>
+      </c>
+      <c r="J61" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N18.ttl,valid</v>
+      </c>
+      <c r="K61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C62" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01N19</v>
+      </c>
+      <c r="E62" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01N19.ttl</v>
+      </c>
+      <c r="F62" t="s">
+        <v>212</v>
+      </c>
+      <c r="G62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I62" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01N19.ttl,valid</v>
+      </c>
+      <c r="J62" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01N19.ttl,valid</v>
+      </c>
+      <c r="K62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U01</v>
+      </c>
+      <c r="E63" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U01.ttl</v>
+      </c>
+      <c r="F63" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I63" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U01.ttl,valid</v>
+      </c>
+      <c r="J63" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U01.ttl,valid</v>
+      </c>
+      <c r="K63" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C64" t="s">
+        <v>268</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U02</v>
+      </c>
+      <c r="E64" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U02.ttl</v>
+      </c>
+      <c r="F64" t="s">
+        <v>186</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
+      <c r="H64" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I64" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U02.ttl,warning</v>
+      </c>
+      <c r="J64" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U02.ttl,error</v>
+      </c>
+      <c r="K64" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C65" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U03</v>
+      </c>
+      <c r="E65" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U03.ttl</v>
+      </c>
+      <c r="F65" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I65" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U03.ttl,warning</v>
+      </c>
+      <c r="J65" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U03.ttl,error</v>
+      </c>
+      <c r="K65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C66" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U04</v>
+      </c>
+      <c r="E66" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U04.ttl</v>
+      </c>
+      <c r="F66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I66" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U04.ttl,warning</v>
+      </c>
+      <c r="J66" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U04.ttl,error</v>
+      </c>
+      <c r="K66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C67" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U05</v>
+      </c>
+      <c r="E67" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U05.ttl</v>
+      </c>
+      <c r="F67" t="s">
+        <v>189</v>
+      </c>
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I67" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U05.ttl,valid</v>
+      </c>
+      <c r="J67" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U05.ttl,valid</v>
+      </c>
+      <c r="K67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C68" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U06</v>
+      </c>
+      <c r="E68" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U06.ttl</v>
+      </c>
+      <c r="F68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I68" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U06.ttl,valid</v>
+      </c>
+      <c r="J68" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U06.ttl,valid</v>
+      </c>
+      <c r="K68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C69" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U07</v>
+      </c>
+      <c r="E69" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U07.ttl</v>
+      </c>
+      <c r="F69" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I69" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U07.ttl,warning</v>
+      </c>
+      <c r="J69" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U07.ttl,error</v>
+      </c>
+      <c r="K69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C70" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U08</v>
+      </c>
+      <c r="E70" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U08.ttl</v>
+      </c>
+      <c r="F70" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" t="s">
+        <v>96</v>
+      </c>
+      <c r="H70" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I70" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U08.ttl,valid</v>
+      </c>
+      <c r="J70" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U08.ttl,valid</v>
+      </c>
+      <c r="K70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C71" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U09</v>
+      </c>
+      <c r="E71" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U09.ttl</v>
+      </c>
+      <c r="F71" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71" t="s">
+        <v>96</v>
+      </c>
+      <c r="H71" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I71" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U09.ttl,valid</v>
+      </c>
+      <c r="J71" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U09.ttl,valid</v>
+      </c>
+      <c r="K71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C72" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U10</v>
+      </c>
+      <c r="E72" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U10.ttl</v>
+      </c>
+      <c r="F72" t="s">
+        <v>194</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
+      <c r="H72" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I72" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U10.ttl,valid</v>
+      </c>
+      <c r="J72" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U10.ttl,valid</v>
+      </c>
+      <c r="K72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C73" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U11</v>
+      </c>
+      <c r="E73" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U11.ttl</v>
+      </c>
+      <c r="F73" t="s">
+        <v>195</v>
+      </c>
+      <c r="G73" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I73" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U11.ttl,warning</v>
+      </c>
+      <c r="J73" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U11.ttl,error</v>
+      </c>
+      <c r="K73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C74" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U12</v>
+      </c>
+      <c r="E74" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U12.ttl</v>
+      </c>
+      <c r="F74" t="s">
+        <v>196</v>
+      </c>
+      <c r="G74" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I74" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U12.ttl,valid</v>
+      </c>
+      <c r="J74" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U12.ttl,valid</v>
+      </c>
+      <c r="K74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C75" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U13</v>
+      </c>
+      <c r="E75" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U13.ttl</v>
+      </c>
+      <c r="F75" t="s">
+        <v>197</v>
+      </c>
+      <c r="G75" t="s">
+        <v>96</v>
+      </c>
+      <c r="H75" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I75" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U13.ttl,valid</v>
+      </c>
+      <c r="J75" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U13.ttl,valid</v>
+      </c>
+      <c r="K75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U14</v>
+      </c>
+      <c r="E76" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U14.ttl</v>
+      </c>
+      <c r="F76" t="s">
+        <v>213</v>
+      </c>
+      <c r="G76" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I76" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U14.ttl,warning</v>
+      </c>
+      <c r="J76" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U14.ttl,error</v>
+      </c>
+      <c r="K76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C77" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U15</v>
+      </c>
+      <c r="E77" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U15.ttl</v>
+      </c>
+      <c r="F77" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I77" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U15.ttl,warning</v>
+      </c>
+      <c r="J77" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U15.ttl,error</v>
+      </c>
+      <c r="K77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C78" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U16</v>
+      </c>
+      <c r="E78" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U16.ttl</v>
+      </c>
+      <c r="F78" t="s">
+        <v>215</v>
+      </c>
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I78" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U16.ttl,warning</v>
+      </c>
+      <c r="J78" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U16.ttl,error</v>
+      </c>
+      <c r="K78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C79" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U17</v>
+      </c>
+      <c r="E79" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U17.ttl</v>
+      </c>
+      <c r="F79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" t="s">
+        <v>96</v>
+      </c>
+      <c r="H79" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I79" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U17.ttl,valid</v>
+      </c>
+      <c r="J79" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U17.ttl,valid</v>
+      </c>
+      <c r="K79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U18</v>
+      </c>
+      <c r="E80" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U18.ttl</v>
+      </c>
+      <c r="F80" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I80" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U18.ttl,valid</v>
+      </c>
+      <c r="J80" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U18.ttl,valid</v>
+      </c>
+      <c r="K80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="13" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C81" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" s="16" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_SO_01U19</v>
+      </c>
+      <c r="E81" s="13" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_SO_01U19.ttl</v>
+      </c>
+      <c r="F81" t="s">
+        <v>218</v>
+      </c>
+      <c r="G81" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" s="13" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I81" s="13" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_SO_01,CL_SO_01U19.ttl,valid</v>
+      </c>
+      <c r="J81" s="13" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_SO_01,CL_SO_01U19.ttl,valid</v>
+      </c>
+      <c r="K81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="7" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_01A</v>
+      </c>
+      <c r="E82" s="7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_01A.ttl</v>
+      </c>
+      <c r="F82" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I82" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_01,CL_ST_01A.ttl,warning</v>
+      </c>
+      <c r="J82" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_01,CL_ST_01A.ttl,error</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="7" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_01B</v>
+      </c>
+      <c r="E83" s="7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_01B.ttl</v>
+      </c>
+      <c r="F83" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" t="s">
+        <v>96</v>
+      </c>
+      <c r="H83" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I83" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_01,CL_ST_01B.ttl,valid</v>
+      </c>
+      <c r="J83" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_01,CL_ST_01B.ttl,valid</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="7" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_01C</v>
+      </c>
+      <c r="E84" s="7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_01C.ttl</v>
+      </c>
+      <c r="F84" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" t="s">
+        <v>96</v>
+      </c>
+      <c r="H84" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I84" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_01,CL_ST_01C.ttl,valid</v>
+      </c>
+      <c r="J84" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_01,CL_ST_01C.ttl,valid</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_01D</v>
+      </c>
+      <c r="E85" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_01D.ttl</v>
+      </c>
+      <c r="F85" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I85" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_01,CL_ST_01D.ttl,error</v>
+      </c>
+      <c r="J85" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_01,CL_ST_01D.ttl,error</v>
+      </c>
+      <c r="K85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="14" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_04D</v>
-      </c>
-      <c r="E32" s="14" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_04D.ttl</v>
-      </c>
-      <c r="F32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="14" t="str">
+      <c r="D86" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_01E</v>
+      </c>
+      <c r="E86" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_01E.ttl</v>
+      </c>
+      <c r="F86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I32" s="14" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_04,CL_EN_04D.ttl,error</v>
-      </c>
-      <c r="J32" s="14" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_04,CL_EN_04D.ttl,error</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="14" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="I86" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_01,CL_ST_01E.ttl,error</v>
+      </c>
+      <c r="J86" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_01,CL_ST_01E.ttl,error</v>
+      </c>
+      <c r="K86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_01F</v>
+      </c>
+      <c r="E87" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_01F.ttl</v>
+      </c>
+      <c r="F87" t="s">
+        <v>102</v>
+      </c>
+      <c r="G87" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I87" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_01,CL_ST_01F.ttl,error</v>
+      </c>
+      <c r="J87" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_01,CL_ST_01F.ttl,error</v>
+      </c>
+      <c r="K87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_02A</v>
+      </c>
+      <c r="E88" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_02A.ttl</v>
+      </c>
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I88" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_02,CL_ST_02A.ttl,warning</v>
+      </c>
+      <c r="J88" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_02,CL_ST_02A.ttl,error</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+      </c>
+      <c r="C89" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="14" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_05A</v>
-      </c>
-      <c r="E33" s="14" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_05A.ttl</v>
-      </c>
-      <c r="F33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="D89" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_02B</v>
+      </c>
+      <c r="E89" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_02B.ttl</v>
+      </c>
+      <c r="F89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" t="s">
+        <v>96</v>
+      </c>
+      <c r="H89" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I89" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_02,CL_ST_02B.ttl,valid</v>
+      </c>
+      <c r="J89" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_02,CL_ST_02B.ttl,valid</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+      </c>
+      <c r="C90" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="14" t="str">
+      <c r="D90" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_02C</v>
+      </c>
+      <c r="E90" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_02C.ttl</v>
+      </c>
+      <c r="F90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I90" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_02,CL_ST_02C.ttl,error</v>
+      </c>
+      <c r="J90" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_02,CL_ST_02C.ttl,error</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_02D</v>
+      </c>
+      <c r="E91" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_02D.ttl</v>
+      </c>
+      <c r="F91" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I91" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_02,CL_ST_02D.ttl,error</v>
+      </c>
+      <c r="J91" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_02,CL_ST_02D.ttl,error</v>
+      </c>
+      <c r="K91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_02E</v>
+      </c>
+      <c r="E92" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_02E.ttl</v>
+      </c>
+      <c r="F92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" t="s">
+        <v>96</v>
+      </c>
+      <c r="H92" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I33" s="14" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_05,CL_EN_05A.ttl,valid</v>
-      </c>
-      <c r="J33" s="14" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_05,CL_EN_05A.ttl,valid</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="14" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="14" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_05B</v>
-      </c>
-      <c r="E34" s="14" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_05B.ttl</v>
-      </c>
-      <c r="F34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="I92" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_02,CL_ST_02E.ttl,valid</v>
+      </c>
+      <c r="J92" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_02,CL_ST_02E.ttl,valid</v>
+      </c>
+      <c r="K92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+      </c>
+      <c r="C93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
+        <v>CL_ST_02F</v>
+      </c>
+      <c r="E93" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>CL_ST_02F.ttl</v>
+      </c>
+      <c r="F93" t="s">
+        <v>102</v>
+      </c>
+      <c r="G93" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="14" t="str">
+      <c r="H93" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I34" s="14" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_05,CL_EN_05B.ttl,warning</v>
-      </c>
-      <c r="J34" s="14" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_05,CL_EN_05B.ttl,error</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="14" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="14" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_05C</v>
-      </c>
-      <c r="E35" s="14" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_05C.ttl</v>
-      </c>
-      <c r="F35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="14" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I35" s="14" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_05,CL_EN_05C.ttl,error</v>
-      </c>
-      <c r="J35" s="14" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_05,CL_EN_05C.ttl,error</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="14" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[#All],[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="14" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>CL_EN_05D</v>
-      </c>
-      <c r="E36" s="14" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>CL_EN_05D.ttl</v>
-      </c>
-      <c r="F36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="14" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I36" s="14" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,CL_EN_05,CL_EN_05D.ttl,valid</v>
-      </c>
-      <c r="J36" s="14" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,CL_EN_05,CL_EN_05D.ttl,valid</v>
+      <c r="I93" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,CL_ST_02,CL_ST_02F.ttl,error</v>
+      </c>
+      <c r="J93" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,CL_ST_02,CL_ST_02F.ttl,error</v>
+      </c>
+      <c r="K93" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:E36">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H221">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G2:H248">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2:E93">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H36" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H93" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
       <formula1>"Valid,Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB665E72-161F-421A-A13C-EAEBBE618898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FD06C2-314F-4736-8DD9-A4D5F0B691BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="6420" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules Definition" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="280">
   <si>
     <t>Description</t>
   </si>
@@ -865,6 +865,15 @@
   </si>
   <si>
     <t>B: base sortal, N: not set, U: ultimate sortal. Used B = role, phase, subkind and U = kind, mode, relator (1st, 2nd, and 3rd appearances)</t>
+  </si>
+  <si>
+    <t>B: base sortal, N: not set, U: ultimate sortal. Used B = role, phase, subkind and U = kind, mode (1st, 2nd, and 3rd appearances)</t>
+  </si>
+  <si>
+    <t>B: base sortal, N: not set, U: ultimate sortal. Used B = phase, subkind and U = kind, mode (1st, 2nd, and 3rd appearances)</t>
+  </si>
+  <si>
+    <t>B: base sortal, N: not set, U: ultimate sortal. Used B = phase, subkind and U = relator, kind, mode (1st, 2nd, and 3rd appearances)</t>
   </si>
 </sst>
 </file>
@@ -946,17 +955,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -979,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1017,15 +1025,35 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1085,12 +1113,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1376,21 +1398,21 @@
       <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation ID"/>
-    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="0">
       <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="1">
       <calculatedColumnFormula>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F491E82A-09B4-4B22-AA08-7E6DFD336A64}" name="Situation Description"/>
     <tableColumn id="4" xr3:uid="{92BCF063-80EB-4A9C-AA1A-6F95CC9435A7}" name="OWA Level"/>
-    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="10">
       <calculatedColumnFormula>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="9">
       <calculatedColumnFormula>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="8">
       <calculatedColumnFormula>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9CF1643D-B8F2-452E-B29E-AD6EF72070C4}" name="Comments"/>
@@ -2963,10 +2985,10 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D2:D79">
-    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E79">
-    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2985,8 +3007,8 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,7 +3072,7 @@
       <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_01A</v>
       </c>
@@ -3088,7 +3110,7 @@
       <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_01B</v>
       </c>
@@ -3126,7 +3148,7 @@
       <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_01C</v>
       </c>
@@ -3164,7 +3186,7 @@
       <c r="C5" t="s">
         <v>103</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_01D</v>
       </c>
@@ -3202,7 +3224,7 @@
       <c r="C6" t="s">
         <v>104</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_01E</v>
       </c>
@@ -3240,7 +3262,7 @@
       <c r="C7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_01F</v>
       </c>
@@ -3278,7 +3300,7 @@
       <c r="C8" t="s">
         <v>94</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02A</v>
       </c>
@@ -3316,7 +3338,7 @@
       <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02B</v>
       </c>
@@ -3357,7 +3379,7 @@
       <c r="C10" t="s">
         <v>97</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02C</v>
       </c>
@@ -3398,7 +3420,7 @@
       <c r="C11" t="s">
         <v>103</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02D</v>
       </c>
@@ -3439,7 +3461,7 @@
       <c r="C12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02E</v>
       </c>
@@ -3477,7 +3499,7 @@
       <c r="C13" t="s">
         <v>105</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_02F</v>
       </c>
@@ -3515,7 +3537,7 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_03A</v>
       </c>
@@ -3553,7 +3575,7 @@
       <c r="C15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_03B</v>
       </c>
@@ -3591,7 +3613,7 @@
       <c r="C16" t="s">
         <v>97</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_03C</v>
       </c>
@@ -3629,7 +3651,7 @@
       <c r="C17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="13" t="str">
+      <c r="D17" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_04A</v>
       </c>
@@ -3667,7 +3689,7 @@
       <c r="C18" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="13" t="str">
+      <c r="D18" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_04B</v>
       </c>
@@ -3705,7 +3727,7 @@
       <c r="C19" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="13" t="str">
+      <c r="D19" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_04C</v>
       </c>
@@ -3743,7 +3765,7 @@
       <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="13" t="str">
+      <c r="D20" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_04D</v>
       </c>
@@ -3781,7 +3803,7 @@
       <c r="C21" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="13" t="str">
+      <c r="D21" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_05A</v>
       </c>
@@ -3819,7 +3841,7 @@
       <c r="C22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="13" t="str">
+      <c r="D22" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_05B</v>
       </c>
@@ -3857,7 +3879,7 @@
       <c r="C23" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="13" t="str">
+      <c r="D23" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_05C</v>
       </c>
@@ -3895,7 +3917,7 @@
       <c r="C24" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="13" t="str">
+      <c r="D24" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_EN_05D</v>
       </c>
@@ -3933,7 +3955,7 @@
       <c r="C25" t="s">
         <v>249</v>
       </c>
-      <c r="D25" s="13" t="str">
+      <c r="D25" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B01</v>
       </c>
@@ -3960,7 +3982,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B01.ttl,error</v>
       </c>
       <c r="K25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3974,7 +3996,7 @@
       <c r="C26" t="s">
         <v>250</v>
       </c>
-      <c r="D26" s="13" t="str">
+      <c r="D26" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B02</v>
       </c>
@@ -4001,7 +4023,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B02.ttl,error</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4015,7 +4037,7 @@
       <c r="C27" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="13" t="str">
+      <c r="D27" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B03</v>
       </c>
@@ -4042,7 +4064,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B03.ttl,error</v>
       </c>
       <c r="K27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4056,7 +4078,7 @@
       <c r="C28" t="s">
         <v>252</v>
       </c>
-      <c r="D28" s="13" t="str">
+      <c r="D28" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B04</v>
       </c>
@@ -4083,7 +4105,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B04.ttl,error</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4097,7 +4119,7 @@
       <c r="C29" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="13" t="str">
+      <c r="D29" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B05</v>
       </c>
@@ -4124,7 +4146,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B05.ttl,valid</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4138,7 +4160,7 @@
       <c r="C30" t="s">
         <v>254</v>
       </c>
-      <c r="D30" s="13" t="str">
+      <c r="D30" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B06</v>
       </c>
@@ -4165,7 +4187,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B06.ttl,error</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4179,7 +4201,7 @@
       <c r="C31" t="s">
         <v>255</v>
       </c>
-      <c r="D31" s="13" t="str">
+      <c r="D31" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B07</v>
       </c>
@@ -4206,7 +4228,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B07.ttl,error</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4220,7 +4242,7 @@
       <c r="C32" t="s">
         <v>256</v>
       </c>
-      <c r="D32" s="13" t="str">
+      <c r="D32" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B08</v>
       </c>
@@ -4247,7 +4269,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B08.ttl,error</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4261,7 +4283,7 @@
       <c r="C33" t="s">
         <v>257</v>
       </c>
-      <c r="D33" s="13" t="str">
+      <c r="D33" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B09</v>
       </c>
@@ -4288,7 +4310,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B09.ttl,valid</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4302,7 +4324,7 @@
       <c r="C34" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="13" t="str">
+      <c r="D34" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B10</v>
       </c>
@@ -4329,7 +4351,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B10.ttl,valid</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4343,7 +4365,7 @@
       <c r="C35" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="13" t="str">
+      <c r="D35" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B11</v>
       </c>
@@ -4370,7 +4392,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B11.ttl,error</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4384,7 +4406,7 @@
       <c r="C36" t="s">
         <v>221</v>
       </c>
-      <c r="D36" s="13" t="str">
+      <c r="D36" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B12</v>
       </c>
@@ -4411,7 +4433,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B12.ttl,valid</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -4425,7 +4447,7 @@
       <c r="C37" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="13" t="str">
+      <c r="D37" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B13</v>
       </c>
@@ -4452,7 +4474,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B13.ttl,error</v>
       </c>
       <c r="K37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4466,7 +4488,7 @@
       <c r="C38" t="s">
         <v>223</v>
       </c>
-      <c r="D38" s="13" t="str">
+      <c r="D38" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B14</v>
       </c>
@@ -4493,7 +4515,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B14.ttl,error</v>
       </c>
       <c r="K38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4507,7 +4529,7 @@
       <c r="C39" t="s">
         <v>224</v>
       </c>
-      <c r="D39" s="13" t="str">
+      <c r="D39" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B15</v>
       </c>
@@ -4534,7 +4556,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B15.ttl,error</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4548,7 +4570,7 @@
       <c r="C40" t="s">
         <v>225</v>
       </c>
-      <c r="D40" s="13" t="str">
+      <c r="D40" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B16</v>
       </c>
@@ -4575,7 +4597,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B16.ttl,error</v>
       </c>
       <c r="K40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4589,7 +4611,7 @@
       <c r="C41" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="13" t="str">
+      <c r="D41" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B17</v>
       </c>
@@ -4616,7 +4638,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B17.ttl,error</v>
       </c>
       <c r="K41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4630,7 +4652,7 @@
       <c r="C42" t="s">
         <v>227</v>
       </c>
-      <c r="D42" s="13" t="str">
+      <c r="D42" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B18</v>
       </c>
@@ -4657,7 +4679,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B18.ttl,valid</v>
       </c>
       <c r="K42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -4671,7 +4693,7 @@
       <c r="C43" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="13" t="str">
+      <c r="D43" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01B19</v>
       </c>
@@ -4698,7 +4720,7 @@
         <v>cwa,CL_SO_01,CL_SO_01B19.ttl,error</v>
       </c>
       <c r="K43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -4712,7 +4734,7 @@
       <c r="C44" t="s">
         <v>258</v>
       </c>
-      <c r="D44" s="16" t="str">
+      <c r="D44" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N01</v>
       </c>
@@ -4739,7 +4761,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N01.ttl,valid</v>
       </c>
       <c r="K44" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4753,7 +4775,7 @@
       <c r="C45" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="16" t="str">
+      <c r="D45" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N02</v>
       </c>
@@ -4780,7 +4802,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N02.ttl,error</v>
       </c>
       <c r="K45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4794,7 +4816,7 @@
       <c r="C46" t="s">
         <v>260</v>
       </c>
-      <c r="D46" s="16" t="str">
+      <c r="D46" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N03</v>
       </c>
@@ -4821,7 +4843,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N03.ttl,error</v>
       </c>
       <c r="K46" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4835,7 +4857,7 @@
       <c r="C47" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="16" t="str">
+      <c r="D47" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N04</v>
       </c>
@@ -4862,7 +4884,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N04.ttl,error</v>
       </c>
       <c r="K47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -4876,7 +4898,7 @@
       <c r="C48" t="s">
         <v>262</v>
       </c>
-      <c r="D48" s="16" t="str">
+      <c r="D48" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N05</v>
       </c>
@@ -4903,7 +4925,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N05.ttl,valid</v>
       </c>
       <c r="K48" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4917,7 +4939,7 @@
       <c r="C49" t="s">
         <v>263</v>
       </c>
-      <c r="D49" s="16" t="str">
+      <c r="D49" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N06</v>
       </c>
@@ -4944,7 +4966,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N06.ttl,valid</v>
       </c>
       <c r="K49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4958,7 +4980,7 @@
       <c r="C50" t="s">
         <v>264</v>
       </c>
-      <c r="D50" s="16" t="str">
+      <c r="D50" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N07</v>
       </c>
@@ -4985,7 +5007,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N07.ttl,error</v>
       </c>
       <c r="K50" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4999,7 +5021,7 @@
       <c r="C51" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="16" t="str">
+      <c r="D51" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N08</v>
       </c>
@@ -5026,7 +5048,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N08.ttl,valid</v>
       </c>
       <c r="K51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -5040,7 +5062,7 @@
       <c r="C52" t="s">
         <v>266</v>
       </c>
-      <c r="D52" s="16" t="str">
+      <c r="D52" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N09</v>
       </c>
@@ -5067,7 +5089,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N09.ttl,valid</v>
       </c>
       <c r="K52" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -5081,7 +5103,7 @@
       <c r="C53" t="s">
         <v>229</v>
       </c>
-      <c r="D53" s="16" t="str">
+      <c r="D53" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N10</v>
       </c>
@@ -5108,7 +5130,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N10.ttl,valid</v>
       </c>
       <c r="K53" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -5122,7 +5144,7 @@
       <c r="C54" t="s">
         <v>230</v>
       </c>
-      <c r="D54" s="16" t="str">
+      <c r="D54" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N11</v>
       </c>
@@ -5149,7 +5171,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N11.ttl,error</v>
       </c>
       <c r="K54" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -5163,7 +5185,7 @@
       <c r="C55" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="16" t="str">
+      <c r="D55" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N12</v>
       </c>
@@ -5190,7 +5212,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N12.ttl,valid</v>
       </c>
       <c r="K55" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -5204,7 +5226,7 @@
       <c r="C56" t="s">
         <v>232</v>
       </c>
-      <c r="D56" s="16" t="str">
+      <c r="D56" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N13</v>
       </c>
@@ -5231,7 +5253,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N13.ttl,valid</v>
       </c>
       <c r="K56" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -5245,7 +5267,7 @@
       <c r="C57" t="s">
         <v>233</v>
       </c>
-      <c r="D57" s="16" t="str">
+      <c r="D57" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N14</v>
       </c>
@@ -5272,7 +5294,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N14.ttl,error</v>
       </c>
       <c r="K57" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -5286,7 +5308,7 @@
       <c r="C58" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="16" t="str">
+      <c r="D58" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N15</v>
       </c>
@@ -5313,7 +5335,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N15.ttl,error</v>
       </c>
       <c r="K58" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -5327,7 +5349,7 @@
       <c r="C59" t="s">
         <v>235</v>
       </c>
-      <c r="D59" s="16" t="str">
+      <c r="D59" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N16</v>
       </c>
@@ -5354,7 +5376,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N16.ttl,error</v>
       </c>
       <c r="K59" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -5368,7 +5390,7 @@
       <c r="C60" t="s">
         <v>236</v>
       </c>
-      <c r="D60" s="16" t="str">
+      <c r="D60" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N17</v>
       </c>
@@ -5395,7 +5417,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N17.ttl,valid</v>
       </c>
       <c r="K60" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -5409,7 +5431,7 @@
       <c r="C61" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="16" t="str">
+      <c r="D61" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N18</v>
       </c>
@@ -5436,7 +5458,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N18.ttl,valid</v>
       </c>
       <c r="K61" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -5450,7 +5472,7 @@
       <c r="C62" t="s">
         <v>238</v>
       </c>
-      <c r="D62" s="16" t="str">
+      <c r="D62" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01N19</v>
       </c>
@@ -5477,7 +5499,7 @@
         <v>cwa,CL_SO_01,CL_SO_01N19.ttl,valid</v>
       </c>
       <c r="K62" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -5491,7 +5513,7 @@
       <c r="C63" t="s">
         <v>267</v>
       </c>
-      <c r="D63" s="16" t="str">
+      <c r="D63" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U01</v>
       </c>
@@ -5518,7 +5540,7 @@
         <v>cwa,CL_SO_01,CL_SO_01U01.ttl,valid</v>
       </c>
       <c r="K63" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -5532,7 +5554,7 @@
       <c r="C64" t="s">
         <v>268</v>
       </c>
-      <c r="D64" s="16" t="str">
+      <c r="D64" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U02</v>
       </c>
@@ -5573,7 +5595,7 @@
       <c r="C65" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="16" t="str">
+      <c r="D65" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U03</v>
       </c>
@@ -5614,7 +5636,7 @@
       <c r="C66" t="s">
         <v>270</v>
       </c>
-      <c r="D66" s="16" t="str">
+      <c r="D66" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U04</v>
       </c>
@@ -5655,7 +5677,7 @@
       <c r="C67" t="s">
         <v>271</v>
       </c>
-      <c r="D67" s="16" t="str">
+      <c r="D67" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U05</v>
       </c>
@@ -5696,7 +5718,7 @@
       <c r="C68" t="s">
         <v>272</v>
       </c>
-      <c r="D68" s="16" t="str">
+      <c r="D68" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U06</v>
       </c>
@@ -5737,7 +5759,7 @@
       <c r="C69" t="s">
         <v>273</v>
       </c>
-      <c r="D69" s="16" t="str">
+      <c r="D69" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U07</v>
       </c>
@@ -5778,7 +5800,7 @@
       <c r="C70" t="s">
         <v>274</v>
       </c>
-      <c r="D70" s="16" t="str">
+      <c r="D70" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U08</v>
       </c>
@@ -5819,7 +5841,7 @@
       <c r="C71" t="s">
         <v>275</v>
       </c>
-      <c r="D71" s="16" t="str">
+      <c r="D71" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U09</v>
       </c>
@@ -5860,7 +5882,7 @@
       <c r="C72" t="s">
         <v>239</v>
       </c>
-      <c r="D72" s="16" t="str">
+      <c r="D72" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U10</v>
       </c>
@@ -5901,7 +5923,7 @@
       <c r="C73" t="s">
         <v>240</v>
       </c>
-      <c r="D73" s="16" t="str">
+      <c r="D73" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U11</v>
       </c>
@@ -5942,7 +5964,7 @@
       <c r="C74" t="s">
         <v>241</v>
       </c>
-      <c r="D74" s="16" t="str">
+      <c r="D74" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U12</v>
       </c>
@@ -5983,7 +6005,7 @@
       <c r="C75" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="16" t="str">
+      <c r="D75" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U13</v>
       </c>
@@ -6024,7 +6046,7 @@
       <c r="C76" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="16" t="str">
+      <c r="D76" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U14</v>
       </c>
@@ -6065,7 +6087,7 @@
       <c r="C77" t="s">
         <v>244</v>
       </c>
-      <c r="D77" s="16" t="str">
+      <c r="D77" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U15</v>
       </c>
@@ -6106,7 +6128,7 @@
       <c r="C78" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="16" t="str">
+      <c r="D78" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U16</v>
       </c>
@@ -6147,7 +6169,7 @@
       <c r="C79" t="s">
         <v>246</v>
       </c>
-      <c r="D79" s="16" t="str">
+      <c r="D79" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U17</v>
       </c>
@@ -6188,7 +6210,7 @@
       <c r="C80" t="s">
         <v>247</v>
       </c>
-      <c r="D80" s="16" t="str">
+      <c r="D80" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U18</v>
       </c>
@@ -6229,7 +6251,7 @@
       <c r="C81" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="16" t="str">
+      <c r="D81" s="17" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_SO_01U19</v>
       </c>
@@ -6270,7 +6292,7 @@
       <c r="C82" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D82" s="7" t="str">
+      <c r="D82" s="18" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_01A</v>
       </c>
@@ -6308,7 +6330,7 @@
       <c r="C83" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="7" t="str">
+      <c r="D83" s="18" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_01B</v>
       </c>
@@ -6346,7 +6368,7 @@
       <c r="C84" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D84" s="7" t="str">
+      <c r="D84" s="18" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_01C</v>
       </c>
@@ -6384,7 +6406,7 @@
       <c r="C85" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D85" t="str">
+      <c r="D85" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_01D</v>
       </c>
@@ -6425,7 +6447,7 @@
       <c r="C86" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D86" t="str">
+      <c r="D86" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_01E</v>
       </c>
@@ -6466,7 +6488,7 @@
       <c r="C87" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D87" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_01F</v>
       </c>
@@ -6507,7 +6529,7 @@
       <c r="C88" t="s">
         <v>94</v>
       </c>
-      <c r="D88" t="str">
+      <c r="D88" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_02A</v>
       </c>
@@ -6545,7 +6567,7 @@
       <c r="C89" t="s">
         <v>95</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D89" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_02B</v>
       </c>
@@ -6583,7 +6605,7 @@
       <c r="C90" t="s">
         <v>97</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D90" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_02C</v>
       </c>
@@ -6621,7 +6643,7 @@
       <c r="C91" t="s">
         <v>103</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D91" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_02D</v>
       </c>
@@ -6662,7 +6684,7 @@
       <c r="C92" t="s">
         <v>104</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D92" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_02E</v>
       </c>
@@ -6703,7 +6725,7 @@
       <c r="C93" t="s">
         <v>105</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D93" s="16" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
         <v>CL_ST_02F</v>
       </c>
@@ -6736,18 +6758,18 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G2:H248">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E93">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H93" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B6DEF-977E-46FE-8217-B02ED14094B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B2577-2D1E-4025-8D33-CA51C58D216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules Definition" sheetId="2" r:id="rId1"/>
@@ -372,9 +372,6 @@
     <t>Two stereotypes for the same class is not currently supported by the exporting tool. Tests was adjusted manually.</t>
   </si>
   <si>
-    <t>Situation ID</t>
-  </si>
-  <si>
     <t>Class that is not an enumeration without attributes</t>
   </si>
   <si>
@@ -1084,6 +1081,9 @@
   </si>
   <si>
     <t>R_CL_BWZ</t>
+  </si>
+  <si>
+    <t>Situation</t>
   </si>
 </sst>
 </file>
@@ -1233,6 +1233,21 @@
   <dxfs count="26">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1371,21 +1386,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1528,8 +1528,8 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="8">
       <calculatedColumnFormula>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="22"/>
@@ -1553,29 +1553,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K93" totalsRowShown="0">
   <autoFilter ref="A1:K93" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
-    <sortCondition ref="D1:D93"/>
+    <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation ID"/>
-    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="15">
-      <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation"/>
+    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="0">
+      <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="15">
       <calculatedColumnFormula>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F491E82A-09B4-4B22-AA08-7E6DFD336A64}" name="Situation Description"/>
     <tableColumn id="4" xr3:uid="{92BCF063-80EB-4A9C-AA1A-6F95CC9435A7}" name="OWA Level"/>
-    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="14">
       <calculatedColumnFormula>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="13">
       <calculatedColumnFormula>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="12">
       <calculatedColumnFormula>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9CF1643D-B8F2-452E-B29E-AD6EF72070C4}" name="Comments"/>
@@ -1886,9 +1886,9 @@
   </sheetPr>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1903,10 +1903,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>86</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -1947,14 +1947,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_JOJ</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>35</v>
@@ -1968,14 +1968,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_UMC</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>47</v>
@@ -1989,14 +1989,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_AIB</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>67</v>
@@ -2010,14 +2010,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_EDA</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>70</v>
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2058,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2561,7 +2561,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2576,7 +2576,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2591,7 +2591,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2606,7 +2606,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2621,7 +2621,7 @@
         <v>35</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2636,7 +2636,7 @@
         <v>35</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2651,7 +2651,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2681,7 +2681,7 @@
         <v>35</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2696,7 +2696,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2711,7 +2711,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2726,7 +2726,7 @@
         <v>70</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2741,7 +2741,7 @@
         <v>70</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2756,7 +2756,7 @@
         <v>70</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2771,7 +2771,7 @@
         <v>70</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2786,7 +2786,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2801,7 +2801,7 @@
         <v>70</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2816,7 +2816,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2831,7 +2831,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2846,7 +2846,7 @@
         <v>47</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2861,7 +2861,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2876,7 +2876,7 @@
         <v>47</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2891,7 +2891,7 @@
         <v>47</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2906,7 +2906,7 @@
         <v>47</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2921,7 +2921,7 @@
         <v>47</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2936,7 +2936,7 @@
         <v>47</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2951,7 +2951,7 @@
         <v>47</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2966,7 +2966,7 @@
         <v>47</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2981,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2996,7 +2996,7 @@
         <v>47</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3011,7 +3011,7 @@
         <v>47</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C72" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3026,7 +3026,7 @@
         <v>47</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C73" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3041,7 +3041,7 @@
         <v>47</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C74" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3056,7 +3056,7 @@
         <v>47</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C75" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3071,7 +3071,7 @@
         <v>47</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C76" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3086,7 +3086,7 @@
         <v>47</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C77" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3101,7 +3101,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C78" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3116,7 +3116,7 @@
         <v>47</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C79" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3143,19 +3143,19 @@
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D2:D79">
-    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B79">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C79">
-    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3171,11 +3171,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="A73:F76"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,7 +3201,7 @@
         <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
         <v>87</v>
@@ -3230,25 +3230,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_XJZA</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_AIB_A</v>
       </c>
       <c r="E2" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_XJZA.ttl</v>
+        <v>R_CL_AIB_A.ttl</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>95</v>
@@ -3259,151 +3259,151 @@
       </c>
       <c r="I2" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_XJZ,R_CL_XJZA.ttl,valid</v>
+        <v>owa,R_CL_AIB,R_CL_AIB_A.ttl,valid</v>
       </c>
       <c r="J2" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_XJZ,R_CL_XJZA.ttl,valid</v>
+        <v>cwa,R_CL_AIB,R_CL_AIB_A.ttl,valid</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C3" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_XJZB</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_AIB_B</v>
       </c>
       <c r="E3" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_XJZB.ttl</v>
+        <v>R_CL_AIB_B.ttl</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H3" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I3" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_XJZ,R_CL_XJZB.ttl,valid</v>
+        <v>owa,R_CL_AIB,R_CL_AIB_B.ttl,error</v>
       </c>
       <c r="J3" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_XJZ,R_CL_XJZB.ttl,valid</v>
+        <v>cwa,R_CL_AIB,R_CL_AIB_B.ttl,error</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_XJZC</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_AIB_C</v>
       </c>
       <c r="E4" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_XJZC.ttl</v>
+        <v>R_CL_AIB_C.ttl</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H4" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I4" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_XJZ,R_CL_XJZC.ttl,valid</v>
+        <v>owa,R_CL_AIB,R_CL_AIB_C.ttl,error</v>
       </c>
       <c r="J4" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_XJZ,R_CL_XJZC.ttl,valid</v>
+        <v>cwa,R_CL_AIB,R_CL_AIB_C.ttl,error</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_XJZD</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_AIB_D</v>
       </c>
       <c r="E5" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_XJZD.ttl</v>
+        <v>R_CL_AIB_D.ttl</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H5" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I5" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_XJZ,R_CL_XJZD.ttl,valid</v>
+        <v>owa,R_CL_AIB,R_CL_AIB_D.ttl,error</v>
       </c>
       <c r="J5" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_XJZ,R_CL_XJZD.ttl,valid</v>
+        <v>cwa,R_CL_AIB,R_CL_AIB_D.ttl,error</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D6" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_XJZE</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_BWZ_A</v>
       </c>
       <c r="E6" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_XJZE.ttl</v>
+        <v>R_CL_BWZ_A.ttl</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3411,113 +3411,113 @@
       </c>
       <c r="I6" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_XJZ,R_CL_XJZE.ttl,error</v>
+        <v>owa,R_CL_BWZ,R_CL_BWZ_A.ttl,warning</v>
       </c>
       <c r="J6" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_XJZ,R_CL_XJZE.ttl,error</v>
+        <v>cwa,R_CL_BWZ,R_CL_BWZ_A.ttl,error</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D7" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_XJZF</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_BWZ_B</v>
       </c>
       <c r="E7" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_XJZF.ttl</v>
+        <v>R_CL_BWZ_B.ttl</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H7" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I7" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_XJZ,R_CL_XJZF.ttl,error</v>
+        <v>owa,R_CL_BWZ,R_CL_BWZ_B.ttl,valid</v>
       </c>
       <c r="J7" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_XJZ,R_CL_XJZF.ttl,error</v>
+        <v>cwa,R_CL_BWZ,R_CL_BWZ_B.ttl,valid</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_JOJA</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_BWZ_C</v>
       </c>
       <c r="E8" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_JOJA.ttl</v>
+        <v>R_CL_BWZ_C.ttl</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H8" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I8" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_JOJ,R_CL_JOJA.ttl,valid</v>
+        <v>owa,R_CL_BWZ,R_CL_BWZ_C.ttl,error</v>
       </c>
       <c r="J8" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_JOJ,R_CL_JOJA.ttl,valid</v>
+        <v>cwa,R_CL_BWZ,R_CL_BWZ_C.ttl,error</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D9" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_JOJB</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_BWZ_D</v>
       </c>
       <c r="E9" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_JOJB.ttl</v>
+        <v>R_CL_BWZ_D.ttl</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3525,37 +3525,37 @@
       </c>
       <c r="I9" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_JOJ,R_CL_JOJB.ttl,warning</v>
+        <v>owa,R_CL_BWZ,R_CL_BWZ_D.ttl,error</v>
       </c>
       <c r="J9" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_JOJ,R_CL_JOJB.ttl,error</v>
+        <v>cwa,R_CL_BWZ,R_CL_BWZ_D.ttl,error</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_JOJC</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_BWZ_E</v>
       </c>
       <c r="E10" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_JOJC.ttl</v>
+        <v>R_CL_BWZ_E.ttl</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -3566,37 +3566,37 @@
       </c>
       <c r="I10" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_JOJ,R_CL_JOJC.ttl,valid</v>
+        <v>owa,R_CL_BWZ,R_CL_BWZ_E.ttl,valid</v>
       </c>
       <c r="J10" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_JOJ,R_CL_JOJC.ttl,valid</v>
+        <v>cwa,R_CL_BWZ,R_CL_BWZ_E.ttl,valid</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D11" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_JOJD</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_BWZ_F</v>
       </c>
       <c r="E11" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_JOJD.ttl</v>
+        <v>R_CL_BWZ_F.ttl</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>90</v>
@@ -3607,37 +3607,37 @@
       </c>
       <c r="I11" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_JOJ,R_CL_JOJD.ttl,error</v>
+        <v>owa,R_CL_BWZ,R_CL_BWZ_F.ttl,error</v>
       </c>
       <c r="J11" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_JOJ,R_CL_JOJD.ttl,error</v>
+        <v>cwa,R_CL_BWZ,R_CL_BWZ_F.ttl,error</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D12" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_JOJE</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EDA_A</v>
       </c>
       <c r="E12" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_JOJE.ttl</v>
+        <v>R_CL_EDA_A.ttl</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>95</v>
@@ -3648,75 +3648,75 @@
       </c>
       <c r="I12" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_JOJ,R_CL_JOJE.ttl,valid</v>
+        <v>owa,R_CL_EDA,R_CL_EDA_A.ttl,valid</v>
       </c>
       <c r="J12" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_JOJ,R_CL_JOJE.ttl,valid</v>
+        <v>cwa,R_CL_EDA,R_CL_EDA_A.ttl,valid</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_JOJF</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EDA_B</v>
       </c>
       <c r="E13" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_JOJF.ttl</v>
+        <v>R_CL_EDA_B.ttl</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I13" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_JOJ,R_CL_JOJF.ttl,valid</v>
+        <v>owa,R_CL_EDA,R_CL_EDA_B.ttl,warning</v>
       </c>
       <c r="J13" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_JOJ,R_CL_JOJF.ttl,valid</v>
+        <v>cwa,R_CL_EDA,R_CL_EDA_B.ttl,error</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every enumeration class must have at least two literals.</v>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_UMCA</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EDA_C</v>
       </c>
       <c r="E14" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_UMCA.ttl</v>
+        <v>R_CL_EDA_C.ttl</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3724,110 +3724,110 @@
       </c>
       <c r="I14" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_UMC,R_CL_UMCA.ttl,warning</v>
+        <v>owa,R_CL_EDA,R_CL_EDA_C.ttl,error</v>
       </c>
       <c r="J14" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_UMC,R_CL_UMCA.ttl,error</v>
+        <v>cwa,R_CL_EDA,R_CL_EDA_C.ttl,error</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every enumeration class must have at least two literals.</v>
+        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_UMCB</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EDA_D</v>
       </c>
       <c r="E15" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_UMCB.ttl</v>
+        <v>R_CL_EDA_D.ttl</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H15" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I15" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_UMC,R_CL_UMCB.ttl,warning</v>
+        <v>owa,R_CL_EDA,R_CL_EDA_D.ttl,valid</v>
       </c>
       <c r="J15" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_UMC,R_CL_UMCB.ttl,error</v>
+        <v>cwa,R_CL_EDA,R_CL_EDA_D.ttl,valid</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every enumeration class must have at least two literals.</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_UMCC</v>
-      </c>
-      <c r="E16" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_UMCC.ttl</v>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_GJU_A</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_GJU_A.ttl</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H16" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I16" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_UMC,R_CL_UMCC.ttl,valid</v>
+        <v>owa,R_CL_GJU,R_CL_GJU_A.ttl,warning</v>
       </c>
       <c r="J16" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_UMC,R_CL_UMCC.ttl,valid</v>
+        <v>cwa,R_CL_GJU,R_CL_GJU_A.ttl,error</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes cannot be specialized by other classes.</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_AIBA</v>
-      </c>
-      <c r="E17" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_AIBA.ttl</v>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_GJU_B</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_GJU_B.ttl</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
         <v>95</v>
@@ -3838,72 +3838,72 @@
       </c>
       <c r="I17" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_AIB,R_CL_AIBA.ttl,valid</v>
+        <v>owa,R_CL_GJU,R_CL_GJU_B.ttl,valid</v>
       </c>
       <c r="J17" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_AIB,R_CL_AIBA.ttl,valid</v>
+        <v>cwa,R_CL_GJU,R_CL_GJU_B.ttl,valid</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes cannot be specialized by other classes.</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_AIBB</v>
-      </c>
-      <c r="E18" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_AIBB.ttl</v>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_GJU_C</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_GJU_C.ttl</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H18" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I18" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_AIB,R_CL_AIBB.ttl,error</v>
+        <v>owa,R_CL_GJU,R_CL_GJU_C.ttl,valid</v>
       </c>
       <c r="J18" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_AIB,R_CL_AIBB.ttl,error</v>
+        <v>cwa,R_CL_GJU,R_CL_GJU_C.ttl,valid</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes cannot be specialized by other classes.</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="D19" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_AIBC</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_GJU_D</v>
       </c>
       <c r="E19" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_AIBC.ttl</v>
+        <v>R_CL_GJU_D.ttl</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
         <v>90</v>
@@ -3914,34 +3914,37 @@
       </c>
       <c r="I19" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_AIB,R_CL_AIBC.ttl,error</v>
+        <v>owa,R_CL_GJU,R_CL_GJU_D.ttl,error</v>
       </c>
       <c r="J19" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_AIB,R_CL_AIBC.ttl,error</v>
+        <v>cwa,R_CL_GJU,R_CL_GJU_D.ttl,error</v>
+      </c>
+      <c r="K19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes cannot be specialized by other classes.</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D20" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_AIBD</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_GJU_E</v>
       </c>
       <c r="E20" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_AIBD.ttl</v>
+        <v>R_CL_GJU_E.ttl</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
         <v>90</v>
@@ -3952,113 +3955,119 @@
       </c>
       <c r="I20" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_AIB,R_CL_AIBD.ttl,error</v>
+        <v>owa,R_CL_GJU,R_CL_GJU_E.ttl,error</v>
       </c>
       <c r="J20" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_AIB,R_CL_AIBD.ttl,error</v>
+        <v>cwa,R_CL_GJU,R_CL_GJU_E.ttl,error</v>
+      </c>
+      <c r="K20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
+        <v>Every class must be decorated with exactly one stereotype.</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="D21" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_EDAA</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_GJU_F</v>
       </c>
       <c r="E21" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_EDAA.ttl</v>
+        <v>R_CL_GJU_F.ttl</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H21" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I21" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_EDA,R_CL_EDAA.ttl,valid</v>
+        <v>owa,R_CL_GJU,R_CL_GJU_F.ttl,error</v>
       </c>
       <c r="J21" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_EDA,R_CL_EDAA.ttl,valid</v>
+        <v>cwa,R_CL_GJU,R_CL_GJU_F.ttl,error</v>
+      </c>
+      <c r="K21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_EDAB</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_JOJ_A</v>
       </c>
       <c r="E22" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_EDAB.ttl</v>
+        <v>R_CL_JOJ_A.ttl</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H22" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I22" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_EDA,R_CL_EDAB.ttl,warning</v>
+        <v>owa,R_CL_JOJ,R_CL_JOJ_A.ttl,valid</v>
       </c>
       <c r="J22" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_EDA,R_CL_EDAB.ttl,error</v>
+        <v>cwa,R_CL_JOJ,R_CL_JOJ_A.ttl,valid</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_EDAC</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_JOJ_B</v>
       </c>
       <c r="E23" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_EDAC.ttl</v>
+        <v>R_CL_JOJ_B.ttl</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4066,34 +4075,37 @@
       </c>
       <c r="I23" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_EDA,R_CL_EDAC.ttl,error</v>
+        <v>owa,R_CL_JOJ,R_CL_JOJ_B.ttl,warning</v>
       </c>
       <c r="J23" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_EDA,R_CL_EDAC.ttl,error</v>
+        <v>cwa,R_CL_JOJ,R_CL_JOJ_B.ttl,error</v>
+      </c>
+      <c r="K23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_EDAD</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_JOJ_C</v>
       </c>
       <c r="E24" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_EDAD.ttl</v>
+        <v>R_CL_JOJ_C.ttl</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
         <v>95</v>
@@ -4104,37 +4116,40 @@
       </c>
       <c r="I24" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_EDA,R_CL_EDAD.ttl,valid</v>
+        <v>owa,R_CL_JOJ,R_CL_JOJ_C.ttl,valid</v>
       </c>
       <c r="J24" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_EDA,R_CL_EDAD.ttl,valid</v>
+        <v>cwa,R_CL_JOJ,R_CL_JOJ_C.ttl,valid</v>
+      </c>
+      <c r="K24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="D25" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB01</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_JOJ_D</v>
       </c>
       <c r="E25" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB01.ttl</v>
+        <v>R_CL_JOJ_D.ttl</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4142,119 +4157,113 @@
       </c>
       <c r="I25" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB01.ttl,warning</v>
+        <v>owa,R_CL_JOJ,R_CL_JOJ_D.ttl,error</v>
       </c>
       <c r="J25" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB01.ttl,error</v>
+        <v>cwa,R_CL_JOJ,R_CL_JOJ_D.ttl,error</v>
       </c>
       <c r="K25" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="D26" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB02</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_JOJ_E</v>
       </c>
       <c r="E26" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB02.ttl</v>
+        <v>R_CL_JOJ_E.ttl</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H26" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I26" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB02.ttl,warning</v>
+        <v>owa,R_CL_JOJ,R_CL_JOJ_E.ttl,valid</v>
       </c>
       <c r="J26" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB02.ttl,error</v>
-      </c>
-      <c r="K26" t="s">
-        <v>259</v>
+        <v>cwa,R_CL_JOJ,R_CL_JOJ_E.ttl,valid</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="D27" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB03</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_JOJ_F</v>
       </c>
       <c r="E27" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB03.ttl</v>
+        <v>R_CL_JOJ_F.ttl</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H27" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I27" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB03.ttl,warning</v>
+        <v>owa,R_CL_JOJ,R_CL_JOJ_F.ttl,valid</v>
       </c>
       <c r="J27" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB03.ttl,error</v>
-      </c>
-      <c r="K27" t="s">
-        <v>259</v>
+        <v>cwa,R_CL_JOJ,R_CL_JOJ_F.ttl,valid</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB04</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_UMC_A</v>
       </c>
       <c r="E28" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB04.ttl</v>
+        <v>R_CL_UMC_A.ttl</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
         <v>89</v>
@@ -4265,201 +4274,186 @@
       </c>
       <c r="I28" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB04.ttl,warning</v>
+        <v>owa,R_CL_UMC,R_CL_UMC_A.ttl,warning</v>
       </c>
       <c r="J28" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB04.ttl,error</v>
-      </c>
-      <c r="K28" t="s">
-        <v>259</v>
+        <v>cwa,R_CL_UMC,R_CL_UMC_A.ttl,error</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB05</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_UMC_B</v>
       </c>
       <c r="E29" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB05.ttl</v>
+        <v>R_CL_UMC_B.ttl</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H29" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I29" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB05.ttl,valid</v>
+        <v>owa,R_CL_UMC,R_CL_UMC_B.ttl,warning</v>
       </c>
       <c r="J29" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB05.ttl,valid</v>
-      </c>
-      <c r="K29" t="s">
-        <v>259</v>
+        <v>cwa,R_CL_UMC,R_CL_UMC_B.ttl,error</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB06</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_UMC_C</v>
       </c>
       <c r="E30" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB06.ttl</v>
+        <v>R_CL_UMC_C.ttl</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H30" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I30" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB06.ttl,warning</v>
+        <v>owa,R_CL_UMC,R_CL_UMC_C.ttl,valid</v>
       </c>
       <c r="J30" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB06.ttl,error</v>
-      </c>
-      <c r="K30" t="s">
-        <v>259</v>
+        <v>cwa,R_CL_UMC,R_CL_UMC_C.ttl,valid</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="D31" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB07</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_XJZ_A</v>
       </c>
       <c r="E31" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB07.ttl</v>
+        <v>R_CL_XJZ_A.ttl</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H31" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I31" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB07.ttl,warning</v>
+        <v>owa,R_CL_XJZ,R_CL_XJZ_A.ttl,valid</v>
       </c>
       <c r="J31" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB07.ttl,error</v>
-      </c>
-      <c r="K31" t="s">
-        <v>259</v>
+        <v>cwa,R_CL_XJZ,R_CL_XJZ_A.ttl,valid</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB08</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_XJZ_B</v>
       </c>
       <c r="E32" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB08.ttl</v>
+        <v>R_CL_XJZ_B.ttl</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H32" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I32" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB08.ttl,warning</v>
+        <v>owa,R_CL_XJZ,R_CL_XJZ_B.ttl,valid</v>
       </c>
       <c r="J32" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB08.ttl,error</v>
-      </c>
-      <c r="K32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>cwa,R_CL_XJZ,R_CL_XJZ_B.ttl,valid</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB09</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_XJZ_C</v>
       </c>
       <c r="E33" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB09.ttl</v>
+        <v>R_CL_XJZ_C.ttl</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
         <v>95</v>
@@ -4470,37 +4464,34 @@
       </c>
       <c r="I33" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB09.ttl,valid</v>
+        <v>owa,R_CL_XJZ,R_CL_XJZ_C.ttl,valid</v>
       </c>
       <c r="J33" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB09.ttl,valid</v>
-      </c>
-      <c r="K33" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>cwa,R_CL_XJZ,R_CL_XJZ_C.ttl,valid</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="D34" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB10</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_XJZ_D</v>
       </c>
       <c r="E34" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB10.ttl</v>
+        <v>R_CL_XJZ_D.ttl</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
         <v>95</v>
@@ -4511,37 +4502,34 @@
       </c>
       <c r="I34" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB10.ttl,valid</v>
+        <v>owa,R_CL_XJZ,R_CL_XJZ_D.ttl,valid</v>
       </c>
       <c r="J34" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB10.ttl,valid</v>
-      </c>
-      <c r="K34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>cwa,R_CL_XJZ,R_CL_XJZ_D.ttl,valid</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="D35" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB11</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_XJZ_E</v>
       </c>
       <c r="E35" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB11.ttl</v>
+        <v>R_CL_XJZ_E.ttl</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G35" t="s">
         <v>90</v>
@@ -4552,119 +4540,117 @@
       </c>
       <c r="I35" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB11.ttl,error</v>
+        <v>owa,R_CL_XJZ,R_CL_XJZ_E.ttl,error</v>
       </c>
       <c r="J35" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB11.ttl,error</v>
-      </c>
-      <c r="K35" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>cwa,R_CL_XJZ,R_CL_XJZ_E.ttl,error</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_XJZ_F</v>
+      </c>
+      <c r="E36" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_XJZ_F.ttl</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I36" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_XJZ,R_CL_XJZ_F.ttl,error</v>
+      </c>
+      <c r="J36" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_XJZ,R_CL_XJZ_F.ttl,error</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
-      <c r="C36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB12</v>
-      </c>
-      <c r="E36" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB12.ttl</v>
-      </c>
-      <c r="F36" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H36" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I36" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB12.ttl,valid</v>
-      </c>
-      <c r="J36" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB12.ttl,valid</v>
-      </c>
-      <c r="K36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B37" t="str">
+      <c r="C37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B01</v>
+      </c>
+      <c r="E37" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B01.ttl</v>
+      </c>
+      <c r="F37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I37" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B01.ttl,warning</v>
+      </c>
+      <c r="J37" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B01.ttl,error</v>
+      </c>
+      <c r="K37" t="s">
+        <v>258</v>
+      </c>
+      <c r="M37" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B - result:Warning</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
-      <c r="C37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB13</v>
-      </c>
-      <c r="E37" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB13.ttl</v>
-      </c>
-      <c r="F37" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I37" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB13.ttl,error</v>
-      </c>
-      <c r="J37" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB13.ttl,error</v>
-      </c>
-      <c r="K37" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B38" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
-      </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D38" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB14</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B02</v>
       </c>
       <c r="E38" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB14.ttl</v>
+        <v>R_CL_ZGT_B02.ttl</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G38" t="s">
         <v>89</v>
@@ -4675,37 +4661,41 @@
       </c>
       <c r="I38" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB14.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B02.ttl,warning</v>
       </c>
       <c r="J38" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB14.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B02.ttl,error</v>
       </c>
       <c r="K38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="M38" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D39" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB15</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B03</v>
       </c>
       <c r="E39" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB15.ttl</v>
+        <v>R_CL_ZGT_B03.ttl</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="G39" t="s">
         <v>89</v>
@@ -4716,37 +4706,41 @@
       </c>
       <c r="I39" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB15.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B03.ttl,warning</v>
       </c>
       <c r="J39" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB15.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B03.ttl,error</v>
       </c>
       <c r="K39" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="M39" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; B &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB16</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B04</v>
       </c>
       <c r="E40" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB16.ttl</v>
+        <v>R_CL_ZGT_B04.ttl</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
@@ -4757,283 +4751,311 @@
       </c>
       <c r="I40" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB16.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B04.ttl,warning</v>
       </c>
       <c r="J40" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB16.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B04.ttl,error</v>
       </c>
       <c r="K40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="M40" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; B &gt; N - result:Warning</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB17</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B05</v>
       </c>
       <c r="E41" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB17.ttl</v>
+        <v>R_CL_ZGT_B05.ttl</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="G41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I41" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B05.ttl,valid</v>
+      </c>
+      <c r="J41" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B05.ttl,valid</v>
+      </c>
+      <c r="K41" t="s">
+        <v>258</v>
+      </c>
+      <c r="M41" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; B &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B06</v>
+      </c>
+      <c r="E42" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B06.ttl</v>
+      </c>
+      <c r="F42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" t="s">
         <v>89</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H42" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I41" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB17.ttl,warning</v>
-      </c>
-      <c r="J41" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB17.ttl,error</v>
-      </c>
-      <c r="K41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B42" t="str">
+      <c r="I42" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B06.ttl,warning</v>
+      </c>
+      <c r="J42" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B06.ttl,error</v>
+      </c>
+      <c r="K42" t="s">
+        <v>258</v>
+      </c>
+      <c r="M42" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; N - result:Warning</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B43" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
-      <c r="C42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB18</v>
-      </c>
-      <c r="E42" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB18.ttl</v>
-      </c>
-      <c r="F42" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="C43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B07</v>
+      </c>
+      <c r="E43" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B07.ttl</v>
+      </c>
+      <c r="F43" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I43" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B07.ttl,warning</v>
+      </c>
+      <c r="J43" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B07.ttl,error</v>
+      </c>
+      <c r="K43" t="s">
+        <v>258</v>
+      </c>
+      <c r="M43" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; N &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B08</v>
+      </c>
+      <c r="E44" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B08.ttl</v>
+      </c>
+      <c r="F44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I44" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B08.ttl,warning</v>
+      </c>
+      <c r="J44" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B08.ttl,error</v>
+      </c>
+      <c r="K44" t="s">
+        <v>258</v>
+      </c>
+      <c r="M44" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; N &gt; N - result:Warning</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B45" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B09</v>
+      </c>
+      <c r="E45" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B09.ttl</v>
+      </c>
+      <c r="F45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" t="s">
         <v>95</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H45" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I42" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB18.ttl,valid</v>
-      </c>
-      <c r="J42" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB18.ttl,valid</v>
-      </c>
-      <c r="K42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B43" t="str">
+      <c r="I45" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B09.ttl,valid</v>
+      </c>
+      <c r="J45" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B09.ttl,valid</v>
+      </c>
+      <c r="K45" t="s">
+        <v>258</v>
+      </c>
+      <c r="M45" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; N &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
-      <c r="C43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTB19</v>
-      </c>
-      <c r="E43" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTB19.ttl</v>
-      </c>
-      <c r="F43" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I43" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTB19.ttl,error</v>
-      </c>
-      <c r="J43" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTB19.ttl,error</v>
-      </c>
-      <c r="K43" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B44" t="str">
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B10</v>
+      </c>
+      <c r="E46" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B10.ttl</v>
+      </c>
+      <c r="F46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I46" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B10.ttl,valid</v>
+      </c>
+      <c r="J46" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B10.ttl,valid</v>
+      </c>
+      <c r="K46" t="s">
+        <v>258</v>
+      </c>
+      <c r="M46" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B47" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
-      <c r="C44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D44" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN01</v>
-      </c>
-      <c r="E44" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN01.ttl</v>
-      </c>
-      <c r="F44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I44" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN01.ttl,valid</v>
-      </c>
-      <c r="J44" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN01.ttl,valid</v>
-      </c>
-      <c r="K44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B45" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
-      </c>
-      <c r="C45" t="s">
-        <v>241</v>
-      </c>
-      <c r="D45" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN02</v>
-      </c>
-      <c r="E45" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN02.ttl</v>
-      </c>
-      <c r="F45" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I45" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN02.ttl,warning</v>
-      </c>
-      <c r="J45" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN02.ttl,error</v>
-      </c>
-      <c r="K45" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B46" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
-      </c>
-      <c r="C46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN03</v>
-      </c>
-      <c r="E46" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN03.ttl</v>
-      </c>
-      <c r="F46" t="s">
-        <v>157</v>
-      </c>
-      <c r="G46" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I46" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN03.ttl,warning</v>
-      </c>
-      <c r="J46" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN03.ttl,error</v>
-      </c>
-      <c r="K46" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B47" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
-      </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="D47" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN04</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B11</v>
       </c>
       <c r="E47" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN04.ttl</v>
+        <v>R_CL_ZGT_B11.ttl</v>
       </c>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G47" t="s">
         <v>89</v>
@@ -5044,37 +5066,41 @@
       </c>
       <c r="I47" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN04.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B11.ttl,warning</v>
       </c>
       <c r="J47" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN04.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B11.ttl,error</v>
       </c>
       <c r="K47" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="M47" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; U &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="D48" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN05</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B12</v>
       </c>
       <c r="E48" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN05.ttl</v>
+        <v>R_CL_ZGT_B12.ttl</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G48" t="s">
         <v>95</v>
@@ -5085,78 +5111,86 @@
       </c>
       <c r="I48" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN05.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B12.ttl,valid</v>
       </c>
       <c r="J48" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN05.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B12.ttl,valid</v>
       </c>
       <c r="K48" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="M48" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; U &gt; N - result:Valid</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="D49" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN06</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B13</v>
       </c>
       <c r="E49" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN06.ttl</v>
+        <v>R_CL_ZGT_B13.ttl</v>
       </c>
       <c r="F49" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H49" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I49" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN06.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B13.ttl,error</v>
       </c>
       <c r="J49" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN06.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B13.ttl,error</v>
       </c>
       <c r="K49" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="M49" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; U &gt; U - result:Error</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="D50" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN07</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B14</v>
       </c>
       <c r="E50" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN07.ttl</v>
+        <v>R_CL_ZGT_B14.ttl</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G50" t="s">
         <v>89</v>
@@ -5167,242 +5201,266 @@
       </c>
       <c r="I50" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN07.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B14.ttl,warning</v>
       </c>
       <c r="J50" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN07.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B14.ttl,error</v>
       </c>
       <c r="K50" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="M50" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; (B , B) - result:Warning</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="D51" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN08</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B15</v>
       </c>
       <c r="E51" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN08.ttl</v>
+        <v>R_CL_ZGT_B15.ttl</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I51" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B15.ttl,warning</v>
+      </c>
+      <c r="J51" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B15.ttl,error</v>
+      </c>
+      <c r="K51" t="s">
+        <v>258</v>
+      </c>
+      <c r="M51" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; (B , N) - result:Warning</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B52" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B16</v>
+      </c>
+      <c r="E52" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B16.ttl</v>
+      </c>
+      <c r="F52" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I52" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B16.ttl,warning</v>
+      </c>
+      <c r="J52" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B16.ttl,error</v>
+      </c>
+      <c r="K52" t="s">
+        <v>258</v>
+      </c>
+      <c r="M52" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; (B , U) - result:Warning</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B17</v>
+      </c>
+      <c r="E53" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B17.ttl</v>
+      </c>
+      <c r="F53" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I53" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B17.ttl,warning</v>
+      </c>
+      <c r="J53" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B17.ttl,error</v>
+      </c>
+      <c r="K53" t="s">
+        <v>258</v>
+      </c>
+      <c r="M53" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; (N , N) - result:Warning</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B18</v>
+      </c>
+      <c r="E54" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B18.ttl</v>
+      </c>
+      <c r="F54" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" t="s">
         <v>95</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H54" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I51" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN08.ttl,valid</v>
-      </c>
-      <c r="J51" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN08.ttl,valid</v>
-      </c>
-      <c r="K51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B52" t="str">
+      <c r="I54" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B18.ttl,valid</v>
+      </c>
+      <c r="J54" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B18.ttl,valid</v>
+      </c>
+      <c r="K54" t="s">
+        <v>258</v>
+      </c>
+      <c r="M54" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; (N , U) - result:Valid</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
-      <c r="C52" t="s">
-        <v>248</v>
-      </c>
-      <c r="D52" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN09</v>
-      </c>
-      <c r="E52" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN09.ttl</v>
-      </c>
-      <c r="F52" t="s">
-        <v>163</v>
-      </c>
-      <c r="G52" t="s">
-        <v>95</v>
-      </c>
-      <c r="H52" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I52" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN09.ttl,valid</v>
-      </c>
-      <c r="J52" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN09.ttl,valid</v>
-      </c>
-      <c r="K52" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B53" t="str">
+      <c r="C55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_B19</v>
+      </c>
+      <c r="E55" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_B19.ttl</v>
+      </c>
+      <c r="F55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I55" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_B19.ttl,error</v>
+      </c>
+      <c r="J55" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_B19.ttl,error</v>
+      </c>
+      <c r="K55" t="s">
+        <v>258</v>
+      </c>
+      <c r="M55" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: B &gt; (U , U) - result:Error</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
-      <c r="C53" t="s">
-        <v>211</v>
-      </c>
-      <c r="D53" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN10</v>
-      </c>
-      <c r="E53" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN10.ttl</v>
-      </c>
-      <c r="F53" t="s">
-        <v>164</v>
-      </c>
-      <c r="G53" t="s">
-        <v>95</v>
-      </c>
-      <c r="H53" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I53" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN10.ttl,valid</v>
-      </c>
-      <c r="J53" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN10.ttl,valid</v>
-      </c>
-      <c r="K53" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B54" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
-      </c>
-      <c r="C54" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN11</v>
-      </c>
-      <c r="E54" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN11.ttl</v>
-      </c>
-      <c r="F54" t="s">
-        <v>165</v>
-      </c>
-      <c r="G54" t="s">
-        <v>89</v>
-      </c>
-      <c r="H54" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I54" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN11.ttl,warning</v>
-      </c>
-      <c r="J54" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN11.ttl,error</v>
-      </c>
-      <c r="K54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B55" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
-      </c>
-      <c r="C55" t="s">
-        <v>213</v>
-      </c>
-      <c r="D55" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN12</v>
-      </c>
-      <c r="E55" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN12.ttl</v>
-      </c>
-      <c r="F55" t="s">
-        <v>166</v>
-      </c>
-      <c r="G55" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I55" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN12.ttl,valid</v>
-      </c>
-      <c r="J55" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN12.ttl,valid</v>
-      </c>
-      <c r="K55" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B56" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
-      </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="D56" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN13</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N01</v>
       </c>
       <c r="E56" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN13.ttl</v>
+        <v>R_CL_ZGT_N01.ttl</v>
       </c>
       <c r="F56" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G56" t="s">
         <v>95</v>
@@ -5413,37 +5471,41 @@
       </c>
       <c r="I56" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN13.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N01.ttl,valid</v>
       </c>
       <c r="J56" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN13.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N01.ttl,valid</v>
       </c>
       <c r="K56" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M56" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N - result:Valid</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D57" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN14</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N02</v>
       </c>
       <c r="E57" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN14.ttl</v>
+        <v>R_CL_ZGT_N02.ttl</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G57" t="s">
         <v>89</v>
@@ -5454,37 +5516,41 @@
       </c>
       <c r="I57" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN14.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N02.ttl,warning</v>
       </c>
       <c r="J57" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN14.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N02.ttl,error</v>
       </c>
       <c r="K57" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M57" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C58" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D58" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN15</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N03</v>
       </c>
       <c r="E58" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN15.ttl</v>
+        <v>R_CL_ZGT_N03.ttl</v>
       </c>
       <c r="F58" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="G58" t="s">
         <v>89</v>
@@ -5495,37 +5561,41 @@
       </c>
       <c r="I58" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN15.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N03.ttl,warning</v>
       </c>
       <c r="J58" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN15.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N03.ttl,error</v>
       </c>
       <c r="K58" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M58" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; B &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D59" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN16</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N04</v>
       </c>
       <c r="E59" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN16.ttl</v>
+        <v>R_CL_ZGT_N04.ttl</v>
       </c>
       <c r="F59" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="G59" t="s">
         <v>89</v>
@@ -5536,37 +5606,41 @@
       </c>
       <c r="I59" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN16.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N04.ttl,warning</v>
       </c>
       <c r="J59" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN16.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N04.ttl,error</v>
       </c>
       <c r="K59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M59" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; B &gt; N - result:Warning</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="D60" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN17</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N05</v>
       </c>
       <c r="E60" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN17.ttl</v>
+        <v>R_CL_ZGT_N05.ttl</v>
       </c>
       <c r="F60" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="G60" t="s">
         <v>95</v>
@@ -5577,37 +5651,41 @@
       </c>
       <c r="I60" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN17.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N05.ttl,valid</v>
       </c>
       <c r="J60" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN17.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N05.ttl,valid</v>
       </c>
       <c r="K60" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M60" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; B &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="D61" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN18</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N06</v>
       </c>
       <c r="E61" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN18.ttl</v>
+        <v>R_CL_ZGT_N06.ttl</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="G61" t="s">
         <v>95</v>
@@ -5618,78 +5696,86 @@
       </c>
       <c r="I61" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN18.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N06.ttl,valid</v>
       </c>
       <c r="J61" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN18.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N06.ttl,valid</v>
       </c>
       <c r="K61" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M61" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; N - result:Valid</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D62" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTN19</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N07</v>
       </c>
       <c r="E62" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTN19.ttl</v>
+        <v>R_CL_ZGT_N07.ttl</v>
       </c>
       <c r="F62" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H62" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I62" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTN19.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N07.ttl,warning</v>
       </c>
       <c r="J62" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTN19.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N07.ttl,error</v>
       </c>
       <c r="K62" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M62" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; N &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D63" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU01</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N08</v>
       </c>
       <c r="E63" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU01.ttl</v>
+        <v>R_CL_ZGT_N08.ttl</v>
       </c>
       <c r="F63" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G63" t="s">
         <v>95</v>
@@ -5700,119 +5786,131 @@
       </c>
       <c r="I63" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU01.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N08.ttl,valid</v>
       </c>
       <c r="J63" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU01.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N08.ttl,valid</v>
       </c>
       <c r="K63" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M63" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; N &gt; N - result:Valid</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D64" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU02</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N09</v>
       </c>
       <c r="E64" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU02.ttl</v>
+        <v>R_CL_ZGT_N09.ttl</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H64" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I64" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU02.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N09.ttl,valid</v>
       </c>
       <c r="J64" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU02.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N09.ttl,valid</v>
       </c>
       <c r="K64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M64" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; N &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C65" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="D65" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU03</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N10</v>
       </c>
       <c r="E65" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU03.ttl</v>
+        <v>R_CL_ZGT_N10.ttl</v>
       </c>
       <c r="F65" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H65" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I65" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU03.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N10.ttl,valid</v>
       </c>
       <c r="J65" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU03.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N10.ttl,valid</v>
       </c>
       <c r="K65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M65" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C66" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="D66" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU04</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N11</v>
       </c>
       <c r="E66" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU04.ttl</v>
+        <v>R_CL_ZGT_N11.ttl</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G66" t="s">
         <v>89</v>
@@ -5823,37 +5921,41 @@
       </c>
       <c r="I66" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU04.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N11.ttl,warning</v>
       </c>
       <c r="J66" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU04.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N11.ttl,error</v>
       </c>
       <c r="K66" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M66" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; U &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="D67" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU05</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N12</v>
       </c>
       <c r="E67" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU05.ttl</v>
+        <v>R_CL_ZGT_N12.ttl</v>
       </c>
       <c r="F67" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G67" t="s">
         <v>95</v>
@@ -5864,37 +5966,41 @@
       </c>
       <c r="I67" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU05.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N12.ttl,valid</v>
       </c>
       <c r="J67" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU05.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N12.ttl,valid</v>
       </c>
       <c r="K67" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M67" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; U &gt; N - result:Valid</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="D68" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU06</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N13</v>
       </c>
       <c r="E68" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU06.ttl</v>
+        <v>R_CL_ZGT_N13.ttl</v>
       </c>
       <c r="F68" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G68" t="s">
         <v>95</v>
@@ -5905,37 +6011,41 @@
       </c>
       <c r="I68" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU06.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N13.ttl,valid</v>
       </c>
       <c r="J68" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU06.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N13.ttl,valid</v>
       </c>
       <c r="K68" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M68" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; U &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C69" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="D69" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU07</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N14</v>
       </c>
       <c r="E69" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU07.ttl</v>
+        <v>R_CL_ZGT_N14.ttl</v>
       </c>
       <c r="F69" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G69" t="s">
         <v>89</v>
@@ -5946,119 +6056,131 @@
       </c>
       <c r="I69" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU07.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N14.ttl,warning</v>
       </c>
       <c r="J69" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU07.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N14.ttl,error</v>
       </c>
       <c r="K69" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M69" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; (B , B) - result:Warning</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="D70" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU08</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N15</v>
       </c>
       <c r="E70" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU08.ttl</v>
+        <v>R_CL_ZGT_N15.ttl</v>
       </c>
       <c r="F70" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H70" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I70" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU08.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N15.ttl,warning</v>
       </c>
       <c r="J70" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU08.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N15.ttl,error</v>
       </c>
       <c r="K70" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M70" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; (B , N) - result:Warning</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D71" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU09</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N16</v>
       </c>
       <c r="E71" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU09.ttl</v>
+        <v>R_CL_ZGT_N16.ttl</v>
       </c>
       <c r="F71" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H71" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
+        <v>Error</v>
       </c>
       <c r="I71" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU09.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N16.ttl,warning</v>
       </c>
       <c r="J71" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU09.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N16.ttl,error</v>
       </c>
       <c r="K71" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M71" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; (B , U) - result:Warning</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D72" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU10</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N17</v>
       </c>
       <c r="E72" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU10.ttl</v>
+        <v>R_CL_ZGT_N17.ttl</v>
       </c>
       <c r="F72" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G72" t="s">
         <v>95</v>
@@ -6069,78 +6191,86 @@
       </c>
       <c r="I72" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU10.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N17.ttl,valid</v>
       </c>
       <c r="J72" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU10.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N17.ttl,valid</v>
       </c>
       <c r="K72" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M72" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; (N , N) - result:Valid</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B73" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D73" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU11</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N18</v>
       </c>
       <c r="E73" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU11.ttl</v>
+        <v>R_CL_ZGT_N18.ttl</v>
       </c>
       <c r="F73" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H73" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I73" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU11.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N18.ttl,valid</v>
       </c>
       <c r="J73" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU11.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N18.ttl,valid</v>
       </c>
       <c r="K73" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M73" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; (N , U) - result:Valid</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D74" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU12</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_N19</v>
       </c>
       <c r="E74" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU12.ttl</v>
+        <v>R_CL_ZGT_N19.ttl</v>
       </c>
       <c r="F74" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G74" t="s">
         <v>95</v>
@@ -6151,37 +6281,41 @@
       </c>
       <c r="I74" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU12.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_N19.ttl,valid</v>
       </c>
       <c r="J74" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU12.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_N19.ttl,valid</v>
       </c>
       <c r="K74" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M74" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: N &gt; (U , U) - result:Valid</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B75" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="D75" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU13</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U01</v>
       </c>
       <c r="E75" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU13.ttl</v>
+        <v>R_CL_ZGT_U01.ttl</v>
       </c>
       <c r="F75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G75" t="s">
         <v>95</v>
@@ -6192,37 +6326,41 @@
       </c>
       <c r="I75" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU13.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U01.ttl,valid</v>
       </c>
       <c r="J75" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU13.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U01.ttl,valid</v>
       </c>
       <c r="K75" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="M75" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U - result:Valid</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="D76" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU14</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U02</v>
       </c>
       <c r="E76" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU14.ttl</v>
+        <v>R_CL_ZGT_U02.ttl</v>
       </c>
       <c r="F76" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="G76" t="s">
         <v>89</v>
@@ -6233,37 +6371,41 @@
       </c>
       <c r="I76" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU14.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U02.ttl,warning</v>
       </c>
       <c r="J76" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU14.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U02.ttl,error</v>
       </c>
       <c r="K76" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M76" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="D77" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU15</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U03</v>
       </c>
       <c r="E77" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU15.ttl</v>
+        <v>R_CL_ZGT_U03.ttl</v>
       </c>
       <c r="F77" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="G77" t="s">
         <v>89</v>
@@ -6274,37 +6416,41 @@
       </c>
       <c r="I77" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU15.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U03.ttl,warning</v>
       </c>
       <c r="J77" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU15.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U03.ttl,error</v>
       </c>
       <c r="K77" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M77" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; B &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="D78" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU16</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U04</v>
       </c>
       <c r="E78" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU16.ttl</v>
+        <v>R_CL_ZGT_U04.ttl</v>
       </c>
       <c r="F78" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="G78" t="s">
         <v>89</v>
@@ -6315,37 +6461,41 @@
       </c>
       <c r="I78" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU16.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U04.ttl,warning</v>
       </c>
       <c r="J78" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU16.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U04.ttl,error</v>
       </c>
       <c r="K78" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M78" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; B &gt; N - result:Warning</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B79" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="D79" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU17</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U05</v>
       </c>
       <c r="E79" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU17.ttl</v>
+        <v>R_CL_ZGT_U05.ttl</v>
       </c>
       <c r="F79" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="G79" t="s">
         <v>95</v>
@@ -6356,37 +6506,41 @@
       </c>
       <c r="I79" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU17.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U05.ttl,valid</v>
       </c>
       <c r="J79" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU17.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U05.ttl,valid</v>
       </c>
       <c r="K79" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M79" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; B &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B80" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D80" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU18</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U06</v>
       </c>
       <c r="E80" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU18.ttl</v>
+        <v>R_CL_ZGT_U06.ttl</v>
       </c>
       <c r="F80" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="G80" t="s">
         <v>95</v>
@@ -6397,116 +6551,131 @@
       </c>
       <c r="I80" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU18.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U06.ttl,valid</v>
       </c>
       <c r="J80" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU18.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U06.ttl,valid</v>
       </c>
       <c r="K80" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M80" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; N - result:Valid</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B81" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D81" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_ZGTU19</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U07</v>
       </c>
       <c r="E81" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGTU19.ttl</v>
+        <v>R_CL_ZGT_U07.ttl</v>
       </c>
       <c r="F81" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="G81" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I81" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U07.ttl,warning</v>
+      </c>
+      <c r="J81" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U07.ttl,error</v>
+      </c>
+      <c r="K81" t="s">
+        <v>257</v>
+      </c>
+      <c r="M81" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; N &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B82" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C82" t="s">
+        <v>255</v>
+      </c>
+      <c r="D82" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U08</v>
+      </c>
+      <c r="E82" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_U08.ttl</v>
+      </c>
+      <c r="F82" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" t="s">
         <v>95</v>
       </c>
-      <c r="H81" t="str">
+      <c r="H82" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I81" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGTU19.ttl,valid</v>
-      </c>
-      <c r="J81" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGTU19.ttl,valid</v>
-      </c>
-      <c r="K81" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B82" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" s="13" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_GJUA</v>
-      </c>
-      <c r="E82" s="7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_GJUA.ttl</v>
-      </c>
-      <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s">
-        <v>89</v>
-      </c>
-      <c r="H82" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
       <c r="I82" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_GJU,R_CL_GJUA.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U08.ttl,valid</v>
       </c>
       <c r="J82" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_GJU,R_CL_GJUA.ttl,error</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U08.ttl,valid</v>
+      </c>
+      <c r="K82" t="s">
+        <v>257</v>
+      </c>
+      <c r="M82" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; N &gt; N - result:Valid</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B83" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" s="13" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_GJUB</v>
-      </c>
-      <c r="E83" s="7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_GJUB.ttl</v>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U09</v>
+      </c>
+      <c r="E83" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_U09.ttl</v>
       </c>
       <c r="F83" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="G83" t="s">
         <v>95</v>
@@ -6517,34 +6686,41 @@
       </c>
       <c r="I83" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_GJU,R_CL_GJUB.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U09.ttl,valid</v>
       </c>
       <c r="J83" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_GJU,R_CL_GJUB.ttl,valid</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U09.ttl,valid</v>
+      </c>
+      <c r="K83" t="s">
+        <v>257</v>
+      </c>
+      <c r="M83" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; N &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B84" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" s="13" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_GJUC</v>
-      </c>
-      <c r="E84" s="7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_GJUC.ttl</v>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U10</v>
+      </c>
+      <c r="E84" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_U10.ttl</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="G84" t="s">
         <v>95</v>
@@ -6555,37 +6731,44 @@
       </c>
       <c r="I84" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_GJU,R_CL_GJUC.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U10.ttl,valid</v>
       </c>
       <c r="J84" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_GJU,R_CL_GJUC.ttl,valid</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U10.ttl,valid</v>
+      </c>
+      <c r="K84" t="s">
+        <v>257</v>
+      </c>
+      <c r="M84" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B85" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>102</v>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C85" t="s">
+        <v>221</v>
       </c>
       <c r="D85" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_GJUD</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U11</v>
       </c>
       <c r="E85" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_GJUD.ttl</v>
+        <v>R_CL_ZGT_U11.ttl</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="G85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H85" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6593,119 +6776,131 @@
       </c>
       <c r="I85" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_GJU,R_CL_GJUD.ttl,error</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U11.ttl,warning</v>
       </c>
       <c r="J85" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_GJU,R_CL_GJUD.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U11.ttl,error</v>
       </c>
       <c r="K85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M85" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; U &gt; B - result:Warning</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B86" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>103</v>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C86" t="s">
+        <v>222</v>
       </c>
       <c r="D86" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_GJUE</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U12</v>
       </c>
       <c r="E86" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_GJUE.ttl</v>
+        <v>R_CL_ZGT_U12.ttl</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="G86" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H86" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I86" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_GJU,R_CL_GJUE.ttl,error</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U12.ttl,valid</v>
       </c>
       <c r="J86" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_GJU,R_CL_GJUE.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U12.ttl,valid</v>
       </c>
       <c r="K86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M86" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; U &gt; N - result:Valid</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B87" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with exactly one stereotype.</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>104</v>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C87" t="s">
+        <v>223</v>
       </c>
       <c r="D87" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_GJUF</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U13</v>
       </c>
       <c r="E87" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_GJUF.ttl</v>
+        <v>R_CL_ZGT_U13.ttl</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="G87" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H87" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I87" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_GJU,R_CL_GJUF.ttl,error</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U13.ttl,valid</v>
       </c>
       <c r="J87" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_GJU,R_CL_GJUF.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U13.ttl,valid</v>
       </c>
       <c r="K87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M87" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; U &gt; U - result:Valid</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B88" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="D88" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_BWZA</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U14</v>
       </c>
       <c r="E88" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_BWZA.ttl</v>
+        <v>R_CL_ZGT_U14.ttl</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="G88" t="s">
         <v>89</v>
@@ -6716,151 +6911,176 @@
       </c>
       <c r="I88" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_BWZ,R_CL_BWZA.ttl,warning</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U14.ttl,warning</v>
       </c>
       <c r="J88" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_BWZ,R_CL_BWZA.ttl,error</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U14.ttl,error</v>
+      </c>
+      <c r="K88" t="s">
+        <v>257</v>
+      </c>
+      <c r="M88" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; (B , B) - result:Warning</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B89" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="D89" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_BWZB</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U15</v>
       </c>
       <c r="E89" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_BWZB.ttl</v>
+        <v>R_CL_ZGT_U15.ttl</v>
       </c>
       <c r="F89" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="G89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H89" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I89" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U15.ttl,warning</v>
+      </c>
+      <c r="J89" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U15.ttl,error</v>
+      </c>
+      <c r="K89" t="s">
+        <v>257</v>
+      </c>
+      <c r="M89" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; (B , N) - result:Warning</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B90" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C90" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U16</v>
+      </c>
+      <c r="E90" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_U16.ttl</v>
+      </c>
+      <c r="F90" t="s">
+        <v>196</v>
+      </c>
+      <c r="G90" t="s">
+        <v>89</v>
+      </c>
+      <c r="H90" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I90" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U16.ttl,warning</v>
+      </c>
+      <c r="J90" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U16.ttl,error</v>
+      </c>
+      <c r="K90" t="s">
+        <v>257</v>
+      </c>
+      <c r="M90" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; (B , U) - result:Warning</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B91" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+      </c>
+      <c r="C91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U17</v>
+      </c>
+      <c r="E91" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_U17.ttl</v>
+      </c>
+      <c r="F91" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" t="s">
         <v>95</v>
       </c>
-      <c r="H89" t="str">
+      <c r="H91" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I89" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_BWZ,R_CL_BWZB.ttl,valid</v>
-      </c>
-      <c r="J89" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_BWZ,R_CL_BWZB.ttl,valid</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B90" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
-      </c>
-      <c r="C90" t="s">
-        <v>96</v>
-      </c>
-      <c r="D90" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_BWZC</v>
-      </c>
-      <c r="E90" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_BWZC.ttl</v>
-      </c>
-      <c r="F90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" t="s">
-        <v>90</v>
-      </c>
-      <c r="H90" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I90" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_BWZ,R_CL_BWZC.ttl,error</v>
-      </c>
-      <c r="J90" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_BWZ,R_CL_BWZC.ttl,error</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B91" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
-      </c>
-      <c r="C91" t="s">
-        <v>102</v>
-      </c>
-      <c r="D91" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_BWZD</v>
-      </c>
-      <c r="E91" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_BWZD.ttl</v>
-      </c>
-      <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s">
-        <v>90</v>
-      </c>
-      <c r="H91" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
       <c r="I91" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_BWZ,R_CL_BWZD.ttl,error</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U17.ttl,valid</v>
       </c>
       <c r="J91" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_BWZ,R_CL_BWZD.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U17.ttl,valid</v>
       </c>
       <c r="K91" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M91" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; (N , N) - result:Valid</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B92" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="D92" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_BWZE</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U18</v>
       </c>
       <c r="E92" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_BWZE.ttl</v>
+        <v>R_CL_ZGT_U18.ttl</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="G92" t="s">
         <v>95</v>
@@ -6871,70 +7091,78 @@
       </c>
       <c r="I92" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_BWZ,R_CL_BWZE.ttl,valid</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U18.ttl,valid</v>
       </c>
       <c r="J92" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_BWZ,R_CL_BWZE.ttl,valid</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U18.ttl,valid</v>
       </c>
       <c r="K92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M92" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; (N , U) - result:Valid</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B93" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
+        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="D93" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;TabImp[[#This Row],[Situation ID]]</f>
-        <v>R_CL_BWZF</v>
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U19</v>
       </c>
       <c r="E93" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_BWZF.ttl</v>
+        <v>R_CL_ZGT_U19.ttl</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="G93" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H93" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I93" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_BWZ,R_CL_BWZF.ttl,error</v>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U19.ttl,valid</v>
       </c>
       <c r="J93" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_BWZ,R_CL_BWZF.ttl,error</v>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U19.ttl,valid</v>
       </c>
       <c r="K93" t="s">
-        <v>111</v>
+        <v>257</v>
+      </c>
+      <c r="M93" t="str">
+        <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
+        <v>Taxonomy: U &gt; (U , U) - result:Valid</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D2:E93">
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H248">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B2577-2D1E-4025-8D33-CA51C58D216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1CB05C-F46F-4164-B1AB-3F27A2C3FD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="360">
   <si>
     <t>Description</t>
   </si>
@@ -1084,6 +1084,36 @@
   </si>
   <si>
     <t>Situation</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>R_CL_YOK</t>
+  </si>
+  <si>
+    <t>Undefined not abstract</t>
+  </si>
+  <si>
+    <t>Undefined abstract</t>
+  </si>
+  <si>
+    <t>Not non-sortal not abstract</t>
+  </si>
+  <si>
+    <t>Not non-sortal abstract</t>
+  </si>
+  <si>
+    <t>Non-sortal not abstract</t>
+  </si>
+  <si>
+    <t>Non-sortal abstract</t>
+  </si>
+  <si>
+    <t>Used kind</t>
+  </si>
+  <si>
+    <t>Used category</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,6 +1199,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1190,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1226,25 +1261,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="45">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1253,6 +1288,96 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1315,6 +1440,142 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1521,61 +1782,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D79" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:D79" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:E79" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:E79" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D79">
-    <sortCondition ref="A2:A79"/>
+    <sortCondition ref="D1:D79"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="8">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="27">
       <calculatedColumnFormula>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{42EF5718-1FEE-450B-A592-C6740C9FC5B4}" name="Implemented" dataDxfId="19">
+      <calculatedColumnFormula>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="F1:G6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="F1:G6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="G1:H6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="G1:H6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K93" totalsRowShown="0">
-  <autoFilter ref="A1:K93" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A47A7CD1-10EE-4ACB-9CCB-AF03154AD8DA}" name="Table3" displayName="Table3" ref="J1:J9" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
+  <autoFilter ref="J1:J9" xr:uid="{A47A7CD1-10EE-4ACB-9CCB-AF03154AD8DA}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F62164B1-C24B-4602-97D8-416DD4870A0D}" name="Implemented" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K99" totalsRowShown="0">
+  <autoFilter ref="A1:K99" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
     <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="35">
       <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation"/>
-    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="26">
       <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="34">
       <calculatedColumnFormula>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F491E82A-09B4-4B22-AA08-7E6DFD336A64}" name="Situation Description"/>
     <tableColumn id="4" xr3:uid="{92BCF063-80EB-4A9C-AA1A-6F95CC9435A7}" name="OWA Level"/>
-    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="33">
       <calculatedColumnFormula>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="32">
       <calculatedColumnFormula>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="31">
       <calculatedColumnFormula>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9CF1643D-B8F2-452E-B29E-AD6EF72070C4}" name="Comments"/>
@@ -1884,24 +2158,28 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection activeCell="G95" sqref="G95"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="5" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="20.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="15.140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>117</v>
       </c>
@@ -1914,649 +2192,874 @@
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J1" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_XJZ</v>
+        <v>R_CL_EDA</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J2" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JOJ</v>
+        <v>R_CL_AIB</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_UMC</v>
+        <v>R_CL_PPZ</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J4" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_AIB</v>
+        <v>R_GS_LHD</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J5" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_EDA</v>
+        <v>R_GS_PQP</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J6" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ZGT</v>
+        <v>R_GS_UTW</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E7" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7"/>
+      <c r="J7" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_LAX</v>
+        <v>R_CL_CMS</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J8" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_YOK</v>
+        <v>R_CL_NBG</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ASZ</v>
+        <v>R_CL_LAX</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GJU</v>
+        <v>R_CL_ZGT</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BWZ</v>
+        <v>R_CL_ASZ</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_PPZ</v>
+        <v>R_CL_YOK</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_CMS</v>
+        <v>R_CL_QJC</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_NBG</v>
+        <v>R_CL_DKO</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_QJC</v>
+        <v>R_CL_GOV</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_DKO</v>
+        <v>R_CL_ZEF</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GOV</v>
+        <v>R_CL_FHG</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ZEF</v>
+        <v>R_CL_PIT</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_FHG</v>
+        <v>R_CL_CLD</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_PIT</v>
+        <v>R_CL_DED</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_CLD</v>
+        <v>R_CL_PSQ</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_DED</v>
+        <v>R_CL_SQU</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_PSQ</v>
+        <v>R_CL_ANJ</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_SQU</v>
+        <v>R_CL_XJZ</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ANJ</v>
+        <v>R_CL_JOJ</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JMQ</v>
+        <v>R_CL_GJU</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E27" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_EMV</v>
+        <v>R_CL_BWZ</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_QOV</v>
+        <v>R_CL_JMQ</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E29" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JFW</v>
+        <v>R_CL_EMV</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_UTL</v>
+        <v>R_CL_QOV</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_VPE</v>
+        <v>R_CL_JFW</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_WLH</v>
+        <v>R_CL_UTL</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E33" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BFO</v>
+        <v>R_CL_VPE</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E34" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_VOQ</v>
+        <v>R_CL_WLH</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E35" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_HOR</v>
+        <v>R_CL_BFO</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E36" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GAZ</v>
+        <v>R_CL_VOQ</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E37" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BQI</v>
+        <v>R_CL_HOR</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E38" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_OEV</v>
+        <v>R_CL_GAZ</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E39" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_EGT</v>
+        <v>R_CL_BQI</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E40" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ANY</v>
+        <v>R_CL_UMC</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E41" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>35</v>
       </c>
@@ -2570,8 +3073,13 @@
       <c r="D42" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E42" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>35</v>
       </c>
@@ -2585,583 +3093,815 @@
       <c r="D43" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_BAK</v>
+        <v>R_GS_YKW</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E44" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_JLW</v>
+        <v>R_CL_OEV</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E45" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_VEZ</v>
+        <v>R_PR_BWY</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E46" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_IJM</v>
+        <v>R_PR_LCI</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E47" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_UXR</v>
+        <v>R_RE_AZO</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E48" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_HGQ</v>
+        <v>R_RE_ECP</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E49" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_EPG</v>
+        <v>R_RE_FIX</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E50" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_MXI</v>
+        <v>R_RE_HGG</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E51" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_HPZ</v>
+        <v>R_RE_VDQ</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E52" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_LHD</v>
+        <v>R_RE_VMI</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E53" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_PQP</v>
+        <v>R_RE_ALR</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E54" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_UTW</v>
+        <v>R_RE_SEI</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E55" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_YKW</v>
+        <v>R_RE_EAQ</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E56" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_XXB</v>
+        <v>R_RE_CDJ</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E57" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_ZMQ</v>
+        <v>R_RE_RON</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E58" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_PR_BWY</v>
+        <v>R_RE_KZC</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E59" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_PR_LCI</v>
+        <v>R_RE_NTY</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E60" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_AZO</v>
+        <v>R_RE_UCH</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E61" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_ECP</v>
+        <v>R_RE_LQF</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E62" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_FIX</v>
+        <v>R_RE_GZN</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E63" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_HGG</v>
+        <v>R_RE_KPG</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E64" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_VDQ</v>
+        <v>R_CL_EGT</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E65" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_VMI</v>
+        <v>R_CL_ANY</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E66" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_ALR</v>
+        <v>R_GE_BAK</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E67" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_SEI</v>
+        <v>R_GE_JLW</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E68" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_EAQ</v>
+        <v>R_GE_VEZ</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E69" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_CDJ</v>
+        <v>R_GE_IJM</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E70" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_RON</v>
+        <v>R_GE_UXR</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E71" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="C72" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_KZC</v>
+        <v>R_GE_HGQ</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E72" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C73" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_NTY</v>
+        <v>R_GE_EPG</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E73" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="C74" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_UCH</v>
+        <v>R_GE_MXI</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E74" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="C75" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_LQF</v>
+        <v>R_GE_HPZ</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E75" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C76" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_GZN</v>
+        <v>R_RE_GZF</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E76" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C77" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_KPG</v>
+        <v>R_RE_JND</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E77" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C78" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_GZF</v>
+        <v>R_GS_XXB</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E78" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C79" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_JND</v>
+        <v>R_GS_ZMQ</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E79" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D81" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="5"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D82" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="6"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D83" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="6"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D85" s="11" t="s">
         <v>142</v>
       </c>
+      <c r="E85" s="11"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D2:D79">
-    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B79">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C79">
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E79">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3171,11 +3911,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7150,12 +7890,252 @@
         <v>Taxonomy: U &gt; (U , U) - result:Valid</v>
       </c>
     </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B94" s="16" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="17" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_YOK_A</v>
+      </c>
+      <c r="E94" s="16" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_YOK_A.ttl</v>
+      </c>
+      <c r="F94" t="s">
+        <v>352</v>
+      </c>
+      <c r="G94" t="s">
+        <v>95</v>
+      </c>
+      <c r="H94" s="16" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I94" s="16" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_YOK,R_CL_YOK_A.ttl,valid</v>
+      </c>
+      <c r="J94" s="16" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_YOK,R_CL_YOK_A.ttl,valid</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B95" s="16" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="17" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_YOK_B</v>
+      </c>
+      <c r="E95" s="16" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_YOK_B.ttl</v>
+      </c>
+      <c r="F95" t="s">
+        <v>353</v>
+      </c>
+      <c r="G95" t="s">
+        <v>95</v>
+      </c>
+      <c r="H95" s="16" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I95" s="16" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_YOK,R_CL_YOK_B.ttl,valid</v>
+      </c>
+      <c r="J95" s="16" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_YOK,R_CL_YOK_B.ttl,valid</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B96" s="16" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+      </c>
+      <c r="C96" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="17" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_YOK_C</v>
+      </c>
+      <c r="E96" s="16" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_YOK_C.ttl</v>
+      </c>
+      <c r="F96" t="s">
+        <v>354</v>
+      </c>
+      <c r="G96" t="s">
+        <v>95</v>
+      </c>
+      <c r="H96" s="16" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I96" s="16" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_YOK,R_CL_YOK_C.ttl,valid</v>
+      </c>
+      <c r="J96" s="16" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_YOK,R_CL_YOK_C.ttl,valid</v>
+      </c>
+      <c r="K96" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" s="16" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+      </c>
+      <c r="C97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="17" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_YOK_D</v>
+      </c>
+      <c r="E97" s="16" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_YOK_D.ttl</v>
+      </c>
+      <c r="F97" t="s">
+        <v>355</v>
+      </c>
+      <c r="G97" t="s">
+        <v>95</v>
+      </c>
+      <c r="H97" s="16" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I97" s="16" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_YOK,R_CL_YOK_D.ttl,valid</v>
+      </c>
+      <c r="J97" s="16" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_YOK,R_CL_YOK_D.ttl,valid</v>
+      </c>
+      <c r="K97" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B98" s="16" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+      </c>
+      <c r="C98" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="17" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_YOK_E</v>
+      </c>
+      <c r="E98" s="16" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_YOK_E.ttl</v>
+      </c>
+      <c r="F98" t="s">
+        <v>356</v>
+      </c>
+      <c r="G98" t="s">
+        <v>89</v>
+      </c>
+      <c r="H98" s="16" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I98" s="16" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_YOK,R_CL_YOK_E.ttl,warning</v>
+      </c>
+      <c r="J98" s="16" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_YOK,R_CL_YOK_E.ttl,error</v>
+      </c>
+      <c r="K98" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B99" s="16" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="17" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_YOK_F</v>
+      </c>
+      <c r="E99" s="16" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_YOK_F.ttl</v>
+      </c>
+      <c r="F99" t="s">
+        <v>357</v>
+      </c>
+      <c r="G99" t="s">
+        <v>95</v>
+      </c>
+      <c r="H99" s="16" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I99" s="16" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_YOK,R_CL_YOK_F.ttl,valid</v>
+      </c>
+      <c r="J99" s="16" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_YOK,R_CL_YOK_F.ttl,valid</v>
+      </c>
+      <c r="K99" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E93">
+  <conditionalFormatting sqref="D2:E99">
     <cfRule type="duplicateValues" dxfId="4" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H248">
+  <conditionalFormatting sqref="G2:H250">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
@@ -7167,7 +8147,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H93" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H99" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
       <formula1>"Valid,Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1CB05C-F46F-4164-B1AB-3F27A2C3FD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EDDB2A-989F-4734-8DD3-8F94E72DBAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules Definition" sheetId="2" r:id="rId1"/>
-    <sheet name="Rules Implementation" sheetId="5" r:id="rId2"/>
+    <sheet name="Definitions" sheetId="6" r:id="rId2"/>
+    <sheet name="Rules Implementation" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="377">
   <si>
     <t>Description</t>
   </si>
@@ -48,9 +49,6 @@
     <t>Every class decorated with the stereotype «enumeration» must not have attributes.</t>
   </si>
   <si>
-    <t>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</t>
-  </si>
-  <si>
     <t>Every class decorated with a stereotype «kind» must have the tagged value "restrictedTo" set to an array containing the value [ "functional-complex" ].</t>
   </si>
   <si>
@@ -75,15 +73,6 @@
     <t>Every class decorated with a stereotype «situation» must have the tagged value "restrictedTo" set to an array containing the value [ "situation" ].</t>
   </si>
   <si>
-    <t>Every class decorated with an abstract stereotype (i.e., «abstract», «datatype», or «enumeration») must have the tagged value "restrictedTo" set to an array containing the value [ "abstract" ].</t>
-  </si>
-  <si>
-    <t>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») and the tagged value "order" set to "1" must have the tagged value "restrictedTo" set to an array containing one or more of the values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality" ].</t>
-  </si>
-  <si>
-    <t>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») and the tagged value "order" set to "1" must have the tagged value "restrictedTo" set to an array containing one of the values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality" ].</t>
-  </si>
-  <si>
     <t>Every class decorated with a stereotype «type» must have the have the tagged "order" set to a number greater than "1" or set to "*".</t>
   </si>
   <si>
@@ -114,9 +103,6 @@
     <t>Every class must have the tagged value "order" set to a number greater than "0" or set to "*".</t>
   </si>
   <si>
-    <t>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</t>
-  </si>
-  <si>
     <t>Every abstract class should be specialized by some concrete class or have a super class that is specialized by a concrete class.</t>
   </si>
   <si>
@@ -144,9 +130,6 @@
     <t>Generalization</t>
   </si>
   <si>
-    <t>No generalization can connect a general class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type») to a specific class decorated with a ultimate sortal stereotype.</t>
-  </si>
-  <si>
     <t>No generalization can connect a general class decorated with a sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», «type», «subkind», «phase», «role», or «historicalRole») to a specific class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin»).</t>
   </si>
   <si>
@@ -462,9 +445,6 @@
     <t>Enumeration class with generalization with stereotype Abstract</t>
   </si>
   <si>
-    <t>ultimate sortals do not specialize ultimate sortals</t>
-  </si>
-  <si>
     <t>Taxonomy: B &gt; B</t>
   </si>
   <si>
@@ -918,18 +898,12 @@
     <t>VPE</t>
   </si>
   <si>
-    <t>WLH</t>
-  </si>
-  <si>
     <t>BFO</t>
   </si>
   <si>
     <t>VOQ</t>
   </si>
   <si>
-    <t>HOR</t>
-  </si>
-  <si>
     <t>GAZ</t>
   </si>
   <si>
@@ -1086,9 +1060,6 @@
     <t>Situation</t>
   </si>
   <si>
-    <t>Implemented</t>
-  </si>
-  <si>
     <t>R_CL_YOK</t>
   </si>
   <si>
@@ -1114,6 +1085,87 @@
   </si>
   <si>
     <t>Used category</t>
+  </si>
+  <si>
+    <t>Not set without tagged value</t>
+  </si>
+  <si>
+    <t>Not set with tagged value</t>
+  </si>
+  <si>
+    <t>Not type without tagged value</t>
+  </si>
+  <si>
+    <t>Not type with tagged value</t>
+  </si>
+  <si>
+    <t>Type without tagged value</t>
+  </si>
+  <si>
+    <t>Type with demanded tagged value</t>
+  </si>
+  <si>
+    <t>Type with not demanded tagged value</t>
+  </si>
+  <si>
+    <t>Type with not-demanded and demanded tagged value</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Stereotypes</t>
+  </si>
+  <si>
+    <t>ULTIMATE SORTALs do not specialize ULTIMATE SORTALs</t>
+  </si>
+  <si>
+    <t>No generalization can connect a general class decorated with a ULTIMATE SORTAL stereotype  to a specific class decorated with a ULTIMATE SORTAL stereotype.</t>
+  </si>
+  <si>
+    <t>historicalRole, phase, role, subkind</t>
+  </si>
+  <si>
+    <t>collective, kind, mode, quality, quantity, relator, type</t>
+  </si>
+  <si>
+    <t>category, historicalRoleMixin, mixin, phaseMixin, roleMixin</t>
+  </si>
+  <si>
+    <t>collective, historicalRole, kind, mode, phase, quality, quantity, relator, role, subkind, type</t>
+  </si>
+  <si>
+    <t>Every class decorated with a base sortal stereotype and the tagged value "order" set to "1" must have the tagged value "restrictedTo" set to an array containing one of the values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality" ].</t>
+  </si>
+  <si>
+    <t>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</t>
+  </si>
+  <si>
+    <t>Every class decorated with a non-sortal stereotype and the tagged value "order" set to "1" must have the tagged value "restrictedTo" set to an array containing one or more of the values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality" ].</t>
+  </si>
+  <si>
+    <t>Every class decorated with a non-sortal stereotype must be abstract.</t>
+  </si>
+  <si>
+    <t>BASE SORTAL LIST</t>
+  </si>
+  <si>
+    <t>ULTIMATE SORTAL LIST</t>
+  </si>
+  <si>
+    <t>NON-SORTAL LIST</t>
+  </si>
+  <si>
+    <t>SORTAL LIST</t>
+  </si>
+  <si>
+    <t>ABSTRACT LIST</t>
+  </si>
+  <si>
+    <t>abstract, datatype, enumeration</t>
+  </si>
+  <si>
+    <t>Every class decorated with an stereotype in the ABSTRACT LIST must have the tagged value "restrictedTo" set to an array containing the value [ "abstract" ].</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,17 +1252,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1222,10 +1298,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1261,25 +1339,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="25">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1288,96 +1370,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1442,125 +1434,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1575,78 +1458,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1727,6 +1538,46 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1782,74 +1633,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:E79" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:E79" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D79">
-    <sortCondition ref="D1:D79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D77" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:D77" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
+    <sortCondition ref="A2:A77"/>
+    <sortCondition ref="D2:D77"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="27">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="20">
       <calculatedColumnFormula>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{42EF5718-1FEE-450B-A592-C6740C9FC5B4}" name="Implemented" dataDxfId="19">
-      <calculatedColumnFormula>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="G1:H6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="G1:H6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="F1:G6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="F1:G6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A47A7CD1-10EE-4ACB-9CCB-AF03154AD8DA}" name="Table3" displayName="Table3" ref="J1:J9" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
-  <autoFilter ref="J1:J9" xr:uid="{A47A7CD1-10EE-4ACB-9CCB-AF03154AD8DA}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F62164B1-C24B-4602-97D8-416DD4870A0D}" name="Implemented" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}" name="Table3" displayName="Table3" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D8098905-7B35-4419-9FF0-ABB475A5357D}" name="Type" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F12CB8CE-6969-4083-9729-E8A90699DB57}" name="Stereotypes"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K99" totalsRowShown="0">
-  <autoFilter ref="A1:K99" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K107" totalsRowShown="0">
+  <autoFilter ref="A1:K107" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
     <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation"/>
-    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="12">
       <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="11">
       <calculatedColumnFormula>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F491E82A-09B4-4B22-AA08-7E6DFD336A64}" name="Situation Description"/>
     <tableColumn id="4" xr3:uid="{92BCF063-80EB-4A9C-AA1A-6F95CC9435A7}" name="OWA Level"/>
-    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="33">
+    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="10">
       <calculatedColumnFormula>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="9">
       <calculatedColumnFormula>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="31">
+    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="8">
       <calculatedColumnFormula>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9CF1643D-B8F2-452E-B29E-AD6EF72070C4}" name="Comments"/>
@@ -2158,1764 +2008,1321 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G95" sqref="G95"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="20.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="15.140625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>350</v>
+      <c r="F1" t="s">
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_EDA</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_AIB</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_PPZ</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_LHD</v>
+        <v>R_CL_CMS</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_PQP</v>
+        <v>R_CL_NBG</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_UTW</v>
+        <v>R_CL_LAX</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7"/>
-      <c r="J7" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_CMS</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>R_CL_ZGT</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_NBG</v>
+        <v>R_CL_ASZ</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_LAX</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>R_CL_YOK</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ZGT</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>R_CL_QJC</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C12" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ASZ</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_YOK</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_QJC</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_DKO</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GOV</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ZEF</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_FHG</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_PIT</v>
+        <v>R_CL_PSQ</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_CLD</v>
+        <v>R_CL_SQU</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_DED</v>
+        <v>R_CL_ANJ</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_PSQ</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>R_CL_XJZ</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_SQU</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>R_CL_JOJ</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ANJ</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>R_CL_GJU</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_XJZ</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>R_CL_BWZ</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JOJ</v>
+        <v>R_CL_JMQ</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GJU</v>
+        <v>R_CL_EMV</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BWZ</v>
+        <v>R_CL_QOV</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JMQ</v>
+        <v>R_CL_JFW</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_EMV</v>
+        <v>R_CL_UTL</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_QOV</v>
+        <v>R_CL_VPE</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JFW</v>
+        <v>R_CL_BFO</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_UTL</v>
+        <v>R_CL_VOQ</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_VPE</v>
+        <v>R_CL_GAZ</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_WLH</v>
+        <v>R_CL_BQI</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BFO</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>R_CL_UMC</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_VOQ</v>
+        <v>R_CL_OEV</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_HOR</v>
+        <v>R_CL_EGT</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GAZ</v>
+        <v>R_CL_ANY</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BQI</v>
+        <v>R_GE_XRS</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_UMC</v>
+        <v>R_GE_MDR</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_XRS</v>
+        <v>R_GE_BAK</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_MDR</v>
+        <v>R_GE_JLW</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_YKW</v>
+        <v>R_GE_VEZ</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_OEV</v>
+        <v>R_GE_IJM</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_PR_BWY</v>
+        <v>R_GE_UXR</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_PR_LCI</v>
+        <v>R_GE_HGQ</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_AZO</v>
+        <v>R_GE_EPG</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_ECP</v>
+        <v>R_GE_MXI</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J49"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_FIX</v>
+        <v>R_GE_HPZ</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_HGG</v>
+        <v>R_GS_LHD</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_VDQ</v>
+        <v>R_GS_PQP</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_VMI</v>
+        <v>R_GS_UTW</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J53"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_ALR</v>
+        <v>R_GS_YKW</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J54"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_SEI</v>
+        <v>R_GS_XXB</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_EAQ</v>
+        <v>R_GS_ZMQ</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_CDJ</v>
+        <v>R_PR_BWY</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J57"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_RON</v>
+        <v>R_PR_LCI</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_KZC</v>
+        <v>R_RE_AZO</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_NTY</v>
+        <v>R_RE_ECP</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_UCH</v>
+        <v>R_RE_FIX</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J61"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_LQF</v>
+        <v>R_RE_HGG</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J62"/>
-    </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_GZN</v>
+        <v>R_RE_VDQ</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J63"/>
-    </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_KPG</v>
+        <v>R_RE_VMI</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J64"/>
-    </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_EGT</v>
+        <v>R_RE_ALR</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J65"/>
-    </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ANY</v>
+        <v>R_RE_SEI</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_BAK</v>
+        <v>R_RE_EAQ</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_JLW</v>
+        <v>R_RE_CDJ</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J68"/>
-    </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="B69" s="10" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_VEZ</v>
+        <v>R_RE_RON</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_IJM</v>
+        <v>R_RE_KZC</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_UXR</v>
+        <v>R_RE_NTY</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C72" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_HGQ</v>
+        <v>R_RE_UCH</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C73" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_EPG</v>
+        <v>R_RE_LQF</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C74" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_MXI</v>
+        <v>R_RE_GZN</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C75" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_HPZ</v>
+        <v>R_RE_KPG</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C76" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_GZF</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C77" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_JND</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E77" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J77"/>
-    </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_XXB</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C79" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_ZMQ</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="8" t="str">
-        <f>IF(ISERROR(VLOOKUP(TabRules[[#This Row],[Rule Code]],Table3[[#All],[Implemented]],1,FALSE)),"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J79"/>
-    </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J80"/>
-    </row>
-    <row r="81" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D81" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="J81"/>
-    </row>
-    <row r="82" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D82" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="J82"/>
-    </row>
-    <row r="83" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D83" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="J83"/>
-    </row>
-    <row r="84" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J84"/>
-    </row>
-    <row r="85" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D85" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" s="11"/>
-      <c r="J85"/>
-    </row>
-    <row r="86" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J86"/>
-    </row>
-    <row r="87" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J87"/>
-    </row>
-    <row r="88" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J91"/>
-    </row>
-    <row r="92" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J93"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="11" t="s">
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D79">
-    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+  <conditionalFormatting sqref="B2:B77">
+    <cfRule type="duplicateValues" dxfId="7" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B79">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  <conditionalFormatting sqref="C2:C77">
+    <cfRule type="duplicateValues" dxfId="6" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C79">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E79">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="D2:D77">
+    <cfRule type="duplicateValues" dxfId="5" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DAEACC-7D52-42E2-9F3D-7DBF00284689}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D2BF44-67F1-4935-ADE5-39702D5039FF}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,49 +3342,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
       <c r="C1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D2" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3988,10 +3395,10 @@
         <v>R_CL_AIB_A.ttl</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H2" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4008,14 +3415,14 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D3" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4026,10 +3433,10 @@
         <v>R_CL_AIB_B.ttl</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H3" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4046,14 +3453,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D4" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4064,10 +3471,10 @@
         <v>R_CL_AIB_C.ttl</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H4" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4084,14 +3491,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D5" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4102,10 +3509,10 @@
         <v>R_CL_AIB_D.ttl</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H5" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4122,14 +3529,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D6" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4140,10 +3547,10 @@
         <v>R_CL_BWZ_A.ttl</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H6" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4160,14 +3567,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D7" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4178,10 +3585,10 @@
         <v>R_CL_BWZ_B.ttl</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H7" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4198,14 +3605,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4216,10 +3623,10 @@
         <v>R_CL_BWZ_C.ttl</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H8" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4236,14 +3643,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D9" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4254,10 +3661,10 @@
         <v>R_CL_BWZ_D.ttl</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H9" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4272,19 +3679,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_D.ttl,error</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4295,10 +3702,10 @@
         <v>R_CL_BWZ_E.ttl</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H10" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4313,19 +3720,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_E.ttl,valid</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4336,10 +3743,10 @@
         <v>R_CL_BWZ_F.ttl</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H11" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4354,19 +3761,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_F.ttl,error</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D12" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4377,10 +3784,10 @@
         <v>R_CL_EDA_A.ttl</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H12" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4397,14 +3804,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4415,10 +3822,10 @@
         <v>R_CL_EDA_B.ttl</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4435,14 +3842,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D14" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4453,10 +3860,10 @@
         <v>R_CL_EDA_C.ttl</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H14" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4473,14 +3880,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D15" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4491,10 +3898,10 @@
         <v>R_CL_EDA_D.ttl</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H15" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4511,14 +3918,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D16" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4529,10 +3936,10 @@
         <v>R_CL_GJU_A.ttl</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H16" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4549,14 +3956,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D17" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4567,10 +3974,10 @@
         <v>R_CL_GJU_B.ttl</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H17" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4587,14 +3994,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D18" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4605,10 +4012,10 @@
         <v>R_CL_GJU_C.ttl</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H18" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4625,14 +4032,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4643,10 +4050,10 @@
         <v>R_CL_GJU_D.ttl</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H19" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4661,19 +4068,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_D.ttl,error</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D20" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4684,10 +4091,10 @@
         <v>R_CL_GJU_E.ttl</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H20" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4702,19 +4109,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_E.ttl,error</v>
       </c>
       <c r="K20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D21" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4725,10 +4132,10 @@
         <v>R_CL_GJU_F.ttl</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H21" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4743,19 +4150,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_F.ttl,error</v>
       </c>
       <c r="K21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D22" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4766,10 +4173,10 @@
         <v>R_CL_JOJ_A.ttl</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H22" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4786,14 +4193,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D23" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4804,10 +4211,10 @@
         <v>R_CL_JOJ_B.ttl</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H23" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4822,19 +4229,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_B.ttl,error</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4845,10 +4252,10 @@
         <v>R_CL_JOJ_C.ttl</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H24" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4863,19 +4270,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_C.ttl,valid</v>
       </c>
       <c r="K24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D25" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4886,10 +4293,10 @@
         <v>R_CL_JOJ_D.ttl</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H25" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4904,19 +4311,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_D.ttl,error</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D26" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4927,10 +4334,10 @@
         <v>R_CL_JOJ_E.ttl</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H26" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4947,14 +4354,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4965,10 +4372,10 @@
         <v>R_CL_JOJ_F.ttl</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H27" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4985,14 +4392,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D28" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5003,10 +4410,10 @@
         <v>R_CL_UMC_A.ttl</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H28" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5023,14 +4430,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D29" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5041,10 +4448,10 @@
         <v>R_CL_UMC_B.ttl</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H29" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5061,14 +4468,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D30" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5079,10 +4486,10 @@
         <v>R_CL_UMC_C.ttl</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H30" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5099,14 +4506,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D31" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5117,10 +4524,10 @@
         <v>R_CL_XJZ_A.ttl</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H31" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5137,14 +4544,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D32" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5155,10 +4562,10 @@
         <v>R_CL_XJZ_B.ttl</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H32" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5175,14 +4582,14 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D33" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5193,10 +4600,10 @@
         <v>R_CL_XJZ_C.ttl</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H33" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5213,14 +4620,14 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D34" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5231,10 +4638,10 @@
         <v>R_CL_XJZ_D.ttl</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H34" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5251,14 +4658,14 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D35" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5269,10 +4676,10 @@
         <v>R_CL_XJZ_E.ttl</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H35" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5289,14 +4696,14 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D36" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5307,10 +4714,10 @@
         <v>R_CL_XJZ_F.ttl</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H36" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5327,14 +4734,14 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D37" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5345,10 +4752,10 @@
         <v>R_CL_ZGT_B01.ttl</v>
       </c>
       <c r="F37" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H37" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5363,7 +4770,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B01.ttl,error</v>
       </c>
       <c r="K37" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M37" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5372,14 +4779,14 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D38" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5390,10 +4797,10 @@
         <v>R_CL_ZGT_B02.ttl</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H38" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5408,7 +4815,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B02.ttl,error</v>
       </c>
       <c r="K38" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M38" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5417,14 +4824,14 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D39" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5435,10 +4842,10 @@
         <v>R_CL_ZGT_B03.ttl</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H39" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5453,7 +4860,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B03.ttl,error</v>
       </c>
       <c r="K39" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M39" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5462,14 +4869,14 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D40" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5480,10 +4887,10 @@
         <v>R_CL_ZGT_B04.ttl</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H40" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5498,7 +4905,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B04.ttl,error</v>
       </c>
       <c r="K40" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M40" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5507,14 +4914,14 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D41" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5525,10 +4932,10 @@
         <v>R_CL_ZGT_B05.ttl</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H41" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5543,7 +4950,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B05.ttl,valid</v>
       </c>
       <c r="K41" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M41" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5552,14 +4959,14 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D42" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5570,10 +4977,10 @@
         <v>R_CL_ZGT_B06.ttl</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H42" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5588,7 +4995,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B06.ttl,error</v>
       </c>
       <c r="K42" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M42" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5597,14 +5004,14 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D43" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5615,10 +5022,10 @@
         <v>R_CL_ZGT_B07.ttl</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H43" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5633,7 +5040,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B07.ttl,error</v>
       </c>
       <c r="K43" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M43" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5642,14 +5049,14 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D44" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5660,10 +5067,10 @@
         <v>R_CL_ZGT_B08.ttl</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H44" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5678,7 +5085,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B08.ttl,error</v>
       </c>
       <c r="K44" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M44" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5687,14 +5094,14 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D45" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5705,10 +5112,10 @@
         <v>R_CL_ZGT_B09.ttl</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H45" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5723,7 +5130,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B09.ttl,valid</v>
       </c>
       <c r="K45" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M45" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5732,14 +5139,14 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D46" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5750,10 +5157,10 @@
         <v>R_CL_ZGT_B10.ttl</v>
       </c>
       <c r="F46" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H46" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5768,7 +5175,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B10.ttl,valid</v>
       </c>
       <c r="K46" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M46" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5777,14 +5184,14 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D47" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5795,10 +5202,10 @@
         <v>R_CL_ZGT_B11.ttl</v>
       </c>
       <c r="F47" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H47" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5813,7 +5220,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B11.ttl,error</v>
       </c>
       <c r="K47" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M47" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5822,14 +5229,14 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D48" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5840,10 +5247,10 @@
         <v>R_CL_ZGT_B12.ttl</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H48" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5858,7 +5265,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B12.ttl,valid</v>
       </c>
       <c r="K48" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M48" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5867,14 +5274,14 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D49" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5885,10 +5292,10 @@
         <v>R_CL_ZGT_B13.ttl</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H49" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5903,7 +5310,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B13.ttl,error</v>
       </c>
       <c r="K49" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M49" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5912,14 +5319,14 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D50" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5930,10 +5337,10 @@
         <v>R_CL_ZGT_B14.ttl</v>
       </c>
       <c r="F50" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G50" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H50" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5948,7 +5355,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B14.ttl,error</v>
       </c>
       <c r="K50" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M50" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5957,14 +5364,14 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D51" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5975,10 +5382,10 @@
         <v>R_CL_ZGT_B15.ttl</v>
       </c>
       <c r="F51" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H51" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5993,7 +5400,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B15.ttl,error</v>
       </c>
       <c r="K51" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M51" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6002,14 +5409,14 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D52" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6020,10 +5427,10 @@
         <v>R_CL_ZGT_B16.ttl</v>
       </c>
       <c r="F52" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H52" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6038,7 +5445,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B16.ttl,error</v>
       </c>
       <c r="K52" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M52" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6047,14 +5454,14 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D53" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6065,10 +5472,10 @@
         <v>R_CL_ZGT_B17.ttl</v>
       </c>
       <c r="F53" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H53" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6083,7 +5490,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B17.ttl,error</v>
       </c>
       <c r="K53" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M53" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6092,14 +5499,14 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D54" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6110,10 +5517,10 @@
         <v>R_CL_ZGT_B18.ttl</v>
       </c>
       <c r="F54" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H54" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6128,7 +5535,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B18.ttl,valid</v>
       </c>
       <c r="K54" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M54" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6137,14 +5544,14 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D55" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6155,10 +5562,10 @@
         <v>R_CL_ZGT_B19.ttl</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H55" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6173,7 +5580,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B19.ttl,error</v>
       </c>
       <c r="K55" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M55" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6182,14 +5589,14 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C56" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D56" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6200,10 +5607,10 @@
         <v>R_CL_ZGT_N01.ttl</v>
       </c>
       <c r="F56" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G56" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H56" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6218,7 +5625,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N01.ttl,valid</v>
       </c>
       <c r="K56" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M56" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6227,14 +5634,14 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D57" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6245,10 +5652,10 @@
         <v>R_CL_ZGT_N02.ttl</v>
       </c>
       <c r="F57" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H57" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6263,7 +5670,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N02.ttl,error</v>
       </c>
       <c r="K57" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M57" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6272,14 +5679,14 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C58" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D58" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6290,10 +5697,10 @@
         <v>R_CL_ZGT_N03.ttl</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H58" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6308,7 +5715,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N03.ttl,error</v>
       </c>
       <c r="K58" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M58" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6317,14 +5724,14 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D59" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6335,10 +5742,10 @@
         <v>R_CL_ZGT_N04.ttl</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H59" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6353,7 +5760,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N04.ttl,error</v>
       </c>
       <c r="K59" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M59" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6362,14 +5769,14 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D60" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6380,10 +5787,10 @@
         <v>R_CL_ZGT_N05.ttl</v>
       </c>
       <c r="F60" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H60" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6398,7 +5805,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N05.ttl,valid</v>
       </c>
       <c r="K60" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M60" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6407,14 +5814,14 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C61" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D61" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6425,10 +5832,10 @@
         <v>R_CL_ZGT_N06.ttl</v>
       </c>
       <c r="F61" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G61" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H61" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6443,7 +5850,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N06.ttl,valid</v>
       </c>
       <c r="K61" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M61" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6452,14 +5859,14 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D62" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6470,10 +5877,10 @@
         <v>R_CL_ZGT_N07.ttl</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H62" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6488,7 +5895,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N07.ttl,error</v>
       </c>
       <c r="K62" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M62" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6497,14 +5904,14 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C63" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D63" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6515,10 +5922,10 @@
         <v>R_CL_ZGT_N08.ttl</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H63" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6533,7 +5940,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N08.ttl,valid</v>
       </c>
       <c r="K63" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M63" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6542,14 +5949,14 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D64" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6560,10 +5967,10 @@
         <v>R_CL_ZGT_N09.ttl</v>
       </c>
       <c r="F64" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H64" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6578,7 +5985,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N09.ttl,valid</v>
       </c>
       <c r="K64" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M64" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6587,14 +5994,14 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D65" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6605,10 +6012,10 @@
         <v>R_CL_ZGT_N10.ttl</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H65" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6623,7 +6030,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N10.ttl,valid</v>
       </c>
       <c r="K65" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M65" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6632,14 +6039,14 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C66" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D66" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6650,10 +6057,10 @@
         <v>R_CL_ZGT_N11.ttl</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H66" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6668,7 +6075,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N11.ttl,error</v>
       </c>
       <c r="K66" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M66" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6677,14 +6084,14 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D67" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6695,10 +6102,10 @@
         <v>R_CL_ZGT_N12.ttl</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H67" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6713,7 +6120,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N12.ttl,valid</v>
       </c>
       <c r="K67" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M67" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6722,14 +6129,14 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6740,10 +6147,10 @@
         <v>R_CL_ZGT_N13.ttl</v>
       </c>
       <c r="F68" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H68" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6758,7 +6165,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N13.ttl,valid</v>
       </c>
       <c r="K68" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M68" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6767,14 +6174,14 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D69" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6785,10 +6192,10 @@
         <v>R_CL_ZGT_N14.ttl</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H69" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6803,7 +6210,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N14.ttl,error</v>
       </c>
       <c r="K69" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M69" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6812,14 +6219,14 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6830,10 +6237,10 @@
         <v>R_CL_ZGT_N15.ttl</v>
       </c>
       <c r="F70" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H70" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6848,7 +6255,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N15.ttl,error</v>
       </c>
       <c r="K70" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M70" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6857,14 +6264,14 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D71" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6875,10 +6282,10 @@
         <v>R_CL_ZGT_N16.ttl</v>
       </c>
       <c r="F71" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H71" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6893,7 +6300,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N16.ttl,error</v>
       </c>
       <c r="K71" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M71" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6902,14 +6309,14 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D72" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6920,10 +6327,10 @@
         <v>R_CL_ZGT_N17.ttl</v>
       </c>
       <c r="F72" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H72" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6938,7 +6345,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N17.ttl,valid</v>
       </c>
       <c r="K72" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M72" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6947,14 +6354,14 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B73" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D73" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6965,10 +6372,10 @@
         <v>R_CL_ZGT_N18.ttl</v>
       </c>
       <c r="F73" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H73" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6983,7 +6390,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N18.ttl,valid</v>
       </c>
       <c r="K73" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M73" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6992,14 +6399,14 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D74" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7010,10 +6417,10 @@
         <v>R_CL_ZGT_N19.ttl</v>
       </c>
       <c r="F74" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H74" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7028,7 +6435,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N19.ttl,valid</v>
       </c>
       <c r="K74" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M74" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7037,14 +6444,14 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B75" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D75" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7055,10 +6462,10 @@
         <v>R_CL_ZGT_U01.ttl</v>
       </c>
       <c r="F75" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H75" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7073,7 +6480,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U01.ttl,valid</v>
       </c>
       <c r="K75" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M75" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7082,14 +6489,14 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C76" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D76" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7100,10 +6507,10 @@
         <v>R_CL_ZGT_U02.ttl</v>
       </c>
       <c r="F76" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G76" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H76" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7118,7 +6525,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U02.ttl,error</v>
       </c>
       <c r="K76" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M76" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7127,43 +6534,43 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C77" t="s">
+        <v>243</v>
+      </c>
+      <c r="D77" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U03</v>
+      </c>
+      <c r="E77" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_U03.ttl</v>
+      </c>
+      <c r="F77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I77" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U03.ttl,warning</v>
+      </c>
+      <c r="J77" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U03.ttl,error</v>
+      </c>
+      <c r="K77" t="s">
         <v>250</v>
-      </c>
-      <c r="D77" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_ZGT_U03</v>
-      </c>
-      <c r="E77" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGT_U03.ttl</v>
-      </c>
-      <c r="F77" t="s">
-        <v>168</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I77" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGT_U03.ttl,warning</v>
-      </c>
-      <c r="J77" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGT_U03.ttl,error</v>
-      </c>
-      <c r="K77" t="s">
-        <v>257</v>
       </c>
       <c r="M77" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7172,14 +6579,14 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C78" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D78" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7190,10 +6597,10 @@
         <v>R_CL_ZGT_U04.ttl</v>
       </c>
       <c r="F78" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G78" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H78" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7208,7 +6615,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U04.ttl,error</v>
       </c>
       <c r="K78" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M78" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7217,14 +6624,14 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B79" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D79" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7235,10 +6642,10 @@
         <v>R_CL_ZGT_U05.ttl</v>
       </c>
       <c r="F79" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H79" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7253,7 +6660,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U05.ttl,valid</v>
       </c>
       <c r="K79" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M79" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7262,14 +6669,14 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B80" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C80" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D80" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7280,10 +6687,10 @@
         <v>R_CL_ZGT_U06.ttl</v>
       </c>
       <c r="F80" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G80" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H80" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7298,7 +6705,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U06.ttl,valid</v>
       </c>
       <c r="K80" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M80" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7307,14 +6714,14 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B81" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C81" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D81" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7325,10 +6732,10 @@
         <v>R_CL_ZGT_U07.ttl</v>
       </c>
       <c r="F81" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G81" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H81" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7343,7 +6750,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U07.ttl,error</v>
       </c>
       <c r="K81" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M81" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7352,14 +6759,14 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B82" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D82" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7370,10 +6777,10 @@
         <v>R_CL_ZGT_U08.ttl</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G82" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H82" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7388,7 +6795,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U08.ttl,valid</v>
       </c>
       <c r="K82" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M82" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7397,14 +6804,14 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B83" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C83" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D83" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7415,10 +6822,10 @@
         <v>R_CL_ZGT_U09.ttl</v>
       </c>
       <c r="F83" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H83" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7433,7 +6840,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U09.ttl,valid</v>
       </c>
       <c r="K83" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M83" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7442,14 +6849,14 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B84" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D84" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7460,10 +6867,10 @@
         <v>R_CL_ZGT_U10.ttl</v>
       </c>
       <c r="F84" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G84" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H84" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7478,7 +6885,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U10.ttl,valid</v>
       </c>
       <c r="K84" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M84" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7487,14 +6894,14 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B85" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D85" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7505,10 +6912,10 @@
         <v>R_CL_ZGT_U11.ttl</v>
       </c>
       <c r="F85" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H85" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7523,7 +6930,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U11.ttl,error</v>
       </c>
       <c r="K85" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M85" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7532,14 +6939,14 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B86" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D86" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7550,10 +6957,10 @@
         <v>R_CL_ZGT_U12.ttl</v>
       </c>
       <c r="F86" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G86" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H86" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7568,7 +6975,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U12.ttl,valid</v>
       </c>
       <c r="K86" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M86" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7577,14 +6984,14 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B87" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D87" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7595,10 +7002,10 @@
         <v>R_CL_ZGT_U13.ttl</v>
       </c>
       <c r="F87" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G87" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H87" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7613,7 +7020,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U13.ttl,valid</v>
       </c>
       <c r="K87" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M87" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7622,14 +7029,14 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B88" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D88" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7640,10 +7047,10 @@
         <v>R_CL_ZGT_U14.ttl</v>
       </c>
       <c r="F88" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G88" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H88" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7658,7 +7065,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U14.ttl,error</v>
       </c>
       <c r="K88" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M88" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7667,14 +7074,14 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B89" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D89" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7685,10 +7092,10 @@
         <v>R_CL_ZGT_U15.ttl</v>
       </c>
       <c r="F89" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G89" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H89" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7703,7 +7110,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U15.ttl,error</v>
       </c>
       <c r="K89" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M89" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7712,14 +7119,14 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B90" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C90" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D90" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7730,10 +7137,10 @@
         <v>R_CL_ZGT_U16.ttl</v>
       </c>
       <c r="F90" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G90" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H90" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7748,7 +7155,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U16.ttl,error</v>
       </c>
       <c r="K90" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M90" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7757,14 +7164,14 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B91" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C91" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D91" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7775,10 +7182,10 @@
         <v>R_CL_ZGT_U17.ttl</v>
       </c>
       <c r="F91" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G91" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H91" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7793,7 +7200,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U17.ttl,valid</v>
       </c>
       <c r="K91" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M91" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7802,14 +7209,14 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B92" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C92" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D92" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7820,10 +7227,10 @@
         <v>R_CL_ZGT_U18.ttl</v>
       </c>
       <c r="F92" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H92" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7838,7 +7245,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U18.ttl,valid</v>
       </c>
       <c r="K92" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M92" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7847,14 +7254,14 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B93" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a base sortal stereotype (i.e., «subkind», «phase», «role», or «historicalRole») must specialize a unique class decorated with a ultimate sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», or «type»).</v>
+        <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C93" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D93" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7865,10 +7272,10 @@
         <v>R_CL_ZGT_U19.ttl</v>
       </c>
       <c r="F93" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G93" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H93" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7883,7 +7290,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U19.ttl,valid</v>
       </c>
       <c r="K93" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M93" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7892,250 +7299,505 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B94" s="16" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+        <v>341</v>
+      </c>
+      <c r="B94" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" s="17" t="str">
+        <v>87</v>
+      </c>
+      <c r="D94" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_YOK_A</v>
       </c>
-      <c r="E94" s="16" t="str">
+      <c r="E94" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_YOK_A.ttl</v>
       </c>
       <c r="F94" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
-      </c>
-      <c r="H94" s="16" t="str">
+        <v>89</v>
+      </c>
+      <c r="H94" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I94" s="16" t="str">
+      <c r="I94" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_YOK,R_CL_YOK_A.ttl,valid</v>
       </c>
-      <c r="J94" s="16" t="str">
+      <c r="J94" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_YOK,R_CL_YOK_A.ttl,valid</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B95" s="16" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+        <v>341</v>
+      </c>
+      <c r="B95" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="17" t="str">
+        <v>88</v>
+      </c>
+      <c r="D95" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_YOK_B</v>
       </c>
-      <c r="E95" s="16" t="str">
+      <c r="E95" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_YOK_B.ttl</v>
       </c>
       <c r="F95" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G95" t="s">
-        <v>95</v>
-      </c>
-      <c r="H95" s="16" t="str">
+        <v>89</v>
+      </c>
+      <c r="H95" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I95" s="16" t="str">
+      <c r="I95" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_YOK,R_CL_YOK_B.ttl,valid</v>
       </c>
-      <c r="J95" s="16" t="str">
+      <c r="J95" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_YOK,R_CL_YOK_B.ttl,valid</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B96" s="16" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+        <v>341</v>
+      </c>
+      <c r="B96" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="17" t="str">
+        <v>90</v>
+      </c>
+      <c r="D96" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_YOK_C</v>
       </c>
-      <c r="E96" s="16" t="str">
+      <c r="E96" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_YOK_C.ttl</v>
       </c>
       <c r="F96" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G96" t="s">
-        <v>95</v>
-      </c>
-      <c r="H96" s="16" t="str">
+        <v>89</v>
+      </c>
+      <c r="H96" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I96" s="16" t="str">
+      <c r="I96" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_YOK,R_CL_YOK_C.ttl,valid</v>
       </c>
-      <c r="J96" s="16" t="str">
+      <c r="J96" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_YOK,R_CL_YOK_C.ttl,valid</v>
       </c>
       <c r="K96" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B97" s="16" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+        <v>341</v>
+      </c>
+      <c r="B97" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
-      </c>
-      <c r="D97" s="17" t="str">
+        <v>96</v>
+      </c>
+      <c r="D97" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_YOK_D</v>
       </c>
-      <c r="E97" s="16" t="str">
+      <c r="E97" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_YOK_D.ttl</v>
       </c>
       <c r="F97" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G97" t="s">
-        <v>95</v>
-      </c>
-      <c r="H97" s="16" t="str">
+        <v>89</v>
+      </c>
+      <c r="H97" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I97" s="16" t="str">
+      <c r="I97" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_YOK,R_CL_YOK_D.ttl,valid</v>
       </c>
-      <c r="J97" s="16" t="str">
+      <c r="J97" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_YOK,R_CL_YOK_D.ttl,valid</v>
       </c>
       <c r="K97" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B98" s="16" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
+        <v>341</v>
+      </c>
+      <c r="B98" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
-      </c>
-      <c r="D98" s="17" t="str">
+        <v>97</v>
+      </c>
+      <c r="D98" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_YOK_E</v>
       </c>
-      <c r="E98" s="16" t="str">
+      <c r="E98" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_YOK_E.ttl</v>
       </c>
       <c r="F98" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G98" t="s">
-        <v>89</v>
-      </c>
-      <c r="H98" s="16" t="str">
+        <v>84</v>
+      </c>
+      <c r="H98" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I98" s="16" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_YOK,R_CL_YOK_E.ttl,warning</v>
-      </c>
-      <c r="J98" s="16" t="str">
+      <c r="I98" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_YOK,R_CL_YOK_E.ttl,error</v>
+      </c>
+      <c r="J98" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_YOK,R_CL_YOK_E.ttl,error</v>
       </c>
       <c r="K98" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B99" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
+      </c>
+      <c r="C99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_YOK_F</v>
+      </c>
+      <c r="E99" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_YOK_F.ttl</v>
+      </c>
+      <c r="F99" t="s">
+        <v>347</v>
+      </c>
+      <c r="G99" t="s">
+        <v>89</v>
+      </c>
+      <c r="H99" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I99" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_YOK,R_CL_YOK_F.ttl,valid</v>
+      </c>
+      <c r="J99" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_YOK,R_CL_YOK_F.ttl,valid</v>
+      </c>
+      <c r="K99" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" t="e">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D100" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>_</v>
+      </c>
+      <c r="E100" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>_.ttl</v>
+      </c>
+      <c r="F100" t="s">
+        <v>350</v>
+      </c>
+      <c r="G100" t="s">
+        <v>89</v>
+      </c>
+      <c r="H100" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I100" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,,_.ttl,valid</v>
+      </c>
+      <c r="J100" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,,_.ttl,valid</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" t="e">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D101" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>_</v>
+      </c>
+      <c r="E101" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>_.ttl</v>
+      </c>
+      <c r="F101" t="s">
         <v>351</v>
       </c>
-      <c r="B99" s="16" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin») must be abstract.</v>
-      </c>
-      <c r="C99" t="s">
-        <v>104</v>
-      </c>
-      <c r="D99" s="17" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_YOK_F</v>
-      </c>
-      <c r="E99" s="16" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_YOK_F.ttl</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="G101" t="s">
+        <v>89</v>
+      </c>
+      <c r="H101" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I101" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,,_.ttl,valid</v>
+      </c>
+      <c r="J101" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,,_.ttl,valid</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" t="e">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D102" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>_</v>
+      </c>
+      <c r="E102" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>_.ttl</v>
+      </c>
+      <c r="F102" t="s">
+        <v>352</v>
+      </c>
+      <c r="G102" t="s">
+        <v>89</v>
+      </c>
+      <c r="H102" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I102" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,,_.ttl,valid</v>
+      </c>
+      <c r="J102" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,,_.ttl,valid</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" t="e">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D103" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>_</v>
+      </c>
+      <c r="E103" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>_.ttl</v>
+      </c>
+      <c r="F103" t="s">
+        <v>353</v>
+      </c>
+      <c r="G103" t="s">
+        <v>89</v>
+      </c>
+      <c r="H103" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I103" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,,_.ttl,valid</v>
+      </c>
+      <c r="J103" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,,_.ttl,valid</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" t="e">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D104" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>_</v>
+      </c>
+      <c r="E104" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>_.ttl</v>
+      </c>
+      <c r="F104" t="s">
+        <v>354</v>
+      </c>
+      <c r="G104" t="s">
+        <v>84</v>
+      </c>
+      <c r="H104" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I104" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,,_.ttl,error</v>
+      </c>
+      <c r="J104" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,,_.ttl,error</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" t="e">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D105" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>_</v>
+      </c>
+      <c r="E105" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>_.ttl</v>
+      </c>
+      <c r="F105" t="s">
+        <v>356</v>
+      </c>
+      <c r="H105" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I105" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,,_.ttl,</v>
+      </c>
+      <c r="J105" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,,_.ttl,error</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" t="e">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D106" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>_</v>
+      </c>
+      <c r="E106" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>_.ttl</v>
+      </c>
+      <c r="F106" t="s">
+        <v>355</v>
+      </c>
+      <c r="H106" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I106" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,,_.ttl,</v>
+      </c>
+      <c r="J106" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,,_.ttl,error</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" t="e">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D107" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>_</v>
+      </c>
+      <c r="E107" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>_.ttl</v>
+      </c>
+      <c r="F107" t="s">
         <v>357</v>
       </c>
-      <c r="G99" t="s">
-        <v>95</v>
-      </c>
-      <c r="H99" s="16" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I99" s="16" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_YOK,R_CL_YOK_F.ttl,valid</v>
-      </c>
-      <c r="J99" s="16" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_YOK,R_CL_YOK_F.ttl,valid</v>
-      </c>
-      <c r="K99" t="s">
-        <v>359</v>
+      <c r="H107" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I107" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,,_.ttl,</v>
+      </c>
+      <c r="J107" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,,_.ttl,error</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E99">
+  <conditionalFormatting sqref="D2:E107">
     <cfRule type="duplicateValues" dxfId="4" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H250">
+  <conditionalFormatting sqref="G2:H252">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
@@ -8147,7 +7809,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H99" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H107" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
       <formula1>"Valid,Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EDDB2A-989F-4734-8DD3-8F94E72DBAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239DBF3-624D-406F-A322-6A377CD9480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="371">
   <si>
     <t>Description</t>
   </si>
@@ -49,30 +49,9 @@
     <t>Every class decorated with the stereotype «enumeration» must not have attributes.</t>
   </si>
   <si>
-    <t>Every class decorated with a stereotype «kind» must have the tagged value "restrictedTo" set to an array containing the value [ "functional-complex" ].</t>
-  </si>
-  <si>
-    <t>Every class decorated with a stereotype «collective» must have the tagged value "restrictedTo" set to an array containing the value [ "collective" ].</t>
-  </si>
-  <si>
-    <t>Every class decorated with a stereotype «quantity» must have the tagged value "restrictedTo" set to an array containing the value [ "quantity" ].</t>
-  </si>
-  <si>
-    <t>Every class decorated with a stereotype «relator» must have the tagged value "restrictedTo" set to an array containing the value [ "relator" ].</t>
-  </si>
-  <si>
     <t>Every class decorated with a stereotype «mode» must have the tagged value "restrictedTo" set to an array containing one of or both the values [ "intrinsic-mode", "extrinsic-mode" ].</t>
   </si>
   <si>
-    <t>Every class decorated with a stereotype «quality» must have the tagged value "restrictedTo" set to an array containing the value [ "quality" ].</t>
-  </si>
-  <si>
-    <t>Every class decorated with a stereotype «event» must have the tagged value "restrictedTo" set to an array containing the value [ "event" ].</t>
-  </si>
-  <si>
-    <t>Every class decorated with a stereotype «situation» must have the tagged value "restrictedTo" set to an array containing the value [ "situation" ].</t>
-  </si>
-  <si>
     <t>Every class decorated with a stereotype «type» must have the have the tagged "order" set to a number greater than "1" or set to "*".</t>
   </si>
   <si>
@@ -115,9 +94,6 @@
     <t>Every class representing a powertype (i.e., whose tagged value "isPowertype" is set to "true") must only have types as instances (i.e., its tagged value "restrictedTo" must be set to [ "type" ]).</t>
   </si>
   <si>
-    <t>Every class representing a powertype (i.e., whose tagged value "isPowertype" is set to "true") must be decorated with a rigid stereotype (i.e., either «category», «type», or «subkind»).</t>
-  </si>
-  <si>
     <t>Every class decorated with a «phase» must be part of a disjoint and complete generalization set including only classes decorated with «phase» as the generalizations' specific classes.</t>
   </si>
   <si>
@@ -130,9 +106,6 @@
     <t>Generalization</t>
   </si>
   <si>
-    <t>No generalization can connect a general class decorated with a sortal stereotype (i.e., «kind», «collective», «quantity», «relator», «mode», «quality», «type», «subkind», «phase», «role», or «historicalRole») to a specific class decorated with a non-sortal stereotype (i.e., «category», «mixin», «phaseMixin», «roleMixin», or «historicalRoleMixin»).</t>
-  </si>
-  <si>
     <t>No generalization can connect a general class decorated with «event» to a specific class decorated with a different stereotype.</t>
   </si>
   <si>
@@ -148,9 +121,6 @@
     <t>No generalization can connect a general class decorated with «abstract» to a specific class that is not decorated with some abstract stereotype (i.e., «abstract», «datatype», or «enumeration»).</t>
   </si>
   <si>
-    <t>No generalization can connect a general class decorated with an anti-rigid stereotype (i.e., «phase», «phaseMixin», «role», «roleMixin», «historicalRole», or «historicalRoleMixin») to a specific class decorated with a rigid or semi-rigid stereotype (i.e., «category», «mixin», «kind», «collective», «quantity», «relator», «mode», «quality», or «subkind»).</t>
-  </si>
-  <si>
     <t>No generalization can connect a general class to an specific class where the specific class has in its tagged value "restrictedTo" values that are not present in the same tagged value of the general class.</t>
   </si>
   <si>
@@ -850,27 +820,9 @@
     <t>QJC</t>
   </si>
   <si>
-    <t>DKO</t>
-  </si>
-  <si>
-    <t>GOV</t>
-  </si>
-  <si>
     <t>ZEF</t>
   </si>
   <si>
-    <t>FHG</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>CLD</t>
-  </si>
-  <si>
-    <t>DED</t>
-  </si>
-  <si>
     <t>PSQ</t>
   </si>
   <si>
@@ -1111,18 +1063,27 @@
     <t>Type with not-demanded and demanded tagged value</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Stereotypes</t>
   </si>
   <si>
+    <t>BASE SORTAL</t>
+  </si>
+  <si>
+    <t>ULTIMATE SORTAL</t>
+  </si>
+  <si>
+    <t>NON-SORTAL</t>
+  </si>
+  <si>
     <t>ULTIMATE SORTALs do not specialize ULTIMATE SORTALs</t>
   </si>
   <si>
     <t>No generalization can connect a general class decorated with a ULTIMATE SORTAL stereotype  to a specific class decorated with a ULTIMATE SORTAL stereotype.</t>
   </si>
   <si>
+    <t>SORTAL</t>
+  </si>
+  <si>
     <t>historicalRole, phase, role, subkind</t>
   </si>
   <si>
@@ -1147,25 +1108,46 @@
     <t>Every class decorated with a non-sortal stereotype must be abstract.</t>
   </si>
   <si>
-    <t>BASE SORTAL LIST</t>
-  </si>
-  <si>
-    <t>ULTIMATE SORTAL LIST</t>
-  </si>
-  <si>
-    <t>NON-SORTAL LIST</t>
-  </si>
-  <si>
-    <t>SORTAL LIST</t>
-  </si>
-  <si>
-    <t>ABSTRACT LIST</t>
+    <t>ABSTRACT</t>
   </si>
   <si>
     <t>abstract, datatype, enumeration</t>
   </si>
   <si>
     <t>Every class decorated with an stereotype in the ABSTRACT LIST must have the tagged value "restrictedTo" set to an array containing the value [ "abstract" ].</t>
+  </si>
+  <si>
+    <t>No generalization can connect a general class decorated with a sortal stereotype to a specific class decorated with a non-sortal stereotype.</t>
+  </si>
+  <si>
+    <t>Stereotype List</t>
+  </si>
+  <si>
+    <t>RIGID</t>
+  </si>
+  <si>
+    <t>ANTI-RIGID</t>
+  </si>
+  <si>
+    <t>SEMI-RIGID</t>
+  </si>
+  <si>
+    <t>historicalRole, historicalRoleMixin, phase, phaseMixin, role, roleMixin</t>
+  </si>
+  <si>
+    <t>Every class representing a powertype (i.e., whose tagged value "isPowertype" is set to "true") must be decorated with a RIGID stereotype (i.e., either «category», «type», or «subkind»).</t>
+  </si>
+  <si>
+    <t>No generalization can connect a general class decorated with an ANTI-RIGID stereotype to a specific class decorated with a RIGID or SEMI-RIGID stereotype.</t>
+  </si>
+  <si>
+    <t>category, collective, kind, mode, quality, quantity, relator, subkind</t>
+  </si>
+  <si>
+    <t>mixin</t>
+  </si>
+  <si>
+    <t>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</t>
   </si>
 </sst>
 </file>
@@ -1360,8 +1342,33 @@
   <dxfs count="25">
     <dxf>
       <font>
-        <b/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1405,33 +1412,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1633,11 +1615,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D77" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:D77" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
-    <sortCondition ref="A2:A77"/>
-    <sortCondition ref="D2:D77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D71" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:D71" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
+    <sortCondition ref="A2:A71"/>
+    <sortCondition ref="D2:D71"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="22"/>
@@ -1663,10 +1645,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}" name="Table3" displayName="Table3" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}" name="Table3" displayName="Table3" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D8098905-7B35-4419-9FF0-ABB475A5357D}" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D8098905-7B35-4419-9FF0-ABB475A5357D}" name="Stereotype List" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F12CB8CE-6969-4083-9729-E8A90699DB57}" name="Stereotypes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2008,12 +1993,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G95" sqref="G95"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2028,22 +2013,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I1" s="16"/>
     </row>
@@ -2052,20 +2037,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_EDA</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -2074,20 +2059,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_AIB</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I3" s="16"/>
     </row>
@@ -2096,20 +2081,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_PPZ</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2117,20 +2102,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_CMS</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2138,20 +2123,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_NBG</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2159,14 +2144,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_LAX</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7"/>
@@ -2176,14 +2161,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_ZGT</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2191,14 +2176,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_ASZ</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2206,14 +2191,14 @@
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_YOK</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2221,17 +2206,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_QJC</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2239,11 +2224,14 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="17" t="s">
-        <v>10</v>
+        <v>261</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
+        <v>R_CL_ZEF</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2251,11 +2239,14 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="17" t="s">
-        <v>4</v>
+        <v>262</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
+        <v>R_CL_PSQ</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2263,11 +2254,14 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="18" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
+        <v>R_CL_SQU</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2275,11 +2269,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="17" t="s">
-        <v>9</v>
+        <v>264</v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
+        <v>R_CL_ANJ</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2287,11 +2284,14 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="17" t="s">
-        <v>6</v>
+        <v>246</v>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
+        <v>R_CL_XJZ</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2299,11 +2299,14 @@
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="17" t="s">
-        <v>7</v>
+        <v>247</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
+        <v>R_CL_JOJ</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2311,11 +2314,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="17" t="s">
-        <v>11</v>
+        <v>255</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
+        <v>R_CL_GJU</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2323,14 +2329,14 @@
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_PSQ</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
+        <v>R_CL_BWZ</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2338,14 +2344,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_SQU</v>
+        <v>R_CL_JMQ</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2353,14 +2359,14 @@
         <v>1</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ANJ</v>
+        <v>R_CL_EMV</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>376</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2368,14 +2374,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_XJZ</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>3</v>
+        <v>R_CL_QOV</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2383,14 +2389,14 @@
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JOJ</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>114</v>
+        <v>R_CL_JFW</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2398,14 +2404,14 @@
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GJU</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>100</v>
+        <v>R_CL_UTL</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2413,14 +2419,14 @@
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BWZ</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>2</v>
+        <v>R_CL_VPE</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2428,14 +2434,14 @@
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JMQ</v>
+        <v>R_CL_BFO</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2443,14 +2449,14 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_EMV</v>
+        <v>R_CL_VOQ</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2458,14 +2464,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_QOV</v>
+        <v>R_CL_GAZ</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2473,14 +2479,14 @@
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JFW</v>
+        <v>R_CL_BQI</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2488,14 +2494,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_UTL</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>18</v>
+        <v>R_CL_UMC</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2503,14 +2509,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_VPE</v>
+        <v>R_CL_OEV</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2518,14 +2524,14 @@
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BFO</v>
+        <v>R_CL_EGT</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2533,431 +2539,431 @@
         <v>1</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_VOQ</v>
+        <v>R_CL_ANY</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GAZ</v>
+        <v>R_GE_XRS</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BQI</v>
+        <v>R_GE_MDR</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_UMC</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>109</v>
+        <v>R_GE_BAK</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_OEV</v>
+        <v>R_GE_JLW</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_EGT</v>
+        <v>R_GE_VEZ</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ANY</v>
+        <v>R_GE_IJM</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_XRS</v>
+        <v>R_GE_UXR</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_MDR</v>
+        <v>R_GE_HGQ</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>39</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_BAK</v>
+        <v>R_GE_EPG</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_JLW</v>
+        <v>R_GE_MXI</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>35</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_VEZ</v>
+        <v>R_GE_HPZ</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_IJM</v>
+        <v>R_GS_LHD</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_UXR</v>
+        <v>R_GS_PQP</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_HGQ</v>
+        <v>R_GS_UTW</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_EPG</v>
+        <v>R_GS_YKW</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>361</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_MXI</v>
+        <v>R_GS_XXB</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_HPZ</v>
+        <v>R_GS_ZMQ</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_LHD</v>
+        <v>R_PR_BWY</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_PQP</v>
+        <v>R_PR_LCI</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_UTW</v>
+        <v>R_RE_AZO</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_YKW</v>
+        <v>R_RE_ECP</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_XXB</v>
+        <v>R_RE_FIX</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_ZMQ</v>
+        <v>R_RE_HGG</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_PR_BWY</v>
+        <v>R_RE_VDQ</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_PR_LCI</v>
+        <v>R_RE_VMI</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_AZO</v>
+        <v>R_RE_ALR</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_ECP</v>
+        <v>R_RE_SEI</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_FIX</v>
+        <v>R_RE_EAQ</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>46</v>
@@ -2965,274 +2971,184 @@
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_HGG</v>
+        <v>R_RE_CDJ</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_VDQ</v>
+        <v>R_RE_RON</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_VMI</v>
+        <v>R_RE_KZC</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_ALR</v>
+        <v>R_RE_NTY</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_SEI</v>
+        <v>R_RE_UCH</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_EAQ</v>
+        <v>R_RE_LQF</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_CDJ</v>
+        <v>R_RE_GZN</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_RON</v>
+        <v>R_RE_KPG</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_KZC</v>
+        <v>R_RE_GZF</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_NTY</v>
+        <v>R_RE_JND</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_UCH</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_LQF</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_GZN</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_KPG</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_GZF</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_JND</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="11" t="s">
-        <v>360</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="11" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B77">
-    <cfRule type="duplicateValues" dxfId="7" priority="24"/>
+  <conditionalFormatting sqref="B2:B71">
+    <cfRule type="duplicateValues" dxfId="2" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C77">
-    <cfRule type="duplicateValues" dxfId="6" priority="26"/>
+  <conditionalFormatting sqref="C2:C71">
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D77">
-    <cfRule type="duplicateValues" dxfId="5" priority="22"/>
+  <conditionalFormatting sqref="D2:D71">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3245,10 +3161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DAEACC-7D52-42E2-9F3D-7DBF00284689}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,50 +3175,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3342,49 +3282,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D2" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3395,10 +3335,10 @@
         <v>R_CL_AIB_A.ttl</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H2" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3415,14 +3355,14 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D3" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3433,10 +3373,10 @@
         <v>R_CL_AIB_B.ttl</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H3" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3453,14 +3393,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D4" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3471,10 +3411,10 @@
         <v>R_CL_AIB_C.ttl</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H4" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3491,14 +3431,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D5" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3509,10 +3449,10 @@
         <v>R_CL_AIB_D.ttl</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H5" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3529,14 +3469,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D6" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3547,10 +3487,10 @@
         <v>R_CL_BWZ_A.ttl</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H6" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3567,14 +3507,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D7" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3585,10 +3525,10 @@
         <v>R_CL_BWZ_B.ttl</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H7" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3605,14 +3545,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D8" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3623,10 +3563,10 @@
         <v>R_CL_BWZ_C.ttl</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H8" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3643,14 +3583,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D9" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3661,10 +3601,10 @@
         <v>R_CL_BWZ_D.ttl</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H9" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3679,19 +3619,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_D.ttl,error</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3702,10 +3642,10 @@
         <v>R_CL_BWZ_E.ttl</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H10" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3720,19 +3660,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_E.ttl,valid</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D11" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3743,37 +3683,37 @@
         <v>R_CL_BWZ_F.ttl</v>
       </c>
       <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I11" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_BWZ,R_CL_BWZ_F.ttl,error</v>
+      </c>
+      <c r="J11" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_BWZ,R_CL_BWZ_F.ttl,error</v>
+      </c>
+      <c r="K11" t="s">
         <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I11" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_BWZ,R_CL_BWZ_F.ttl,error</v>
-      </c>
-      <c r="J11" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_BWZ,R_CL_BWZ_F.ttl,error</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3784,10 +3724,10 @@
         <v>R_CL_EDA_A.ttl</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H12" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3804,14 +3744,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3822,10 +3762,10 @@
         <v>R_CL_EDA_B.ttl</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3842,14 +3782,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D14" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3860,10 +3800,10 @@
         <v>R_CL_EDA_C.ttl</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H14" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3880,14 +3820,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D15" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3898,10 +3838,10 @@
         <v>R_CL_EDA_D.ttl</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H15" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3918,14 +3858,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D16" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3936,10 +3876,10 @@
         <v>R_CL_GJU_A.ttl</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H16" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3956,14 +3896,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D17" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3974,10 +3914,10 @@
         <v>R_CL_GJU_B.ttl</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H17" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3994,14 +3934,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D18" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4012,10 +3952,10 @@
         <v>R_CL_GJU_C.ttl</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H18" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4032,14 +3972,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4050,10 +3990,10 @@
         <v>R_CL_GJU_D.ttl</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H19" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4068,19 +4008,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_D.ttl,error</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D20" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4091,10 +4031,10 @@
         <v>R_CL_GJU_E.ttl</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H20" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4109,19 +4049,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_E.ttl,error</v>
       </c>
       <c r="K20" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D21" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4132,37 +4072,37 @@
         <v>R_CL_GJU_F.ttl</v>
       </c>
       <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_GJU,R_CL_GJU_F.ttl,error</v>
+      </c>
+      <c r="J21" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_GJU,R_CL_GJU_F.ttl,error</v>
+      </c>
+      <c r="K21" t="s">
         <v>95</v>
-      </c>
-      <c r="G21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I21" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_GJU,R_CL_GJU_F.ttl,error</v>
-      </c>
-      <c r="J21" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_GJU,R_CL_GJU_F.ttl,error</v>
-      </c>
-      <c r="K21" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D22" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4173,10 +4113,10 @@
         <v>R_CL_JOJ_A.ttl</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H22" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4193,14 +4133,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D23" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4211,10 +4151,10 @@
         <v>R_CL_JOJ_B.ttl</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H23" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4229,19 +4169,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_B.ttl,error</v>
       </c>
       <c r="K23" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4252,10 +4192,10 @@
         <v>R_CL_JOJ_C.ttl</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H24" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4270,19 +4210,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_C.ttl,valid</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D25" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4293,10 +4233,10 @@
         <v>R_CL_JOJ_D.ttl</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H25" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4311,19 +4251,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_D.ttl,error</v>
       </c>
       <c r="K25" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D26" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4334,10 +4274,10 @@
         <v>R_CL_JOJ_E.ttl</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H26" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4354,14 +4294,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4372,10 +4312,10 @@
         <v>R_CL_JOJ_F.ttl</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H27" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4392,14 +4332,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D28" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4410,10 +4350,10 @@
         <v>R_CL_UMC_A.ttl</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H28" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4430,14 +4370,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D29" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4448,10 +4388,10 @@
         <v>R_CL_UMC_B.ttl</v>
       </c>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H29" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4468,14 +4408,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D30" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4486,10 +4426,10 @@
         <v>R_CL_UMC_C.ttl</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H30" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4506,14 +4446,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D31" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4524,10 +4464,10 @@
         <v>R_CL_XJZ_A.ttl</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H31" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4544,14 +4484,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D32" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4562,10 +4502,10 @@
         <v>R_CL_XJZ_B.ttl</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H32" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4582,14 +4522,14 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D33" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4600,10 +4540,10 @@
         <v>R_CL_XJZ_C.ttl</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H33" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4620,14 +4560,14 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D34" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4638,10 +4578,10 @@
         <v>R_CL_XJZ_D.ttl</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H34" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4658,14 +4598,14 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D35" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4676,10 +4616,10 @@
         <v>R_CL_XJZ_E.ttl</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H35" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4696,14 +4636,14 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D36" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4714,10 +4654,10 @@
         <v>R_CL_XJZ_F.ttl</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H36" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4734,14 +4674,14 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D37" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4752,10 +4692,10 @@
         <v>R_CL_ZGT_B01.ttl</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H37" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4770,7 +4710,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B01.ttl,error</v>
       </c>
       <c r="K37" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M37" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4779,14 +4719,14 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C38" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D38" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4797,10 +4737,10 @@
         <v>R_CL_ZGT_B02.ttl</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H38" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4815,7 +4755,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B02.ttl,error</v>
       </c>
       <c r="K38" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M38" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4824,14 +4764,14 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C39" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D39" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4842,10 +4782,10 @@
         <v>R_CL_ZGT_B03.ttl</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H39" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4860,7 +4800,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B03.ttl,error</v>
       </c>
       <c r="K39" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M39" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4869,14 +4809,14 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C40" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D40" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4887,10 +4827,10 @@
         <v>R_CL_ZGT_B04.ttl</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H40" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4905,7 +4845,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B04.ttl,error</v>
       </c>
       <c r="K40" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M40" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4914,14 +4854,14 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D41" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4932,10 +4872,10 @@
         <v>R_CL_ZGT_B05.ttl</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H41" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4950,7 +4890,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B05.ttl,valid</v>
       </c>
       <c r="K41" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M41" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4959,14 +4899,14 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D42" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4977,10 +4917,10 @@
         <v>R_CL_ZGT_B06.ttl</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H42" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4995,7 +4935,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B06.ttl,error</v>
       </c>
       <c r="K42" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M42" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5004,14 +4944,14 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D43" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5022,10 +4962,10 @@
         <v>R_CL_ZGT_B07.ttl</v>
       </c>
       <c r="F43" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H43" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5040,7 +4980,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B07.ttl,error</v>
       </c>
       <c r="K43" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M43" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5049,14 +4989,14 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D44" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5067,10 +5007,10 @@
         <v>R_CL_ZGT_B08.ttl</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H44" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5085,7 +5025,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B08.ttl,error</v>
       </c>
       <c r="K44" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M44" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5094,14 +5034,14 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D45" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5112,10 +5052,10 @@
         <v>R_CL_ZGT_B09.ttl</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H45" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5130,7 +5070,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B09.ttl,valid</v>
       </c>
       <c r="K45" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M45" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5139,14 +5079,14 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D46" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5157,10 +5097,10 @@
         <v>R_CL_ZGT_B10.ttl</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H46" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5175,7 +5115,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B10.ttl,valid</v>
       </c>
       <c r="K46" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M46" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5184,14 +5124,14 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D47" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5202,10 +5142,10 @@
         <v>R_CL_ZGT_B11.ttl</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H47" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5220,7 +5160,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B11.ttl,error</v>
       </c>
       <c r="K47" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M47" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5229,14 +5169,14 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D48" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5247,10 +5187,10 @@
         <v>R_CL_ZGT_B12.ttl</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H48" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5265,7 +5205,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B12.ttl,valid</v>
       </c>
       <c r="K48" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M48" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5274,14 +5214,14 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D49" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5292,10 +5232,10 @@
         <v>R_CL_ZGT_B13.ttl</v>
       </c>
       <c r="F49" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H49" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5310,7 +5250,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B13.ttl,error</v>
       </c>
       <c r="K49" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M49" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5319,14 +5259,14 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D50" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5337,10 +5277,10 @@
         <v>R_CL_ZGT_B14.ttl</v>
       </c>
       <c r="F50" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H50" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5355,7 +5295,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B14.ttl,error</v>
       </c>
       <c r="K50" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M50" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5364,14 +5304,14 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D51" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5382,10 +5322,10 @@
         <v>R_CL_ZGT_B15.ttl</v>
       </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H51" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5400,7 +5340,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B15.ttl,error</v>
       </c>
       <c r="K51" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M51" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5409,14 +5349,14 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D52" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5427,10 +5367,10 @@
         <v>R_CL_ZGT_B16.ttl</v>
       </c>
       <c r="F52" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H52" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5445,7 +5385,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B16.ttl,error</v>
       </c>
       <c r="K52" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M52" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5454,14 +5394,14 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D53" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5472,10 +5412,10 @@
         <v>R_CL_ZGT_B17.ttl</v>
       </c>
       <c r="F53" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H53" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5490,7 +5430,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B17.ttl,error</v>
       </c>
       <c r="K53" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M53" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5499,14 +5439,14 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D54" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5517,10 +5457,10 @@
         <v>R_CL_ZGT_B18.ttl</v>
       </c>
       <c r="F54" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G54" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H54" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5535,7 +5475,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B18.ttl,valid</v>
       </c>
       <c r="K54" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M54" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5544,14 +5484,14 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D55" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5562,10 +5502,10 @@
         <v>R_CL_ZGT_B19.ttl</v>
       </c>
       <c r="F55" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H55" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5580,7 +5520,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B19.ttl,error</v>
       </c>
       <c r="K55" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M55" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5589,14 +5529,14 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D56" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5607,10 +5547,10 @@
         <v>R_CL_ZGT_N01.ttl</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G56" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H56" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5625,7 +5565,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N01.ttl,valid</v>
       </c>
       <c r="K56" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M56" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5634,14 +5574,14 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D57" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5652,10 +5592,10 @@
         <v>R_CL_ZGT_N02.ttl</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H57" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5670,7 +5610,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N02.ttl,error</v>
       </c>
       <c r="K57" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M57" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5679,14 +5619,14 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D58" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5697,10 +5637,10 @@
         <v>R_CL_ZGT_N03.ttl</v>
       </c>
       <c r="F58" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H58" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5715,7 +5655,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N03.ttl,error</v>
       </c>
       <c r="K58" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M58" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5724,14 +5664,14 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D59" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5742,10 +5682,10 @@
         <v>R_CL_ZGT_N04.ttl</v>
       </c>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H59" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5760,7 +5700,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N04.ttl,error</v>
       </c>
       <c r="K59" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M59" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5769,14 +5709,14 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D60" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5787,10 +5727,10 @@
         <v>R_CL_ZGT_N05.ttl</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H60" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5805,7 +5745,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N05.ttl,valid</v>
       </c>
       <c r="K60" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M60" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5814,14 +5754,14 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C61" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D61" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5832,10 +5772,10 @@
         <v>R_CL_ZGT_N06.ttl</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H61" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5850,7 +5790,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N06.ttl,valid</v>
       </c>
       <c r="K61" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M61" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5859,14 +5799,14 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D62" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5877,10 +5817,10 @@
         <v>R_CL_ZGT_N07.ttl</v>
       </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H62" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5895,7 +5835,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N07.ttl,error</v>
       </c>
       <c r="K62" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M62" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5904,14 +5844,14 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D63" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5922,10 +5862,10 @@
         <v>R_CL_ZGT_N08.ttl</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H63" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5940,7 +5880,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N08.ttl,valid</v>
       </c>
       <c r="K63" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M63" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5949,14 +5889,14 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D64" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5967,10 +5907,10 @@
         <v>R_CL_ZGT_N09.ttl</v>
       </c>
       <c r="F64" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H64" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5985,7 +5925,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N09.ttl,valid</v>
       </c>
       <c r="K64" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M64" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5994,14 +5934,14 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D65" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6012,10 +5952,10 @@
         <v>R_CL_ZGT_N10.ttl</v>
       </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H65" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6030,7 +5970,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N10.ttl,valid</v>
       </c>
       <c r="K65" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M65" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6039,14 +5979,14 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D66" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6057,10 +5997,10 @@
         <v>R_CL_ZGT_N11.ttl</v>
       </c>
       <c r="F66" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H66" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6075,7 +6015,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N11.ttl,error</v>
       </c>
       <c r="K66" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M66" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6084,14 +6024,14 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D67" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6102,10 +6042,10 @@
         <v>R_CL_ZGT_N12.ttl</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H67" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6120,7 +6060,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N12.ttl,valid</v>
       </c>
       <c r="K67" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M67" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6129,14 +6069,14 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6147,10 +6087,10 @@
         <v>R_CL_ZGT_N13.ttl</v>
       </c>
       <c r="F68" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H68" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6165,7 +6105,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N13.ttl,valid</v>
       </c>
       <c r="K68" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M68" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6174,14 +6114,14 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D69" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6192,10 +6132,10 @@
         <v>R_CL_ZGT_N14.ttl</v>
       </c>
       <c r="F69" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H69" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6210,7 +6150,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N14.ttl,error</v>
       </c>
       <c r="K69" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M69" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6219,14 +6159,14 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6237,10 +6177,10 @@
         <v>R_CL_ZGT_N15.ttl</v>
       </c>
       <c r="F70" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H70" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6255,7 +6195,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N15.ttl,error</v>
       </c>
       <c r="K70" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M70" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6264,14 +6204,14 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D71" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6282,10 +6222,10 @@
         <v>R_CL_ZGT_N16.ttl</v>
       </c>
       <c r="F71" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H71" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6300,7 +6240,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N16.ttl,error</v>
       </c>
       <c r="K71" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M71" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6309,14 +6249,14 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D72" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6327,10 +6267,10 @@
         <v>R_CL_ZGT_N17.ttl</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H72" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6345,7 +6285,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N17.ttl,valid</v>
       </c>
       <c r="K72" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M72" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6354,14 +6294,14 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B73" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D73" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6372,10 +6312,10 @@
         <v>R_CL_ZGT_N18.ttl</v>
       </c>
       <c r="F73" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H73" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6390,7 +6330,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N18.ttl,valid</v>
       </c>
       <c r="K73" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M73" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6399,14 +6339,14 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D74" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6417,10 +6357,10 @@
         <v>R_CL_ZGT_N19.ttl</v>
       </c>
       <c r="F74" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G74" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H74" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6435,7 +6375,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N19.ttl,valid</v>
       </c>
       <c r="K74" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M74" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6444,14 +6384,14 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B75" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D75" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6462,10 +6402,10 @@
         <v>R_CL_ZGT_U01.ttl</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H75" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6480,7 +6420,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U01.ttl,valid</v>
       </c>
       <c r="K75" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M75" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6489,14 +6429,14 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D76" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6507,10 +6447,10 @@
         <v>R_CL_ZGT_U02.ttl</v>
       </c>
       <c r="F76" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G76" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H76" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6525,7 +6465,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U02.ttl,error</v>
       </c>
       <c r="K76" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M76" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6534,14 +6474,14 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D77" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6552,10 +6492,10 @@
         <v>R_CL_ZGT_U03.ttl</v>
       </c>
       <c r="F77" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G77" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H77" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6570,7 +6510,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U03.ttl,error</v>
       </c>
       <c r="K77" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M77" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6579,14 +6519,14 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C78" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D78" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6597,10 +6537,10 @@
         <v>R_CL_ZGT_U04.ttl</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H78" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6615,7 +6555,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U04.ttl,error</v>
       </c>
       <c r="K78" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M78" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6624,14 +6564,14 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B79" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D79" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6642,10 +6582,10 @@
         <v>R_CL_ZGT_U05.ttl</v>
       </c>
       <c r="F79" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G79" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H79" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6660,7 +6600,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U05.ttl,valid</v>
       </c>
       <c r="K79" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M79" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6669,14 +6609,14 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B80" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C80" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D80" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6687,10 +6627,10 @@
         <v>R_CL_ZGT_U06.ttl</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G80" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H80" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6705,7 +6645,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U06.ttl,valid</v>
       </c>
       <c r="K80" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M80" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6714,14 +6654,14 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B81" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C81" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D81" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6732,10 +6672,10 @@
         <v>R_CL_ZGT_U07.ttl</v>
       </c>
       <c r="F81" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G81" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H81" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6750,7 +6690,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U07.ttl,error</v>
       </c>
       <c r="K81" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M81" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6759,14 +6699,14 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B82" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C82" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D82" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6777,10 +6717,10 @@
         <v>R_CL_ZGT_U08.ttl</v>
       </c>
       <c r="F82" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G82" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H82" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6795,7 +6735,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U08.ttl,valid</v>
       </c>
       <c r="K82" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M82" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6804,14 +6744,14 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B83" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D83" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6822,10 +6762,10 @@
         <v>R_CL_ZGT_U09.ttl</v>
       </c>
       <c r="F83" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G83" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H83" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6840,7 +6780,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U09.ttl,valid</v>
       </c>
       <c r="K83" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M83" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6849,14 +6789,14 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B84" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D84" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6867,10 +6807,10 @@
         <v>R_CL_ZGT_U10.ttl</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G84" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H84" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6885,7 +6825,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U10.ttl,valid</v>
       </c>
       <c r="K84" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M84" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6894,14 +6834,14 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B85" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D85" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6912,10 +6852,10 @@
         <v>R_CL_ZGT_U11.ttl</v>
       </c>
       <c r="F85" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G85" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H85" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6930,7 +6870,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U11.ttl,error</v>
       </c>
       <c r="K85" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M85" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6939,14 +6879,14 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B86" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D86" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6957,10 +6897,10 @@
         <v>R_CL_ZGT_U12.ttl</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G86" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H86" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6975,7 +6915,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U12.ttl,valid</v>
       </c>
       <c r="K86" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M86" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6984,14 +6924,14 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B87" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D87" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7002,10 +6942,10 @@
         <v>R_CL_ZGT_U13.ttl</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G87" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H87" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7020,7 +6960,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U13.ttl,valid</v>
       </c>
       <c r="K87" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M87" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7029,14 +6969,14 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B88" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D88" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7047,10 +6987,10 @@
         <v>R_CL_ZGT_U14.ttl</v>
       </c>
       <c r="F88" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G88" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H88" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7065,7 +7005,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U14.ttl,error</v>
       </c>
       <c r="K88" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M88" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7074,14 +7014,14 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B89" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D89" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7092,10 +7032,10 @@
         <v>R_CL_ZGT_U15.ttl</v>
       </c>
       <c r="F89" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G89" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H89" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7110,7 +7050,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U15.ttl,error</v>
       </c>
       <c r="K89" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M89" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7119,14 +7059,14 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B90" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D90" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7137,10 +7077,10 @@
         <v>R_CL_ZGT_U16.ttl</v>
       </c>
       <c r="F90" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G90" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H90" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7155,7 +7095,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U16.ttl,error</v>
       </c>
       <c r="K90" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M90" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7164,14 +7104,14 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B91" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D91" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7182,10 +7122,10 @@
         <v>R_CL_ZGT_U17.ttl</v>
       </c>
       <c r="F91" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G91" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H91" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7200,7 +7140,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U17.ttl,valid</v>
       </c>
       <c r="K91" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M91" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7209,14 +7149,14 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B92" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C92" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D92" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7227,10 +7167,10 @@
         <v>R_CL_ZGT_U18.ttl</v>
       </c>
       <c r="F92" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G92" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H92" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7245,7 +7185,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U18.ttl,valid</v>
       </c>
       <c r="K92" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M92" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7254,14 +7194,14 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B93" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D93" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7272,10 +7212,10 @@
         <v>R_CL_ZGT_U19.ttl</v>
       </c>
       <c r="F93" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G93" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H93" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7290,7 +7230,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U19.ttl,valid</v>
       </c>
       <c r="K93" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M93" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7299,14 +7239,14 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B94" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C94" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D94" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7317,10 +7257,10 @@
         <v>R_CL_YOK_A.ttl</v>
       </c>
       <c r="F94" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="G94" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H94" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7337,14 +7277,14 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B95" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D95" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7355,10 +7295,10 @@
         <v>R_CL_YOK_B.ttl</v>
       </c>
       <c r="F95" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G95" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H95" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7375,14 +7315,14 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B96" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D96" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7393,10 +7333,10 @@
         <v>R_CL_YOK_C.ttl</v>
       </c>
       <c r="F96" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="G96" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H96" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7411,19 +7351,19 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_C.ttl,valid</v>
       </c>
       <c r="K96" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B97" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D97" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7434,10 +7374,10 @@
         <v>R_CL_YOK_D.ttl</v>
       </c>
       <c r="F97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G97" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H97" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7452,19 +7392,19 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_D.ttl,valid</v>
       </c>
       <c r="K97" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B98" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D98" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7475,10 +7415,10 @@
         <v>R_CL_YOK_E.ttl</v>
       </c>
       <c r="F98" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="G98" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H98" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7493,19 +7433,19 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_E.ttl,error</v>
       </c>
       <c r="K98" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B99" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D99" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7516,10 +7456,10 @@
         <v>R_CL_YOK_F.ttl</v>
       </c>
       <c r="F99" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="G99" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H99" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7534,7 +7474,7 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_F.ttl,valid</v>
       </c>
       <c r="K99" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -7552,10 +7492,10 @@
         <v>_.ttl</v>
       </c>
       <c r="F100" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G100" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H100" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7585,10 +7525,10 @@
         <v>_.ttl</v>
       </c>
       <c r="F101" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="G101" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H101" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7618,10 +7558,10 @@
         <v>_.ttl</v>
       </c>
       <c r="F102" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="G102" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H102" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7651,10 +7591,10 @@
         <v>_.ttl</v>
       </c>
       <c r="F103" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="G103" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H103" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7684,10 +7624,10 @@
         <v>_.ttl</v>
       </c>
       <c r="F104" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G104" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H104" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7717,7 +7657,7 @@
         <v>_.ttl</v>
       </c>
       <c r="F105" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="H105" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7747,7 +7687,7 @@
         <v>_.ttl</v>
       </c>
       <c r="F106" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H106" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7777,7 +7717,7 @@
         <v>_.ttl</v>
       </c>
       <c r="F107" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="H107" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7795,16 +7735,16 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D2:E107">
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H252">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239DBF3-624D-406F-A322-6A377CD9480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3391E-BD92-4999-86BB-AD360809410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules Definition" sheetId="2" r:id="rId1"/>
-    <sheet name="Definitions" sheetId="6" r:id="rId2"/>
-    <sheet name="Rules Implementation" sheetId="5" r:id="rId3"/>
+    <sheet name="Rules Implementation" sheetId="5" r:id="rId2"/>
+    <sheet name="Definitions" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="378">
   <si>
     <t>Description</t>
   </si>
@@ -1039,30 +1039,6 @@
     <t>Used category</t>
   </si>
   <si>
-    <t>Not set without tagged value</t>
-  </si>
-  <si>
-    <t>Not set with tagged value</t>
-  </si>
-  <si>
-    <t>Not type without tagged value</t>
-  </si>
-  <si>
-    <t>Not type with tagged value</t>
-  </si>
-  <si>
-    <t>Type without tagged value</t>
-  </si>
-  <si>
-    <t>Type with demanded tagged value</t>
-  </si>
-  <si>
-    <t>Type with not demanded tagged value</t>
-  </si>
-  <si>
-    <t>Type with not-demanded and demanded tagged value</t>
-  </si>
-  <si>
     <t>Stereotypes</t>
   </si>
   <si>
@@ -1148,6 +1124,51 @@
   </si>
   <si>
     <t>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</t>
+  </si>
+  <si>
+    <t>Stereotype not set without tagged value</t>
+  </si>
+  <si>
+    <t>Stereotype not set with tagged value</t>
+  </si>
+  <si>
+    <t>Stereotype not mapped without tagged value</t>
+  </si>
+  <si>
+    <t>Stereotype not mapped with tagged value</t>
+  </si>
+  <si>
+    <t>Stereotype mapped without tagged value</t>
+  </si>
+  <si>
+    <t>Stereotype mapped with not demanded tagged value</t>
+  </si>
+  <si>
+    <t>Stereotype mapped with demanded tagged value</t>
+  </si>
+  <si>
+    <t>Stereotype mapped with not-demanded and demanded tagged value</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>R_CL_QJC</t>
+  </si>
+  <si>
+    <t>Used category mapped to functional-complex</t>
+  </si>
+  <si>
+    <t>Used kind with custom</t>
+  </si>
+  <si>
+    <t>Used kind mapped to functional-complex</t>
+  </si>
+  <si>
+    <t>Used kind mapped to functional-complex and custom</t>
   </si>
 </sst>
 </file>
@@ -1342,6 +1363,36 @@
   <dxfs count="25">
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1367,36 +1418,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1645,20 +1666,6 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}" name="Table3" displayName="Table3" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
-    <sortCondition ref="A1:A9"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D8098905-7B35-4419-9FF0-ABB475A5357D}" name="Stereotype List" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F12CB8CE-6969-4083-9729-E8A90699DB57}" name="Stereotypes"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K107" totalsRowShown="0">
   <autoFilter ref="A1:K107" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
@@ -1690,6 +1697,20 @@
     <tableColumn id="9" xr3:uid="{9CF1643D-B8F2-452E-B29E-AD6EF72070C4}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}" name="Table3" displayName="Table3" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{50D25586-6EE4-44F5-B6CB-684C82C970CA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D8098905-7B35-4419-9FF0-ABB475A5357D}" name="Stereotype List" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F12CB8CE-6969-4083-9729-E8A90699DB57}" name="Stereotypes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1995,8 +2016,8 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G95" sqref="G95"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
@@ -2151,7 +2172,7 @@
         <v>R_CL_LAX</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7"/>
@@ -2168,7 +2189,7 @@
         <v>R_CL_ZGT</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2183,7 +2204,7 @@
         <v>R_CL_ASZ</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2198,7 +2219,7 @@
         <v>R_CL_YOK</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2213,7 +2234,7 @@
         <v>R_CL_QJC</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>245</v>
@@ -2276,7 +2297,7 @@
         <v>R_CL_ANJ</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2381,7 +2402,7 @@
         <v>R_CL_QOV</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2666,7 +2687,7 @@
         <v>R_GE_HGQ</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2681,7 +2702,7 @@
         <v>R_GE_EPG</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2696,7 +2717,7 @@
         <v>R_GE_MXI</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3136,19 +3157,19 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D77" s="11" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B2:B71">
-    <cfRule type="duplicateValues" dxfId="2" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C71">
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D71">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3160,109 +3181,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DAEACC-7D52-42E2-9F3D-7DBF00284689}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D2BF44-67F1-4935-ADE5-39702D5039FF}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7478,21 +7405,26 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" t="e">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="A100" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B100" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
       </c>
       <c r="D100" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>_</v>
+        <v>R_CL_QJC_A</v>
       </c>
       <c r="E100" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>_.ttl</v>
+        <v>R_CL_QJC_A.ttl</v>
       </c>
       <c r="F100" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="G100" t="s">
         <v>79</v>
@@ -7503,29 +7435,34 @@
       </c>
       <c r="I100" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,,_.ttl,valid</v>
+        <v>owa,R_CL_QJC,R_CL_QJC_A.ttl,valid</v>
       </c>
       <c r="J100" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,,_.ttl,valid</v>
+        <v>cwa,R_CL_QJC,R_CL_QJC_A.ttl,valid</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" t="e">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="A101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B101" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+      </c>
+      <c r="C101" t="s">
+        <v>78</v>
       </c>
       <c r="D101" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>_</v>
+        <v>R_CL_QJC_B</v>
       </c>
       <c r="E101" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>_.ttl</v>
+        <v>R_CL_QJC_B.ttl</v>
       </c>
       <c r="F101" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="G101" t="s">
         <v>79</v>
@@ -7536,29 +7473,34 @@
       </c>
       <c r="I101" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,,_.ttl,valid</v>
+        <v>owa,R_CL_QJC,R_CL_QJC_B.ttl,valid</v>
       </c>
       <c r="J101" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,,_.ttl,valid</v>
+        <v>cwa,R_CL_QJC,R_CL_QJC_B.ttl,valid</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" t="e">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="A102" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
       </c>
       <c r="D102" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>_</v>
+        <v>R_CL_QJC_C</v>
       </c>
       <c r="E102" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>_.ttl</v>
+        <v>R_CL_QJC_C.ttl</v>
       </c>
       <c r="F102" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="G102" t="s">
         <v>79</v>
@@ -7569,29 +7511,37 @@
       </c>
       <c r="I102" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,,_.ttl,valid</v>
+        <v>owa,R_CL_QJC,R_CL_QJC_C.ttl,valid</v>
       </c>
       <c r="J102" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,,_.ttl,valid</v>
+        <v>cwa,R_CL_QJC,R_CL_QJC_C.ttl,valid</v>
+      </c>
+      <c r="K102" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" t="e">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="A103" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B103" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+      </c>
+      <c r="C103" t="s">
+        <v>86</v>
       </c>
       <c r="D103" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>_</v>
+        <v>R_CL_QJC_D</v>
       </c>
       <c r="E103" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>_.ttl</v>
+        <v>R_CL_QJC_D.ttl</v>
       </c>
       <c r="F103" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="G103" t="s">
         <v>79</v>
@@ -7602,29 +7552,37 @@
       </c>
       <c r="I103" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,,_.ttl,valid</v>
+        <v>owa,R_CL_QJC,R_CL_QJC_D.ttl,valid</v>
       </c>
       <c r="J103" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,,_.ttl,valid</v>
+        <v>cwa,R_CL_QJC,R_CL_QJC_D.ttl,valid</v>
+      </c>
+      <c r="K103" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" t="e">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="A104" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B104" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+      </c>
+      <c r="C104" t="s">
+        <v>87</v>
       </c>
       <c r="D104" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>_</v>
+        <v>R_CL_QJC_E</v>
       </c>
       <c r="E104" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>_.ttl</v>
+        <v>R_CL_QJC_E.ttl</v>
       </c>
       <c r="F104" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="G104" t="s">
         <v>74</v>
@@ -7635,29 +7593,40 @@
       </c>
       <c r="I104" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,,_.ttl,error</v>
+        <v>owa,R_CL_QJC,R_CL_QJC_E.ttl,error</v>
       </c>
       <c r="J104" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,,_.ttl,error</v>
+        <v>cwa,R_CL_QJC,R_CL_QJC_E.ttl,error</v>
+      </c>
+      <c r="K104" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" t="e">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="A105" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B105" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+      </c>
+      <c r="C105" t="s">
+        <v>88</v>
       </c>
       <c r="D105" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>_</v>
+        <v>R_CL_QJC_F</v>
       </c>
       <c r="E105" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>_.ttl</v>
+        <v>R_CL_QJC_F.ttl</v>
       </c>
       <c r="F105" t="s">
-        <v>340</v>
+        <v>368</v>
+      </c>
+      <c r="G105" t="s">
+        <v>74</v>
       </c>
       <c r="H105" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7665,86 +7634,111 @@
       </c>
       <c r="I105" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,,_.ttl,</v>
+        <v>owa,R_CL_QJC,R_CL_QJC_F.ttl,error</v>
       </c>
       <c r="J105" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,,_.ttl,error</v>
+        <v>cwa,R_CL_QJC,R_CL_QJC_F.ttl,error</v>
+      </c>
+      <c r="K105" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" t="e">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="A106" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B106" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+      </c>
+      <c r="C106" t="s">
+        <v>371</v>
       </c>
       <c r="D106" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>_</v>
+        <v>R_CL_QJC_G</v>
       </c>
       <c r="E106" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>_.ttl</v>
+        <v>R_CL_QJC_G.ttl</v>
       </c>
       <c r="F106" t="s">
-        <v>339</v>
+        <v>369</v>
+      </c>
+      <c r="G106" t="s">
+        <v>79</v>
       </c>
       <c r="H106" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I106" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_QJC,R_CL_QJC_G.ttl,valid</v>
+      </c>
+      <c r="J106" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_QJC,R_CL_QJC_G.ttl,valid</v>
+      </c>
+      <c r="K106" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B107" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+      </c>
+      <c r="C107" t="s">
+        <v>372</v>
+      </c>
+      <c r="D107" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_QJC_H</v>
+      </c>
+      <c r="E107" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_QJC_H.ttl</v>
+      </c>
+      <c r="F107" t="s">
+        <v>370</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I106" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,,_.ttl,</v>
-      </c>
-      <c r="J106" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,,_.ttl,error</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" t="e">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D107" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>_</v>
-      </c>
-      <c r="E107" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>_.ttl</v>
-      </c>
-      <c r="F107" t="s">
-        <v>341</v>
-      </c>
-      <c r="H107" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
       <c r="I107" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,,_.ttl,</v>
+        <v>owa,R_CL_QJC,R_CL_QJC_H.ttl,error</v>
       </c>
       <c r="J107" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,,_.ttl,error</v>
+        <v>cwa,R_CL_QJC,R_CL_QJC_H.ttl,error</v>
+      </c>
+      <c r="K107" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D2:E107">
-    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H252">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7759,4 +7753,98 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DAEACC-7D52-42E2-9F3D-7DBF00284689}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3391E-BD92-4999-86BB-AD360809410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA43FFD-8E68-4D37-A338-20182A5B8AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules Definition" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="396">
   <si>
     <t>Description</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Every abstract class should be specialized by some concrete class or have a super class that is specialized by a concrete class.</t>
   </si>
   <si>
-    <t>No class can be an ancestor of itself.</t>
-  </si>
-  <si>
     <t>No class representing a powertype (i.e., whose tagged value "isPowertype" is set to "true") can be the target of more than one non-derived instantiation relation.</t>
   </si>
   <si>
@@ -1162,13 +1159,70 @@
     <t>Used category mapped to functional-complex</t>
   </si>
   <si>
-    <t>Used kind with custom</t>
-  </si>
-  <si>
     <t>Used kind mapped to functional-complex</t>
   </si>
   <si>
-    <t>Used kind mapped to functional-complex and custom</t>
+    <t>Used kind mapped to functional-complex and custom. Two values are not exported from VPP, so it was included via manual edition.</t>
+  </si>
+  <si>
+    <t>Used kind with custom. The ttl file was manually edited.</t>
+  </si>
+  <si>
+    <t>No class can have one of its subclasses as its superclasses.</t>
+  </si>
+  <si>
+    <t>R_CL_EGT</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; A</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; B &gt; A</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; B &gt; C</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; B &gt; C &gt; A</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; B &gt; C &gt; B</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; B &gt; C &gt; (D , E)</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; B &gt; C &gt; (D , A)</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; B &gt; C &gt; (B , A)</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; (B, C) , B &gt; C</t>
+  </si>
+  <si>
+    <t>Taxonomy: A</t>
+  </si>
+  <si>
+    <t>As loops are not allowed in VP, the test file was manually edited.</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Taxonomy: A &gt; B &gt; B</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1360,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1348,19 +1402,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1388,6 +1481,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1636,62 +1759,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D71" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D71" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:D71" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
     <sortCondition ref="A2:A71"/>
     <sortCondition ref="D2:D71"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="27">
       <calculatedColumnFormula>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="F1:G6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="F1:G6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="F1:G6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K107" totalsRowShown="0">
-  <autoFilter ref="A1:K107" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K119" totalsRowShown="0">
+  <autoFilter ref="A1:K119" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
     <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation"/>
-    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="19">
       <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="18">
       <calculatedColumnFormula>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F491E82A-09B4-4B22-AA08-7E6DFD336A64}" name="Situation Description"/>
     <tableColumn id="4" xr3:uid="{92BCF063-80EB-4A9C-AA1A-6F95CC9435A7}" name="OWA Level"/>
-    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="17">
       <calculatedColumnFormula>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="16">
       <calculatedColumnFormula>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="15">
       <calculatedColumnFormula>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9CF1643D-B8F2-452E-B29E-AD6EF72070C4}" name="Comments"/>
@@ -1707,7 +1830,7 @@
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D8098905-7B35-4419-9FF0-ABB475A5357D}" name="Stereotype List" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{D8098905-7B35-4419-9FF0-ABB475A5357D}" name="Stereotype List" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{F12CB8CE-6969-4083-9729-E8A90699DB57}" name="Stereotypes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2016,10 +2139,10 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G95" sqref="G95"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2034,22 +2157,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
         <v>101</v>
-      </c>
-      <c r="G1" t="s">
-        <v>102</v>
       </c>
       <c r="I1" s="16"/>
     </row>
@@ -2058,20 +2181,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_EDA</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -2080,20 +2203,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_AIB</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="16"/>
     </row>
@@ -2102,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2112,10 +2235,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2123,20 +2246,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_CMS</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2144,20 +2267,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_NBG</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2165,14 +2288,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_LAX</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7"/>
@@ -2182,14 +2305,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_ZGT</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2197,14 +2320,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_ASZ</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2212,14 +2335,14 @@
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_YOK</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2227,17 +2350,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_QJC</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>362</v>
+      <c r="D11" s="15" t="s">
+        <v>361</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2245,13 +2368,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_ZEF</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2260,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2275,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2290,14 +2413,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_ANJ</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2305,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2320,14 +2443,14 @@
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_JOJ</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2335,14 +2458,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_GJU</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2350,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2365,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2380,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2395,14 +2518,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_QOV</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2410,14 +2533,14 @@
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_JFW</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2425,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2440,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2455,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2470,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2485,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2500,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2515,14 +2638,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_UMC</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2530,14 +2653,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_OEV</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2545,14 +2668,14 @@
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_EGT</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>16</v>
+      <c r="D32" s="15" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2560,616 +2683,616 @@
         <v>1</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_ANY</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_XRS</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_MDR</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_BAK</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_JLW</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_VEZ</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_IJM</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_UXR</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_HGQ</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_EPG</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_MXI</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_HPZ</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GS_LHD</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GS_PQP</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GS_UTW</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GS_YKW</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GS_XXB</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GS_ZMQ</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_PR_BWY</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_PR_LCI</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_AZO</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_ECP</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_FIX</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_HGG</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_VDQ</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_VMI</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_ALR</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_SEI</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_EAQ</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_CDJ</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_RON</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_KZC</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_NTY</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_UCH</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_LQF</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_GZN</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_KPG</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_GZF</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_RE_JND</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D73" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D74" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D75" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D77" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B2:B71">
-    <cfRule type="duplicateValues" dxfId="6" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C71">
-    <cfRule type="duplicateValues" dxfId="5" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D71">
-    <cfRule type="duplicateValues" dxfId="4" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3185,11 +3308,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,49 +3332,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
       <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3262,10 +3385,10 @@
         <v>R_CL_AIB_A.ttl</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3282,14 +3405,14 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3300,10 +3423,10 @@
         <v>R_CL_AIB_B.ttl</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3320,14 +3443,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3338,10 +3461,10 @@
         <v>R_CL_AIB_C.ttl</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3358,14 +3481,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3376,10 +3499,10 @@
         <v>R_CL_AIB_D.ttl</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3396,14 +3519,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3414,10 +3537,10 @@
         <v>R_CL_BWZ_A.ttl</v>
       </c>
       <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
         <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
       </c>
       <c r="H6" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3434,28 +3557,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_BWZ_B</v>
+      </c>
+      <c r="E7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_BWZ_B.ttl</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_BWZ_B</v>
-      </c>
-      <c r="E7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_BWZ_B.ttl</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
       </c>
       <c r="H7" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3472,14 +3595,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3490,10 +3613,10 @@
         <v>R_CL_BWZ_C.ttl</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3510,14 +3633,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3528,10 +3651,10 @@
         <v>R_CL_BWZ_D.ttl</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3546,19 +3669,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_D.ttl,error</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3569,10 +3692,10 @@
         <v>R_CL_BWZ_E.ttl</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3587,19 +3710,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_E.ttl,valid</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3610,10 +3733,10 @@
         <v>R_CL_BWZ_F.ttl</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3628,19 +3751,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_F.ttl,error</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3651,10 +3774,10 @@
         <v>R_CL_EDA_A.ttl</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3671,14 +3794,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3689,10 +3812,10 @@
         <v>R_CL_EDA_B.ttl</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3709,14 +3832,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3727,10 +3850,10 @@
         <v>R_CL_EDA_C.ttl</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3747,14 +3870,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3765,10 +3888,10 @@
         <v>R_CL_EDA_D.ttl</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3785,14 +3908,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3803,10 +3926,10 @@
         <v>R_CL_GJU_A.ttl</v>
       </c>
       <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
         <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
       </c>
       <c r="H16" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3823,28 +3946,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_GJU_B</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_GJU_B.ttl</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" s="13" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_GJU_B</v>
-      </c>
-      <c r="E17" s="7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_GJU_B.ttl</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
       </c>
       <c r="H17" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3861,14 +3984,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3879,10 +4002,10 @@
         <v>R_CL_GJU_C.ttl</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3899,14 +4022,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3917,10 +4040,10 @@
         <v>R_CL_GJU_D.ttl</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3935,19 +4058,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_D.ttl,error</v>
       </c>
       <c r="K19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3958,10 +4081,10 @@
         <v>R_CL_GJU_E.ttl</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3976,19 +4099,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_E.ttl,error</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3999,10 +4122,10 @@
         <v>R_CL_GJU_F.ttl</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4017,19 +4140,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_F.ttl,error</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4040,10 +4163,10 @@
         <v>R_CL_JOJ_A.ttl</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4060,14 +4183,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4078,10 +4201,10 @@
         <v>R_CL_JOJ_B.ttl</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4096,19 +4219,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_B.ttl,error</v>
       </c>
       <c r="K23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4119,10 +4242,10 @@
         <v>R_CL_JOJ_C.ttl</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4137,19 +4260,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_C.ttl,valid</v>
       </c>
       <c r="K24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4160,37 +4283,37 @@
         <v>R_CL_JOJ_D.ttl</v>
       </c>
       <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_JOJ,R_CL_JOJ_D.ttl,error</v>
+      </c>
+      <c r="J25" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_JOJ,R_CL_JOJ_D.ttl,error</v>
+      </c>
+      <c r="K25" t="s">
         <v>106</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I25" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_JOJ,R_CL_JOJ_D.ttl,error</v>
-      </c>
-      <c r="J25" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_JOJ,R_CL_JOJ_D.ttl,error</v>
-      </c>
-      <c r="K25" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4201,10 +4324,10 @@
         <v>R_CL_JOJ_E.ttl</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4221,14 +4344,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4239,10 +4362,10 @@
         <v>R_CL_JOJ_F.ttl</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H27" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4259,14 +4382,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4277,10 +4400,10 @@
         <v>R_CL_UMC_A.ttl</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4297,14 +4420,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4315,10 +4438,10 @@
         <v>R_CL_UMC_B.ttl</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4335,14 +4458,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4353,10 +4476,10 @@
         <v>R_CL_UMC_C.ttl</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H30" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4373,14 +4496,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4391,10 +4514,10 @@
         <v>R_CL_XJZ_A.ttl</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4411,28 +4534,28 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_XJZ_B</v>
+      </c>
+      <c r="E32" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_XJZ_B.ttl</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_XJZ_B</v>
-      </c>
-      <c r="E32" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_XJZ_B.ttl</v>
-      </c>
-      <c r="F32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" t="s">
-        <v>79</v>
       </c>
       <c r="H32" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4449,14 +4572,14 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4467,10 +4590,10 @@
         <v>R_CL_XJZ_C.ttl</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H33" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4487,14 +4610,14 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4505,10 +4628,10 @@
         <v>R_CL_XJZ_D.ttl</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4525,14 +4648,14 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4543,10 +4666,10 @@
         <v>R_CL_XJZ_E.ttl</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4563,14 +4686,14 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4581,10 +4704,10 @@
         <v>R_CL_XJZ_F.ttl</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4601,14 +4724,14 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D37" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4619,10 +4742,10 @@
         <v>R_CL_ZGT_B01.ttl</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H37" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4637,7 +4760,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B01.ttl,error</v>
       </c>
       <c r="K37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M37" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4646,14 +4769,14 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4664,10 +4787,10 @@
         <v>R_CL_ZGT_B02.ttl</v>
       </c>
       <c r="F38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H38" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4682,7 +4805,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B02.ttl,error</v>
       </c>
       <c r="K38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M38" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4691,14 +4814,14 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4709,10 +4832,10 @@
         <v>R_CL_ZGT_B03.ttl</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4727,7 +4850,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B03.ttl,error</v>
       </c>
       <c r="K39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M39" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4736,14 +4859,14 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4754,10 +4877,10 @@
         <v>R_CL_ZGT_B04.ttl</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4772,7 +4895,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B04.ttl,error</v>
       </c>
       <c r="K40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M40" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4781,14 +4904,14 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D41" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4799,10 +4922,10 @@
         <v>R_CL_ZGT_B05.ttl</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H41" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4817,7 +4940,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B05.ttl,valid</v>
       </c>
       <c r="K41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M41" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4826,14 +4949,14 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D42" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4844,10 +4967,10 @@
         <v>R_CL_ZGT_B06.ttl</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H42" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4862,7 +4985,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B06.ttl,error</v>
       </c>
       <c r="K42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M42" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4871,14 +4994,14 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4889,10 +5012,10 @@
         <v>R_CL_ZGT_B07.ttl</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H43" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4907,7 +5030,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B07.ttl,error</v>
       </c>
       <c r="K43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M43" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4916,14 +5039,14 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4934,10 +5057,10 @@
         <v>R_CL_ZGT_B08.ttl</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H44" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4952,7 +5075,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B08.ttl,error</v>
       </c>
       <c r="K44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M44" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4961,14 +5084,14 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D45" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4979,10 +5102,10 @@
         <v>R_CL_ZGT_B09.ttl</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H45" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4997,7 +5120,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B09.ttl,valid</v>
       </c>
       <c r="K45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M45" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5006,14 +5129,14 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D46" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5024,10 +5147,10 @@
         <v>R_CL_ZGT_B10.ttl</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5042,7 +5165,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B10.ttl,valid</v>
       </c>
       <c r="K46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M46" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5051,14 +5174,14 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5069,10 +5192,10 @@
         <v>R_CL_ZGT_B11.ttl</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H47" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5087,7 +5210,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B11.ttl,error</v>
       </c>
       <c r="K47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M47" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5096,14 +5219,14 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D48" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5114,10 +5237,10 @@
         <v>R_CL_ZGT_B12.ttl</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H48" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5132,7 +5255,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B12.ttl,valid</v>
       </c>
       <c r="K48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M48" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5141,14 +5264,14 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D49" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5159,10 +5282,10 @@
         <v>R_CL_ZGT_B13.ttl</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H49" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5177,7 +5300,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B13.ttl,error</v>
       </c>
       <c r="K49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M49" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5186,14 +5309,14 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5204,10 +5327,10 @@
         <v>R_CL_ZGT_B14.ttl</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H50" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5222,7 +5345,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B14.ttl,error</v>
       </c>
       <c r="K50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M50" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5231,14 +5354,14 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D51" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5249,10 +5372,10 @@
         <v>R_CL_ZGT_B15.ttl</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H51" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5267,7 +5390,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B15.ttl,error</v>
       </c>
       <c r="K51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M51" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5276,14 +5399,14 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D52" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5294,10 +5417,10 @@
         <v>R_CL_ZGT_B16.ttl</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H52" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5312,7 +5435,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B16.ttl,error</v>
       </c>
       <c r="K52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M52" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5321,14 +5444,14 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D53" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5339,10 +5462,10 @@
         <v>R_CL_ZGT_B17.ttl</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H53" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5357,7 +5480,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B17.ttl,error</v>
       </c>
       <c r="K53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M53" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5366,14 +5489,14 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D54" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5384,10 +5507,10 @@
         <v>R_CL_ZGT_B18.ttl</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H54" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5402,7 +5525,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B18.ttl,valid</v>
       </c>
       <c r="K54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M54" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5411,14 +5534,14 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D55" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5429,10 +5552,10 @@
         <v>R_CL_ZGT_B19.ttl</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H55" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5447,7 +5570,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B19.ttl,error</v>
       </c>
       <c r="K55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M55" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5456,14 +5579,14 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D56" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5474,10 +5597,10 @@
         <v>R_CL_ZGT_N01.ttl</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H56" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5492,7 +5615,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N01.ttl,valid</v>
       </c>
       <c r="K56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M56" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5501,14 +5624,14 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D57" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5519,10 +5642,10 @@
         <v>R_CL_ZGT_N02.ttl</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H57" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5537,7 +5660,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N02.ttl,error</v>
       </c>
       <c r="K57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M57" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5546,14 +5669,14 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D58" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5564,10 +5687,10 @@
         <v>R_CL_ZGT_N03.ttl</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H58" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5582,7 +5705,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N03.ttl,error</v>
       </c>
       <c r="K58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M58" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5591,14 +5714,14 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D59" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5609,10 +5732,10 @@
         <v>R_CL_ZGT_N04.ttl</v>
       </c>
       <c r="F59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H59" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5627,7 +5750,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N04.ttl,error</v>
       </c>
       <c r="K59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M59" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5636,14 +5759,14 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D60" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5654,10 +5777,10 @@
         <v>R_CL_ZGT_N05.ttl</v>
       </c>
       <c r="F60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H60" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5672,7 +5795,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N05.ttl,valid</v>
       </c>
       <c r="K60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M60" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5681,14 +5804,14 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D61" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5699,10 +5822,10 @@
         <v>R_CL_ZGT_N06.ttl</v>
       </c>
       <c r="F61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H61" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5717,7 +5840,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N06.ttl,valid</v>
       </c>
       <c r="K61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M61" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5726,14 +5849,14 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D62" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5744,10 +5867,10 @@
         <v>R_CL_ZGT_N07.ttl</v>
       </c>
       <c r="F62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H62" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5762,7 +5885,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N07.ttl,error</v>
       </c>
       <c r="K62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M62" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5771,14 +5894,14 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D63" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5789,10 +5912,10 @@
         <v>R_CL_ZGT_N08.ttl</v>
       </c>
       <c r="F63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H63" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5807,7 +5930,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N08.ttl,valid</v>
       </c>
       <c r="K63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M63" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5816,14 +5939,14 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D64" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5834,10 +5957,10 @@
         <v>R_CL_ZGT_N09.ttl</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H64" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5852,7 +5975,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N09.ttl,valid</v>
       </c>
       <c r="K64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M64" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5861,14 +5984,14 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5879,10 +6002,10 @@
         <v>R_CL_ZGT_N10.ttl</v>
       </c>
       <c r="F65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H65" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5897,7 +6020,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N10.ttl,valid</v>
       </c>
       <c r="K65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M65" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5906,14 +6029,14 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5924,10 +6047,10 @@
         <v>R_CL_ZGT_N11.ttl</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H66" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5942,7 +6065,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N11.ttl,error</v>
       </c>
       <c r="K66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M66" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5951,14 +6074,14 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5969,10 +6092,10 @@
         <v>R_CL_ZGT_N12.ttl</v>
       </c>
       <c r="F67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H67" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5987,7 +6110,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N12.ttl,valid</v>
       </c>
       <c r="K67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M67" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5996,14 +6119,14 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6014,10 +6137,10 @@
         <v>R_CL_ZGT_N13.ttl</v>
       </c>
       <c r="F68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H68" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6032,7 +6155,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N13.ttl,valid</v>
       </c>
       <c r="K68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M68" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6041,14 +6164,14 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6059,10 +6182,10 @@
         <v>R_CL_ZGT_N14.ttl</v>
       </c>
       <c r="F69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H69" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6077,7 +6200,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N14.ttl,error</v>
       </c>
       <c r="K69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M69" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6086,14 +6209,14 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6104,10 +6227,10 @@
         <v>R_CL_ZGT_N15.ttl</v>
       </c>
       <c r="F70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H70" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6122,7 +6245,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N15.ttl,error</v>
       </c>
       <c r="K70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M70" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6131,14 +6254,14 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6149,10 +6272,10 @@
         <v>R_CL_ZGT_N16.ttl</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H71" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6167,7 +6290,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N16.ttl,error</v>
       </c>
       <c r="K71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M71" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6176,14 +6299,14 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6194,10 +6317,10 @@
         <v>R_CL_ZGT_N17.ttl</v>
       </c>
       <c r="F72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H72" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6212,7 +6335,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N17.ttl,valid</v>
       </c>
       <c r="K72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M72" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6221,14 +6344,14 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B73" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6239,10 +6362,10 @@
         <v>R_CL_ZGT_N18.ttl</v>
       </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H73" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6257,7 +6380,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N18.ttl,valid</v>
       </c>
       <c r="K73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M73" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6266,14 +6389,14 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6284,10 +6407,10 @@
         <v>R_CL_ZGT_N19.ttl</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H74" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6302,7 +6425,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N19.ttl,valid</v>
       </c>
       <c r="K74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M74" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6311,14 +6434,14 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B75" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6329,10 +6452,10 @@
         <v>R_CL_ZGT_U01.ttl</v>
       </c>
       <c r="F75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H75" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6347,7 +6470,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U01.ttl,valid</v>
       </c>
       <c r="K75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M75" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6356,14 +6479,14 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D76" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6374,10 +6497,10 @@
         <v>R_CL_ZGT_U02.ttl</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H76" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6392,7 +6515,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U02.ttl,error</v>
       </c>
       <c r="K76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M76" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6401,14 +6524,14 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D77" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6419,10 +6542,10 @@
         <v>R_CL_ZGT_U03.ttl</v>
       </c>
       <c r="F77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H77" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6437,7 +6560,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U03.ttl,error</v>
       </c>
       <c r="K77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M77" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6446,14 +6569,14 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6464,10 +6587,10 @@
         <v>R_CL_ZGT_U04.ttl</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H78" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6482,7 +6605,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U04.ttl,error</v>
       </c>
       <c r="K78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M78" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6491,14 +6614,14 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B79" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6509,10 +6632,10 @@
         <v>R_CL_ZGT_U05.ttl</v>
       </c>
       <c r="F79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H79" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6527,7 +6650,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U05.ttl,valid</v>
       </c>
       <c r="K79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M79" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6536,14 +6659,14 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B80" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6554,10 +6677,10 @@
         <v>R_CL_ZGT_U06.ttl</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H80" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6572,7 +6695,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U06.ttl,valid</v>
       </c>
       <c r="K80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M80" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6581,14 +6704,14 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B81" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6599,10 +6722,10 @@
         <v>R_CL_ZGT_U07.ttl</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H81" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6617,7 +6740,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U07.ttl,error</v>
       </c>
       <c r="K81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M81" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6626,14 +6749,14 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B82" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6644,10 +6767,10 @@
         <v>R_CL_ZGT_U08.ttl</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H82" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6662,7 +6785,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U08.ttl,valid</v>
       </c>
       <c r="K82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M82" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6671,43 +6794,43 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B83" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C83" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U09</v>
+      </c>
+      <c r="E83" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_U09.ttl</v>
+      </c>
+      <c r="F83" t="s">
+        <v>156</v>
+      </c>
+      <c r="G83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I83" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U09.ttl,valid</v>
+      </c>
+      <c r="J83" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U09.ttl,valid</v>
+      </c>
+      <c r="K83" t="s">
         <v>239</v>
-      </c>
-      <c r="D83" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_ZGT_U09</v>
-      </c>
-      <c r="E83" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGT_U09.ttl</v>
-      </c>
-      <c r="F83" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" t="s">
-        <v>79</v>
-      </c>
-      <c r="H83" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I83" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGT_U09.ttl,valid</v>
-      </c>
-      <c r="J83" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGT_U09.ttl,valid</v>
-      </c>
-      <c r="K83" t="s">
-        <v>240</v>
       </c>
       <c r="M83" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6716,14 +6839,14 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D84" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6734,10 +6857,10 @@
         <v>R_CL_ZGT_U10.ttl</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H84" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6752,7 +6875,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U10.ttl,valid</v>
       </c>
       <c r="K84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M84" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6761,14 +6884,14 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B85" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D85" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6779,10 +6902,10 @@
         <v>R_CL_ZGT_U11.ttl</v>
       </c>
       <c r="F85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H85" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6797,7 +6920,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U11.ttl,error</v>
       </c>
       <c r="K85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M85" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6806,14 +6929,14 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B86" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D86" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6824,10 +6947,10 @@
         <v>R_CL_ZGT_U12.ttl</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H86" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6842,7 +6965,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U12.ttl,valid</v>
       </c>
       <c r="K86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M86" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6851,14 +6974,14 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B87" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D87" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6869,10 +6992,10 @@
         <v>R_CL_ZGT_U13.ttl</v>
       </c>
       <c r="F87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H87" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6887,7 +7010,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U13.ttl,valid</v>
       </c>
       <c r="K87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M87" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6896,14 +7019,14 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B88" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D88" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6914,10 +7037,10 @@
         <v>R_CL_ZGT_U14.ttl</v>
       </c>
       <c r="F88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H88" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6932,7 +7055,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U14.ttl,error</v>
       </c>
       <c r="K88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M88" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6941,14 +7064,14 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B89" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D89" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6959,10 +7082,10 @@
         <v>R_CL_ZGT_U15.ttl</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H89" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6977,7 +7100,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U15.ttl,error</v>
       </c>
       <c r="K89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M89" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6986,14 +7109,14 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B90" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D90" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7004,10 +7127,10 @@
         <v>R_CL_ZGT_U16.ttl</v>
       </c>
       <c r="F90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H90" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7022,7 +7145,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U16.ttl,error</v>
       </c>
       <c r="K90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M90" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7031,14 +7154,14 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B91" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D91" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7049,10 +7172,10 @@
         <v>R_CL_ZGT_U17.ttl</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H91" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7067,7 +7190,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U17.ttl,valid</v>
       </c>
       <c r="K91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M91" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7076,14 +7199,14 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B92" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D92" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7094,10 +7217,10 @@
         <v>R_CL_ZGT_U18.ttl</v>
       </c>
       <c r="F92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H92" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7112,7 +7235,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U18.ttl,valid</v>
       </c>
       <c r="K92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M92" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7121,14 +7244,14 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B93" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D93" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7139,10 +7262,10 @@
         <v>R_CL_ZGT_U19.ttl</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H93" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7157,7 +7280,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U19.ttl,valid</v>
       </c>
       <c r="K93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M93" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -7166,28 +7289,28 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B94" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
+      </c>
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_YOK_A</v>
+      </c>
+      <c r="E94" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_YOK_A.ttl</v>
+      </c>
+      <c r="F94" t="s">
         <v>325</v>
       </c>
-      <c r="B94" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
-      </c>
-      <c r="C94" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_YOK_A</v>
-      </c>
-      <c r="E94" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_YOK_A.ttl</v>
-      </c>
-      <c r="F94" t="s">
-        <v>326</v>
-      </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H94" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7204,28 +7327,28 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B95" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_YOK_B</v>
+      </c>
+      <c r="E95" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_YOK_B.ttl</v>
+      </c>
+      <c r="F95" t="s">
+        <v>326</v>
+      </c>
+      <c r="G95" t="s">
         <v>78</v>
-      </c>
-      <c r="D95" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_YOK_B</v>
-      </c>
-      <c r="E95" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_YOK_B.ttl</v>
-      </c>
-      <c r="F95" t="s">
-        <v>327</v>
-      </c>
-      <c r="G95" t="s">
-        <v>79</v>
       </c>
       <c r="H95" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7242,14 +7365,14 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B96" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D96" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7260,10 +7383,10 @@
         <v>R_CL_YOK_C.ttl</v>
       </c>
       <c r="F96" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H96" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7278,19 +7401,19 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_C.ttl,valid</v>
       </c>
       <c r="K96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B97" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D97" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7301,10 +7424,10 @@
         <v>R_CL_YOK_D.ttl</v>
       </c>
       <c r="F97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H97" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7319,19 +7442,19 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_D.ttl,valid</v>
       </c>
       <c r="K97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B98" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D98" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7342,10 +7465,10 @@
         <v>R_CL_YOK_E.ttl</v>
       </c>
       <c r="F98" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H98" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7360,19 +7483,19 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_E.ttl,error</v>
       </c>
       <c r="K98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B99" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a non-sortal stereotype must be abstract.</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D99" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7383,10 +7506,10 @@
         <v>R_CL_YOK_F.ttl</v>
       </c>
       <c r="F99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H99" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7401,19 +7524,19 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_F.ttl,valid</v>
       </c>
       <c r="K99" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B100" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D100" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7424,10 +7547,10 @@
         <v>R_CL_QJC_A.ttl</v>
       </c>
       <c r="F100" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H100" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7444,28 +7567,28 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B101" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
       </c>
       <c r="C101" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_QJC_B</v>
+      </c>
+      <c r="E101" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_QJC_B.ttl</v>
+      </c>
+      <c r="F101" t="s">
+        <v>363</v>
+      </c>
+      <c r="G101" t="s">
         <v>78</v>
-      </c>
-      <c r="D101" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_QJC_B</v>
-      </c>
-      <c r="E101" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_QJC_B.ttl</v>
-      </c>
-      <c r="F101" t="s">
-        <v>364</v>
-      </c>
-      <c r="G101" t="s">
-        <v>79</v>
       </c>
       <c r="H101" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7482,14 +7605,14 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B102" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D102" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7500,10 +7623,10 @@
         <v>R_CL_QJC_C.ttl</v>
       </c>
       <c r="F102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H102" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7518,60 +7641,60 @@
         <v>cwa,R_CL_QJC,R_CL_QJC_C.ttl,valid</v>
       </c>
       <c r="K102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B103" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_QJC_D</v>
+      </c>
+      <c r="E103" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_QJC_D.ttl</v>
+      </c>
+      <c r="F103" t="s">
+        <v>365</v>
+      </c>
+      <c r="G103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I103" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_QJC,R_CL_QJC_D.ttl,valid</v>
+      </c>
+      <c r="J103" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_QJC,R_CL_QJC_D.ttl,valid</v>
+      </c>
+      <c r="K103" t="s">
         <v>373</v>
-      </c>
-      <c r="B103" t="str">
-        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
-      </c>
-      <c r="C103" t="s">
-        <v>86</v>
-      </c>
-      <c r="D103" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_QJC_D</v>
-      </c>
-      <c r="E103" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_QJC_D.ttl</v>
-      </c>
-      <c r="F103" t="s">
-        <v>366</v>
-      </c>
-      <c r="G103" t="s">
-        <v>79</v>
-      </c>
-      <c r="H103" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="I103" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_QJC,R_CL_QJC_D.ttl,valid</v>
-      </c>
-      <c r="J103" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_QJC,R_CL_QJC_D.ttl,valid</v>
-      </c>
-      <c r="K103" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B104" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
       </c>
       <c r="C104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D104" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7582,10 +7705,10 @@
         <v>R_CL_QJC_E.ttl</v>
       </c>
       <c r="F104" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G104" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H104" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7593,26 +7716,26 @@
       </c>
       <c r="I104" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_QJC,R_CL_QJC_E.ttl,error</v>
+        <v>owa,R_CL_QJC,R_CL_QJC_E.ttl,warning</v>
       </c>
       <c r="J104" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_QJC,R_CL_QJC_E.ttl,error</v>
       </c>
       <c r="K104" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B105" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
       </c>
       <c r="C105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D105" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7623,10 +7746,10 @@
         <v>R_CL_QJC_F.ttl</v>
       </c>
       <c r="F105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H105" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7641,19 +7764,19 @@
         <v>cwa,R_CL_QJC,R_CL_QJC_F.ttl,error</v>
       </c>
       <c r="K105" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B106" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
       </c>
       <c r="C106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D106" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7664,10 +7787,10 @@
         <v>R_CL_QJC_G.ttl</v>
       </c>
       <c r="F106" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H106" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -7682,19 +7805,19 @@
         <v>cwa,R_CL_QJC,R_CL_QJC_G.ttl,valid</v>
       </c>
       <c r="K106" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B107" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
       </c>
       <c r="C107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D107" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7705,45 +7828,519 @@
         <v>R_CL_QJC_H.ttl</v>
       </c>
       <c r="F107" t="s">
+        <v>369</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I107" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_QJC,R_CL_QJC_H.ttl,error</v>
+      </c>
+      <c r="J107" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_QJC,R_CL_QJC_H.ttl,error</v>
+      </c>
+      <c r="K107" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B108" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C108" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_A</v>
+      </c>
+      <c r="E108" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_A.ttl</v>
+      </c>
+      <c r="F108" t="s">
+        <v>389</v>
+      </c>
+      <c r="G108" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I108" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_A.ttl,valid</v>
+      </c>
+      <c r="J108" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_A.ttl,valid</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B109" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_B</v>
+      </c>
+      <c r="E109" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_B.ttl</v>
+      </c>
+      <c r="F109" t="s">
+        <v>379</v>
+      </c>
+      <c r="G109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H109" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I109" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_B.ttl,error</v>
+      </c>
+      <c r="J109" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_B.ttl,error</v>
+      </c>
+      <c r="K109" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B110" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_C</v>
+      </c>
+      <c r="E110" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_C.ttl</v>
+      </c>
+      <c r="F110" t="s">
+        <v>380</v>
+      </c>
+      <c r="G110" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I110" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_C.ttl,valid</v>
+      </c>
+      <c r="J110" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_C.ttl,valid</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B111" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_D</v>
+      </c>
+      <c r="E111" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_D.ttl</v>
+      </c>
+      <c r="F111" t="s">
+        <v>381</v>
+      </c>
+      <c r="G111" t="s">
+        <v>73</v>
+      </c>
+      <c r="H111" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I111" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_D.ttl,error</v>
+      </c>
+      <c r="J111" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_D.ttl,error</v>
+      </c>
+      <c r="K111" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B112" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C112" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_E</v>
+      </c>
+      <c r="E112" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_E.ttl</v>
+      </c>
+      <c r="F112" t="s">
+        <v>382</v>
+      </c>
+      <c r="G112" t="s">
+        <v>78</v>
+      </c>
+      <c r="H112" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I112" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_E.ttl,valid</v>
+      </c>
+      <c r="J112" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_E.ttl,valid</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B113" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C113" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_F</v>
+      </c>
+      <c r="E113" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_F.ttl</v>
+      </c>
+      <c r="F113" t="s">
+        <v>383</v>
+      </c>
+      <c r="G113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I113" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_F.ttl,error</v>
+      </c>
+      <c r="J113" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_F.ttl,error</v>
+      </c>
+      <c r="K113" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B114" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C114" t="s">
         <v>370</v>
       </c>
-      <c r="G107" t="s">
-        <v>74</v>
-      </c>
-      <c r="H107" t="str">
+      <c r="D114" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_G</v>
+      </c>
+      <c r="E114" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_G.ttl</v>
+      </c>
+      <c r="F114" t="s">
+        <v>384</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" s="18" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I107" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_QJC,R_CL_QJC_H.ttl,error</v>
-      </c>
-      <c r="J107" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_QJC,R_CL_QJC_H.ttl,error</v>
-      </c>
-      <c r="K107" t="s">
-        <v>377</v>
+      <c r="I114" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_G.ttl,error</v>
+      </c>
+      <c r="J114" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_G.ttl,error</v>
+      </c>
+      <c r="K114" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B115" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C115" t="s">
+        <v>371</v>
+      </c>
+      <c r="D115" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_H</v>
+      </c>
+      <c r="E115" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_H.ttl</v>
+      </c>
+      <c r="F115" t="s">
+        <v>385</v>
+      </c>
+      <c r="G115" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I115" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_H.ttl,valid</v>
+      </c>
+      <c r="J115" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_H.ttl,valid</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B116" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C116" t="s">
+        <v>391</v>
+      </c>
+      <c r="D116" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_I</v>
+      </c>
+      <c r="E116" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_I.ttl</v>
+      </c>
+      <c r="F116" t="s">
+        <v>386</v>
+      </c>
+      <c r="G116" t="s">
+        <v>73</v>
+      </c>
+      <c r="H116" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I116" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_I.ttl,error</v>
+      </c>
+      <c r="J116" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_I.ttl,error</v>
+      </c>
+      <c r="K116" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B117" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C117" t="s">
+        <v>392</v>
+      </c>
+      <c r="D117" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_J</v>
+      </c>
+      <c r="E117" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_J.ttl</v>
+      </c>
+      <c r="F117" t="s">
+        <v>387</v>
+      </c>
+      <c r="G117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I117" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_J.ttl,error</v>
+      </c>
+      <c r="J117" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_J.ttl,error</v>
+      </c>
+      <c r="K117" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B118" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C118" t="s">
+        <v>393</v>
+      </c>
+      <c r="D118" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_K</v>
+      </c>
+      <c r="E118" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_K.ttl</v>
+      </c>
+      <c r="F118" t="s">
+        <v>388</v>
+      </c>
+      <c r="G118" t="s">
+        <v>78</v>
+      </c>
+      <c r="H118" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I118" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_K.ttl,valid</v>
+      </c>
+      <c r="J118" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_K.ttl,valid</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B119" s="18" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>No class can have one of its subclasses as its superclasses.</v>
+      </c>
+      <c r="C119" t="s">
+        <v>395</v>
+      </c>
+      <c r="D119" s="19" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EGT_L</v>
+      </c>
+      <c r="E119" s="18" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EGT_L.ttl</v>
+      </c>
+      <c r="F119" t="s">
+        <v>394</v>
+      </c>
+      <c r="G119" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119" s="18" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I119" s="18" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EGT,R_CL_EGT_L.ttl,error</v>
+      </c>
+      <c r="J119" s="18" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EGT,R_CL_EGT_L.ttl,error</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E107">
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H252">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="G2:H254">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2:E119">
+    <cfRule type="duplicateValues" dxfId="3" priority="37"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H107" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H119" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
       <formula1>"Valid,Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7771,74 +8368,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" t="s">
         <v>349</v>
-      </c>
-      <c r="B2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA43FFD-8E68-4D37-A338-20182A5B8AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A019468-DD42-4025-BD09-D981676755CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="401">
   <si>
     <t>Description</t>
   </si>
@@ -826,9 +826,6 @@
     <t>SQU</t>
   </si>
   <si>
-    <t>ANJ</t>
-  </si>
-  <si>
     <t>JMQ</t>
   </si>
   <si>
@@ -1087,9 +1084,6 @@
     <t>abstract, datatype, enumeration</t>
   </si>
   <si>
-    <t>Every class decorated with an stereotype in the ABSTRACT LIST must have the tagged value "restrictedTo" set to an array containing the value [ "abstract" ].</t>
-  </si>
-  <si>
     <t>No generalization can connect a general class decorated with a sortal stereotype to a specific class decorated with a non-sortal stereotype.</t>
   </si>
   <si>
@@ -1120,9 +1114,6 @@
     <t>mixin</t>
   </si>
   <si>
-    <t>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</t>
-  </si>
-  <si>
     <t>Stereotype not set without tagged value</t>
   </si>
   <si>
@@ -1223,6 +1214,30 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, situation to situation, abstract to abstract, enumeration to abstract, and datatype to abstract.</t>
+  </si>
+  <si>
+    <t>R_CL_EMV</t>
+  </si>
+  <si>
+    <t>Stereotype without tagged value</t>
+  </si>
+  <si>
+    <t>Stereotype with single valid tagged value</t>
+  </si>
+  <si>
+    <t>Stereotype with two valid tagged values</t>
+  </si>
+  <si>
+    <t>Stereotype with two invalid tagged values</t>
+  </si>
+  <si>
+    <t>Stereotype with one valid and one invalid tagged values</t>
+  </si>
+  <si>
+    <t>Stereotype with single invalid tagged value</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1375,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1405,55 +1420,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1481,36 +1454,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1759,62 +1702,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D71" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:D71" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
-    <sortCondition ref="A2:A71"/>
-    <sortCondition ref="D2:D71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D70" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:D70" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
+    <sortCondition ref="A2:A70"/>
+    <sortCondition ref="D2:D70"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="20">
       <calculatedColumnFormula>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="F1:G6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="F1:G6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="F1:G6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K119" totalsRowShown="0">
-  <autoFilter ref="A1:K119" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}" name="TabImp" displayName="TabImp" ref="A1:K127" totalsRowShown="0">
+  <autoFilter ref="A1:K127" xr:uid="{677213A8-3C35-46A4-83EE-9953AF366E80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
     <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{5662254C-D4AB-4E75-B315-CAFCAA30EDF4}" name="Rule Code" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{65D02219-A7C8-4BC4-BE70-FC12D26642C7}" name="Rule Description" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39BF0221-09C6-4746-A9C6-D71D4B6C7533}" name="Situation"/>
-    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{FE3246A6-E21A-441F-A08A-12268F822A02}" name="Situation Code" dataDxfId="12">
       <calculatedColumnFormula>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{ED1E7C03-7BE4-4AD0-867B-6CF8D46CE033}" name="Test File" dataDxfId="11">
       <calculatedColumnFormula>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F491E82A-09B4-4B22-AA08-7E6DFD336A64}" name="Situation Description"/>
     <tableColumn id="4" xr3:uid="{92BCF063-80EB-4A9C-AA1A-6F95CC9435A7}" name="OWA Level"/>
-    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{DB4F2106-6953-489A-AB24-1163C09441FE}" name="CWA Level" dataDxfId="10">
       <calculatedColumnFormula>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{E91C3898-466B-4A4C-8CF6-E0B90D5094B2}" name="Test OWA Entry" dataDxfId="9">
       <calculatedColumnFormula>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{D99049E8-95AA-440A-B6C3-AB032C08C4B8}" name="Test CWA Entry" dataDxfId="8">
       <calculatedColumnFormula>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9CF1643D-B8F2-452E-B29E-AD6EF72070C4}" name="Comments"/>
@@ -1830,7 +1773,7 @@
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D8098905-7B35-4419-9FF0-ABB475A5357D}" name="Stereotype List" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D8098905-7B35-4419-9FF0-ABB475A5357D}" name="Stereotype List" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F12CB8CE-6969-4083-9729-E8A90699DB57}" name="Stereotypes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2137,12 +2080,12 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G95" sqref="G95"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2238,7 @@
         <v>R_CL_LAX</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7"/>
@@ -2312,7 +2255,7 @@
         <v>R_CL_ZGT</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2327,7 +2270,7 @@
         <v>R_CL_ASZ</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2342,7 +2285,7 @@
         <v>R_CL_YOK</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2357,7 +2300,7 @@
         <v>R_CL_QJC</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>244</v>
@@ -2413,14 +2356,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ANJ</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>350</v>
+        <v>R_CL_XJZ</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2428,14 +2371,14 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_XJZ</v>
+        <v>R_CL_JOJ</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2443,14 +2386,14 @@
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JOJ</v>
+        <v>R_CL_GJU</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2458,14 +2401,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GJU</v>
+        <v>R_CL_BWZ</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2473,14 +2416,14 @@
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BWZ</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>2</v>
+        <v>R_CL_JMQ</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2492,10 +2435,10 @@
       </c>
       <c r="C20" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JMQ</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>14</v>
+        <v>R_CL_EMV</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2507,10 +2450,10 @@
       </c>
       <c r="C21" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_EMV</v>
+        <v>R_CL_QOV</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>9</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2522,10 +2465,10 @@
       </c>
       <c r="C22" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_QOV</v>
+        <v>R_CL_JFW</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>357</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2537,10 +2480,10 @@
       </c>
       <c r="C23" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_JFW</v>
+        <v>R_CL_UTL</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2552,10 +2495,10 @@
       </c>
       <c r="C24" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_UTL</v>
+        <v>R_CL_VPE</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2567,10 +2510,10 @@
       </c>
       <c r="C25" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_VPE</v>
+        <v>R_CL_BFO</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2582,10 +2525,10 @@
       </c>
       <c r="C26" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BFO</v>
+        <v>R_CL_VOQ</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2597,10 +2540,10 @@
       </c>
       <c r="C27" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_VOQ</v>
+        <v>R_CL_GAZ</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2612,10 +2555,10 @@
       </c>
       <c r="C28" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_GAZ</v>
+        <v>R_CL_BQI</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2623,14 +2566,14 @@
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_BQI</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>7</v>
+        <v>R_CL_UMC</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2638,14 +2581,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_UMC</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>98</v>
+        <v>R_CL_OEV</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2657,10 +2600,10 @@
       </c>
       <c r="C31" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_OEV</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>20</v>
+        <v>R_CL_EGT</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2672,25 +2615,25 @@
       </c>
       <c r="C32" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_EGT</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>377</v>
+        <v>R_CL_ANY</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>276</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_CL_ANY</v>
+        <v>R_GE_XRS</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2702,10 +2645,10 @@
       </c>
       <c r="C34" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_XRS</v>
+        <v>R_GE_MDR</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2717,10 +2660,10 @@
       </c>
       <c r="C35" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_MDR</v>
+        <v>R_GE_BAK</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2732,10 +2675,10 @@
       </c>
       <c r="C36" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_BAK</v>
+        <v>R_GE_JLW</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2747,10 +2690,10 @@
       </c>
       <c r="C37" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_JLW</v>
+        <v>R_GE_VEZ</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2762,10 +2705,10 @@
       </c>
       <c r="C38" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_VEZ</v>
+        <v>R_GE_IJM</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2777,10 +2720,10 @@
       </c>
       <c r="C39" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_IJM</v>
+        <v>R_GE_UXR</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2792,10 +2735,10 @@
       </c>
       <c r="C40" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_UXR</v>
+        <v>R_GE_HGQ</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2807,10 +2750,10 @@
       </c>
       <c r="C41" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_HGQ</v>
+        <v>R_GE_EPG</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2822,10 +2765,10 @@
       </c>
       <c r="C42" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_EPG</v>
+        <v>R_GE_MXI</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2837,25 +2780,25 @@
       </c>
       <c r="C43" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_MXI</v>
+        <v>R_GE_HPZ</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GE_HPZ</v>
+        <v>R_GS_LHD</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2867,10 +2810,10 @@
       </c>
       <c r="C45" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_LHD</v>
+        <v>R_GS_PQP</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2882,10 +2825,10 @@
       </c>
       <c r="C46" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_PQP</v>
+        <v>R_GS_UTW</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2897,10 +2840,10 @@
       </c>
       <c r="C47" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_UTW</v>
+        <v>R_GS_YKW</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2912,10 +2855,10 @@
       </c>
       <c r="C48" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_YKW</v>
+        <v>R_GS_XXB</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2927,25 +2870,25 @@
       </c>
       <c r="C49" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_XXB</v>
+        <v>R_GS_ZMQ</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_GS_ZMQ</v>
+        <v>R_PR_BWY</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2957,25 +2900,25 @@
       </c>
       <c r="C51" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_PR_BWY</v>
+        <v>R_PR_LCI</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>295</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_PR_LCI</v>
+        <v>R_RE_AZO</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2987,10 +2930,10 @@
       </c>
       <c r="C53" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_AZO</v>
+        <v>R_RE_ECP</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3002,10 +2945,10 @@
       </c>
       <c r="C54" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_ECP</v>
+        <v>R_RE_FIX</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3017,10 +2960,10 @@
       </c>
       <c r="C55" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_FIX</v>
+        <v>R_RE_HGG</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3032,10 +2975,10 @@
       </c>
       <c r="C56" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_HGG</v>
+        <v>R_RE_VDQ</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3047,10 +2990,10 @@
       </c>
       <c r="C57" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_VDQ</v>
+        <v>R_RE_VMI</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3062,10 +3005,10 @@
       </c>
       <c r="C58" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_VMI</v>
+        <v>R_RE_ALR</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3077,10 +3020,10 @@
       </c>
       <c r="C59" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_ALR</v>
+        <v>R_RE_SEI</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3092,10 +3035,10 @@
       </c>
       <c r="C60" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_SEI</v>
+        <v>R_RE_EAQ</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3107,10 +3050,10 @@
       </c>
       <c r="C61" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_EAQ</v>
+        <v>R_RE_CDJ</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3122,10 +3065,10 @@
       </c>
       <c r="C62" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_CDJ</v>
+        <v>R_RE_RON</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3137,10 +3080,10 @@
       </c>
       <c r="C63" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_RON</v>
+        <v>R_RE_KZC</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3152,10 +3095,10 @@
       </c>
       <c r="C64" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_KZC</v>
+        <v>R_RE_NTY</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3167,10 +3110,10 @@
       </c>
       <c r="C65" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_NTY</v>
+        <v>R_RE_UCH</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3182,10 +3125,10 @@
       </c>
       <c r="C66" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_UCH</v>
+        <v>R_RE_LQF</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3197,10 +3140,10 @@
       </c>
       <c r="C67" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_LQF</v>
+        <v>R_RE_GZN</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3212,10 +3155,10 @@
       </c>
       <c r="C68" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_GZN</v>
+        <v>R_RE_KPG</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3227,10 +3170,10 @@
       </c>
       <c r="C69" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_KPG</v>
+        <v>R_RE_GZF</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3242,57 +3185,42 @@
       </c>
       <c r="C70" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_GZF</v>
+        <v>R_RE_JND</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
-        <v>R_RE_JND</v>
-      </c>
-      <c r="D71" s="8" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="5" t="s">
-        <v>60</v>
+      <c r="D73" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D74" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="11" t="s">
-        <v>337</v>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="11" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B71">
-    <cfRule type="duplicateValues" dxfId="2" priority="38"/>
+  <conditionalFormatting sqref="B2:B70">
+    <cfRule type="duplicateValues" dxfId="6" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C71">
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  <conditionalFormatting sqref="C2:C70">
+    <cfRule type="duplicateValues" dxfId="5" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D71">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  <conditionalFormatting sqref="D2:D70">
+    <cfRule type="duplicateValues" dxfId="4" priority="47"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3308,11 +3236,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,7 +3266,7 @@
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -3367,7 +3295,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3405,7 +3333,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3443,7 +3371,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3481,7 +3409,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3519,7 +3447,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3557,7 +3485,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3595,7 +3523,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3633,7 +3561,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3674,7 +3602,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3715,7 +3643,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3756,7 +3684,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3794,7 +3722,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3832,7 +3760,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3870,7 +3798,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3908,7 +3836,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3946,7 +3874,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -3984,7 +3912,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4022,7 +3950,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4063,7 +3991,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4104,7 +4032,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4145,7 +4073,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4183,7 +4111,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4224,7 +4152,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4265,7 +4193,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4306,7 +4234,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4344,7 +4272,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4382,7 +4310,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4420,7 +4348,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4458,7 +4386,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4496,7 +4424,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4534,7 +4462,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4572,7 +4500,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4610,7 +4538,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4648,7 +4576,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4686,7 +4614,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4724,7 +4652,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4769,7 +4697,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4814,7 +4742,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4859,7 +4787,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4904,7 +4832,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4949,7 +4877,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -4994,7 +4922,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5039,7 +4967,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5084,7 +5012,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5129,7 +5057,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5174,7 +5102,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5219,7 +5147,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5264,7 +5192,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5309,7 +5237,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5354,7 +5282,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5399,7 +5327,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5444,7 +5372,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5489,7 +5417,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5534,7 +5462,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5579,7 +5507,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5624,7 +5552,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5669,7 +5597,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5714,7 +5642,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5759,7 +5687,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5804,7 +5732,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5849,7 +5777,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5894,7 +5822,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5939,7 +5867,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -5984,7 +5912,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6029,7 +5957,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6074,7 +6002,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6119,7 +6047,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6164,7 +6092,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6209,7 +6137,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6254,7 +6182,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6299,7 +6227,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6344,7 +6272,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B73" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6389,7 +6317,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6434,7 +6362,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B75" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6479,7 +6407,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6524,7 +6452,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6569,7 +6497,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6614,7 +6542,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B79" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6659,7 +6587,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B80" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6704,7 +6632,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B81" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6749,7 +6677,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B82" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6794,7 +6722,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B83" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6839,7 +6767,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B84" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6884,7 +6812,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B85" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6929,7 +6857,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B86" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -6974,7 +6902,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B87" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7019,7 +6947,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B88" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7064,7 +6992,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B89" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7109,7 +7037,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B90" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7154,7 +7082,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B91" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7199,7 +7127,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B92" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7244,7 +7172,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B93" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7289,7 +7217,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B94" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7307,7 +7235,7 @@
         <v>R_CL_YOK_A.ttl</v>
       </c>
       <c r="F94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G94" t="s">
         <v>78</v>
@@ -7327,7 +7255,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B95" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7345,7 +7273,7 @@
         <v>R_CL_YOK_B.ttl</v>
       </c>
       <c r="F95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G95" t="s">
         <v>78</v>
@@ -7365,7 +7293,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B96" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7383,7 +7311,7 @@
         <v>R_CL_YOK_C.ttl</v>
       </c>
       <c r="F96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G96" t="s">
         <v>78</v>
@@ -7401,12 +7329,12 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_C.ttl,valid</v>
       </c>
       <c r="K96" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B97" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7424,7 +7352,7 @@
         <v>R_CL_YOK_D.ttl</v>
       </c>
       <c r="F97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G97" t="s">
         <v>78</v>
@@ -7442,12 +7370,12 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_D.ttl,valid</v>
       </c>
       <c r="K97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B98" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7465,7 +7393,7 @@
         <v>R_CL_YOK_E.ttl</v>
       </c>
       <c r="F98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G98" t="s">
         <v>73</v>
@@ -7483,12 +7411,12 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_E.ttl,error</v>
       </c>
       <c r="K98" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B99" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
@@ -7506,7 +7434,7 @@
         <v>R_CL_YOK_F.ttl</v>
       </c>
       <c r="F99" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G99" t="s">
         <v>78</v>
@@ -7524,16 +7452,16 @@
         <v>cwa,R_CL_YOK,R_CL_YOK_F.ttl,valid</v>
       </c>
       <c r="K99" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B100" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, situation to situation, abstract to abstract, enumeration to abstract, and datatype to abstract.</v>
       </c>
       <c r="C100" t="s">
         <v>76</v>
@@ -7547,7 +7475,7 @@
         <v>R_CL_QJC_A.ttl</v>
       </c>
       <c r="F100" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G100" t="s">
         <v>78</v>
@@ -7567,11 +7495,11 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B101" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, situation to situation, abstract to abstract, enumeration to abstract, and datatype to abstract.</v>
       </c>
       <c r="C101" t="s">
         <v>77</v>
@@ -7585,7 +7513,7 @@
         <v>R_CL_QJC_B.ttl</v>
       </c>
       <c r="F101" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G101" t="s">
         <v>78</v>
@@ -7605,11 +7533,11 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B102" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, situation to situation, abstract to abstract, enumeration to abstract, and datatype to abstract.</v>
       </c>
       <c r="C102" t="s">
         <v>79</v>
@@ -7623,7 +7551,7 @@
         <v>R_CL_QJC_C.ttl</v>
       </c>
       <c r="F102" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G102" t="s">
         <v>78</v>
@@ -7641,16 +7569,16 @@
         <v>cwa,R_CL_QJC,R_CL_QJC_C.ttl,valid</v>
       </c>
       <c r="K102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B103" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, situation to situation, abstract to abstract, enumeration to abstract, and datatype to abstract.</v>
       </c>
       <c r="C103" t="s">
         <v>85</v>
@@ -7664,7 +7592,7 @@
         <v>R_CL_QJC_D.ttl</v>
       </c>
       <c r="F103" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G103" t="s">
         <v>78</v>
@@ -7682,16 +7610,16 @@
         <v>cwa,R_CL_QJC,R_CL_QJC_D.ttl,valid</v>
       </c>
       <c r="K103" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B104" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, situation to situation, abstract to abstract, enumeration to abstract, and datatype to abstract.</v>
       </c>
       <c r="C104" t="s">
         <v>86</v>
@@ -7705,34 +7633,34 @@
         <v>R_CL_QJC_E.ttl</v>
       </c>
       <c r="F104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G104" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H104" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="I104" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_QJC,R_CL_QJC_E.ttl,warning</v>
+        <v>owa,R_CL_QJC,R_CL_QJC_E.ttl,valid</v>
       </c>
       <c r="J104" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_QJC,R_CL_QJC_E.ttl,error</v>
+        <v>cwa,R_CL_QJC,R_CL_QJC_E.ttl,valid</v>
       </c>
       <c r="K104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B105" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, situation to situation, abstract to abstract, enumeration to abstract, and datatype to abstract.</v>
       </c>
       <c r="C105" t="s">
         <v>87</v>
@@ -7746,7 +7674,7 @@
         <v>R_CL_QJC_F.ttl</v>
       </c>
       <c r="F105" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G105" t="s">
         <v>73</v>
@@ -7764,19 +7692,19 @@
         <v>cwa,R_CL_QJC,R_CL_QJC_F.ttl,error</v>
       </c>
       <c r="K105" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B106" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, situation to situation, abstract to abstract, enumeration to abstract, and datatype to abstract.</v>
       </c>
       <c r="C106" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D106" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7787,7 +7715,7 @@
         <v>R_CL_QJC_G.ttl</v>
       </c>
       <c r="F106" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G106" t="s">
         <v>78</v>
@@ -7805,19 +7733,19 @@
         <v>cwa,R_CL_QJC,R_CL_QJC_G.ttl,valid</v>
       </c>
       <c r="K106" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B107" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
-        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, and situation to situation.</v>
+        <v>Each class with one of the following stereotypes must exclusively map to the corresponding 'restrictedTo' value: collective to collective, event to event, kind to functional-complex, quality to quality, quantity to quantity, relator to relator, situation to situation, abstract to abstract, enumeration to abstract, and datatype to abstract.</v>
       </c>
       <c r="C107" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D107" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -7828,7 +7756,7 @@
         <v>R_CL_QJC_H.ttl</v>
       </c>
       <c r="F107" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G107" t="s">
         <v>73</v>
@@ -7846,501 +7774,805 @@
         <v>cwa,R_CL_QJC,R_CL_QJC_H.ttl,error</v>
       </c>
       <c r="K107" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B108" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B108" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C108" t="s">
         <v>76</v>
       </c>
-      <c r="D108" s="19" t="str">
+      <c r="D108" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_A</v>
       </c>
-      <c r="E108" s="18" t="str">
+      <c r="E108" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_A.ttl</v>
       </c>
       <c r="F108" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G108" t="s">
         <v>78</v>
       </c>
-      <c r="H108" s="18" t="str">
+      <c r="H108" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I108" s="18" t="str">
+      <c r="I108" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_A.ttl,valid</v>
       </c>
-      <c r="J108" s="18" t="str">
+      <c r="J108" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_A.ttl,valid</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B109" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B109" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C109" t="s">
         <v>77</v>
       </c>
-      <c r="D109" s="19" t="str">
+      <c r="D109" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_B</v>
       </c>
-      <c r="E109" s="18" t="str">
+      <c r="E109" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_B.ttl</v>
       </c>
       <c r="F109" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G109" t="s">
         <v>73</v>
       </c>
-      <c r="H109" s="18" t="str">
+      <c r="H109" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I109" s="18" t="str">
+      <c r="I109" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_B.ttl,error</v>
       </c>
-      <c r="J109" s="18" t="str">
+      <c r="J109" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_B.ttl,error</v>
       </c>
       <c r="K109" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B110" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B110" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C110" t="s">
         <v>79</v>
       </c>
-      <c r="D110" s="19" t="str">
+      <c r="D110" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_C</v>
       </c>
-      <c r="E110" s="18" t="str">
+      <c r="E110" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_C.ttl</v>
       </c>
       <c r="F110" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G110" t="s">
         <v>78</v>
       </c>
-      <c r="H110" s="18" t="str">
+      <c r="H110" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I110" s="18" t="str">
+      <c r="I110" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_C.ttl,valid</v>
       </c>
-      <c r="J110" s="18" t="str">
+      <c r="J110" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_C.ttl,valid</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B111" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B111" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C111" t="s">
         <v>85</v>
       </c>
-      <c r="D111" s="19" t="str">
+      <c r="D111" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_D</v>
       </c>
-      <c r="E111" s="18" t="str">
+      <c r="E111" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_D.ttl</v>
       </c>
       <c r="F111" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G111" t="s">
         <v>73</v>
       </c>
-      <c r="H111" s="18" t="str">
+      <c r="H111" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I111" s="18" t="str">
+      <c r="I111" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_D.ttl,error</v>
       </c>
-      <c r="J111" s="18" t="str">
+      <c r="J111" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_D.ttl,error</v>
       </c>
       <c r="K111" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B112" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B112" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C112" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="19" t="str">
+      <c r="D112" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_E</v>
       </c>
-      <c r="E112" s="18" t="str">
+      <c r="E112" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_E.ttl</v>
       </c>
       <c r="F112" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G112" t="s">
         <v>78</v>
       </c>
-      <c r="H112" s="18" t="str">
+      <c r="H112" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I112" s="18" t="str">
+      <c r="I112" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_E.ttl,valid</v>
       </c>
-      <c r="J112" s="18" t="str">
+      <c r="J112" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_E.ttl,valid</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B113" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B113" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C113" t="s">
         <v>87</v>
       </c>
-      <c r="D113" s="19" t="str">
+      <c r="D113" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_F</v>
       </c>
-      <c r="E113" s="18" t="str">
+      <c r="E113" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_F.ttl</v>
       </c>
       <c r="F113" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G113" t="s">
         <v>73</v>
       </c>
-      <c r="H113" s="18" t="str">
+      <c r="H113" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I113" s="18" t="str">
+      <c r="I113" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_F.ttl,error</v>
       </c>
-      <c r="J113" s="18" t="str">
+      <c r="J113" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_F.ttl,error</v>
       </c>
       <c r="K113" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B114" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B114" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C114" t="s">
-        <v>370</v>
-      </c>
-      <c r="D114" s="19" t="str">
+        <v>367</v>
+      </c>
+      <c r="D114" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_G</v>
       </c>
-      <c r="E114" s="18" t="str">
+      <c r="E114" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_G.ttl</v>
       </c>
       <c r="F114" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G114" t="s">
         <v>73</v>
       </c>
-      <c r="H114" s="18" t="str">
+      <c r="H114" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I114" s="18" t="str">
+      <c r="I114" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_G.ttl,error</v>
       </c>
-      <c r="J114" s="18" t="str">
+      <c r="J114" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_G.ttl,error</v>
       </c>
       <c r="K114" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B115" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B115" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C115" t="s">
-        <v>371</v>
-      </c>
-      <c r="D115" s="19" t="str">
+        <v>368</v>
+      </c>
+      <c r="D115" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_H</v>
       </c>
-      <c r="E115" s="18" t="str">
+      <c r="E115" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_H.ttl</v>
       </c>
       <c r="F115" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G115" t="s">
         <v>78</v>
       </c>
-      <c r="H115" s="18" t="str">
+      <c r="H115" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I115" s="18" t="str">
+      <c r="I115" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_H.ttl,valid</v>
       </c>
-      <c r="J115" s="18" t="str">
+      <c r="J115" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_H.ttl,valid</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B116" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B116" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C116" t="s">
-        <v>391</v>
-      </c>
-      <c r="D116" s="19" t="str">
+        <v>388</v>
+      </c>
+      <c r="D116" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_I</v>
       </c>
-      <c r="E116" s="18" t="str">
+      <c r="E116" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_I.ttl</v>
       </c>
       <c r="F116" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G116" t="s">
         <v>73</v>
       </c>
-      <c r="H116" s="18" t="str">
+      <c r="H116" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I116" s="18" t="str">
+      <c r="I116" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_I.ttl,error</v>
       </c>
-      <c r="J116" s="18" t="str">
+      <c r="J116" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_I.ttl,error</v>
       </c>
       <c r="K116" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B117" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B117" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C117" t="s">
-        <v>392</v>
-      </c>
-      <c r="D117" s="19" t="str">
+        <v>389</v>
+      </c>
+      <c r="D117" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_J</v>
       </c>
-      <c r="E117" s="18" t="str">
+      <c r="E117" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_J.ttl</v>
       </c>
       <c r="F117" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G117" t="s">
         <v>73</v>
       </c>
-      <c r="H117" s="18" t="str">
+      <c r="H117" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I117" s="18" t="str">
+      <c r="I117" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_J.ttl,error</v>
       </c>
-      <c r="J117" s="18" t="str">
+      <c r="J117" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_J.ttl,error</v>
       </c>
       <c r="K117" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B118" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B118" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C118" t="s">
-        <v>393</v>
-      </c>
-      <c r="D118" s="19" t="str">
+        <v>390</v>
+      </c>
+      <c r="D118" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_K</v>
       </c>
-      <c r="E118" s="18" t="str">
+      <c r="E118" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_K.ttl</v>
       </c>
       <c r="F118" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G118" t="s">
         <v>78</v>
       </c>
-      <c r="H118" s="18" t="str">
+      <c r="H118" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Valid</v>
       </c>
-      <c r="I118" s="18" t="str">
+      <c r="I118" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_K.ttl,valid</v>
       </c>
-      <c r="J118" s="18" t="str">
+      <c r="J118" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_K.ttl,valid</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B119" s="18" t="str">
+        <v>375</v>
+      </c>
+      <c r="B119" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>No class can have one of its subclasses as its superclasses.</v>
       </c>
       <c r="C119" t="s">
-        <v>395</v>
-      </c>
-      <c r="D119" s="19" t="str">
+        <v>392</v>
+      </c>
+      <c r="D119" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
         <v>R_CL_EGT_L</v>
       </c>
-      <c r="E119" s="18" t="str">
+      <c r="E119" t="str">
         <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
         <v>R_CL_EGT_L.ttl</v>
       </c>
       <c r="F119" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G119" t="s">
         <v>73</v>
       </c>
-      <c r="H119" s="18" t="str">
+      <c r="H119" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
         <v>Error</v>
       </c>
-      <c r="I119" s="18" t="str">
+      <c r="I119" t="str">
         <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
         <v>owa,R_CL_EGT,R_CL_EGT_L.ttl,error</v>
       </c>
-      <c r="J119" s="18" t="str">
+      <c r="J119" t="str">
         <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
         <v>cwa,R_CL_EGT,R_CL_EGT_L.ttl,error</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B120" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must have the tagged value "restrictedTo" set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "event", "situation", "abstract", "type" ].</v>
+      </c>
+      <c r="C120" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EMV_A</v>
+      </c>
+      <c r="E120" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EMV_A.ttl</v>
+      </c>
+      <c r="F120" t="s">
+        <v>359</v>
+      </c>
+      <c r="G120" t="s">
+        <v>78</v>
+      </c>
+      <c r="H120" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I120" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EMV,R_CL_EMV_A.ttl,valid</v>
+      </c>
+      <c r="J120" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EMV,R_CL_EMV_A.ttl,valid</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B121" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must have the tagged value "restrictedTo" set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "event", "situation", "abstract", "type" ].</v>
+      </c>
+      <c r="C121" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EMV_B</v>
+      </c>
+      <c r="E121" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EMV_B.ttl</v>
+      </c>
+      <c r="F121" t="s">
+        <v>360</v>
+      </c>
+      <c r="G121" t="s">
+        <v>78</v>
+      </c>
+      <c r="H121" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I121" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EMV,R_CL_EMV_B.ttl,valid</v>
+      </c>
+      <c r="J121" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EMV,R_CL_EMV_B.ttl,valid</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B122" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must have the tagged value "restrictedTo" set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "event", "situation", "abstract", "type" ].</v>
+      </c>
+      <c r="C122" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EMV_C</v>
+      </c>
+      <c r="E122" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EMV_C.ttl</v>
+      </c>
+      <c r="F122" t="s">
+        <v>395</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I122" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EMV,R_CL_EMV_C.ttl,warning</v>
+      </c>
+      <c r="J122" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EMV,R_CL_EMV_C.ttl,error</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B123" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must have the tagged value "restrictedTo" set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "event", "situation", "abstract", "type" ].</v>
+      </c>
+      <c r="C123" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EMV_D</v>
+      </c>
+      <c r="E123" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EMV_D.ttl</v>
+      </c>
+      <c r="F123" t="s">
+        <v>400</v>
+      </c>
+      <c r="G123" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I123" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EMV,R_CL_EMV_D.ttl,error</v>
+      </c>
+      <c r="J123" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EMV,R_CL_EMV_D.ttl,error</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B124" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must have the tagged value "restrictedTo" set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "event", "situation", "abstract", "type" ].</v>
+      </c>
+      <c r="C124" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EMV_E</v>
+      </c>
+      <c r="E124" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EMV_E.ttl</v>
+      </c>
+      <c r="F124" t="s">
+        <v>396</v>
+      </c>
+      <c r="G124" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I124" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EMV,R_CL_EMV_E.ttl,valid</v>
+      </c>
+      <c r="J124" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EMV,R_CL_EMV_E.ttl,valid</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B125" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must have the tagged value "restrictedTo" set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "event", "situation", "abstract", "type" ].</v>
+      </c>
+      <c r="C125" t="s">
+        <v>87</v>
+      </c>
+      <c r="D125" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EMV_F</v>
+      </c>
+      <c r="E125" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EMV_F.ttl</v>
+      </c>
+      <c r="F125" t="s">
+        <v>398</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I125" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EMV,R_CL_EMV_F.ttl,error</v>
+      </c>
+      <c r="J125" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EMV,R_CL_EMV_F.ttl,error</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B126" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must have the tagged value "restrictedTo" set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "event", "situation", "abstract", "type" ].</v>
+      </c>
+      <c r="C126" t="s">
+        <v>367</v>
+      </c>
+      <c r="D126" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EMV_G</v>
+      </c>
+      <c r="E126" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EMV_G.ttl</v>
+      </c>
+      <c r="F126" t="s">
+        <v>397</v>
+      </c>
+      <c r="G126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="I126" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EMV,R_CL_EMV_G.ttl,valid</v>
+      </c>
+      <c r="J126" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EMV,R_CL_EMV_G.ttl,valid</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B127" t="str">
+        <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
+        <v>Every class must have the tagged value "restrictedTo" set to one or more values in the list [ "functional-complex", "collective", "quantity", "relator", "intrinsic-mode", "extrinsic-mode", "quality", "event", "situation", "abstract", "type" ].</v>
+      </c>
+      <c r="C127" t="s">
+        <v>368</v>
+      </c>
+      <c r="D127" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_EMV_H</v>
+      </c>
+      <c r="E127" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_EMV_H.ttl</v>
+      </c>
+      <c r="F127" t="s">
+        <v>399</v>
+      </c>
+      <c r="G127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H127" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I127" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_EMV,R_CL_EMV_H.ttl,error</v>
+      </c>
+      <c r="J127" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_EMV,R_CL_EMV_H.ttl,error</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="D2:E127">
+    <cfRule type="duplicateValues" dxfId="3" priority="48"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2:H254">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E119">
-    <cfRule type="duplicateValues" dxfId="3" priority="37"/>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H119" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H127" xr:uid="{88F4C713-6BF6-49A8-982F-7D1643817146}">
       <formula1>"Valid,Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8357,7 +8589,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8368,74 +8600,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
         <v>348</v>
-      </c>
-      <c r="B2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" t="s">
         <v>354</v>
-      </c>
-      <c r="B3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/resources/OntoUML Rules.xlsx
+++ b/resources/OntoUML Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FavatoBarcelosPP\Dev\ontouml-validator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A019468-DD42-4025-BD09-D981676755CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18D729B-8477-4D7E-A07F-C5FCAB82351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="398">
   <si>
     <t>Description</t>
   </si>
@@ -217,9 +217,6 @@
     <t>The target's cardinality of the instantiation relation between the general class and the categorizer must not have an upper bound "1" if the generalization set is overlapping (or covering).</t>
   </si>
   <si>
-    <t>remove isExtensional: use metaproperty isReadOnly</t>
-  </si>
-  <si>
     <t>OWA Level</t>
   </si>
   <si>
@@ -238,12 +235,6 @@
     <t>GS</t>
   </si>
   <si>
-    <t>phases must occur in partition sets</t>
-  </si>
-  <si>
-    <t>phaseMixins must occur in partition sets</t>
-  </si>
-  <si>
     <t>Rule Code</t>
   </si>
   <si>
@@ -1045,9 +1036,6 @@
     <t>NON-SORTAL</t>
   </si>
   <si>
-    <t>ULTIMATE SORTALs do not specialize ULTIMATE SORTALs</t>
-  </si>
-  <si>
     <t>No generalization can connect a general class decorated with a ULTIMATE SORTAL stereotype  to a specific class decorated with a ULTIMATE SORTAL stereotype.</t>
   </si>
   <si>
@@ -1238,6 +1226,9 @@
   </si>
   <si>
     <t>Stereotype with single invalid tagged value</t>
+  </si>
+  <si>
+    <t>SPARQL QUERY</t>
   </si>
 </sst>
 </file>
@@ -1702,27 +1693,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:D70" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:D70" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}" name="TabRules" displayName="TabRules" ref="A1:E70" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:E70" xr:uid="{198E5AA4-A716-476C-94EA-BE3270ADAC25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
     <sortCondition ref="A2:A70"/>
     <sortCondition ref="D2:D70"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F9D36F48-DD19-43E5-A1AB-8357F96419FF}" name="Group" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{050EF7A6-273B-408D-B0A1-784D6DF4A5AB}" name="ID" dataDxfId="21"/>
     <tableColumn id="7" xr3:uid="{05F466FD-E5DB-4DED-979E-C9E29087B8F6}" name="Rule Code" dataDxfId="20">
       <calculatedColumnFormula>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{70BA6684-6E4A-40D9-BE42-830C46F4D6A9}" name="Description" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{945DDEA8-8356-4B40-A2BA-A40C980BD334}" name="SPARQL QUERY" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="F1:G6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="F1:G6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}" name="TabGroups" displayName="TabGroups" ref="G1:H6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="G1:H6" xr:uid="{3D8A1ADE-544A-443A-AF20-52BBCA41FA15}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2E543EF0-9E26-4478-A5D0-A70AC90899EE}" name="Group" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{2A3CE154-AB6B-45C3-B5E2-2E1AC49C63C7}" name="Group Code" dataDxfId="15"/>
@@ -2080,95 +2072,101 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G95" sqref="G95"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="5" width="255.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="20.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>100</v>
+      <c r="E1" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_EDA</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2"/>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_AIB</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3"/>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2177,19 +2175,20 @@
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4"/>
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2198,19 +2197,20 @@
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5"/>
+      <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2219,99 +2219,105 @@
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6"/>
+      <c r="G6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_LAX</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="E7"/>
+      <c r="G7" s="1"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_ZGT</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_ASZ</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_YOK</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_QJC</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="E11"/>
+      <c r="G11" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2320,13 +2326,14 @@
       <c r="D12" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2335,13 +2342,14 @@
       <c r="D13" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2350,13 +2358,14 @@
       <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2365,43 +2374,46 @@
       <c r="D15" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_JOJ</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_GJU</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2410,13 +2422,14 @@
       <c r="D18" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2425,13 +2438,14 @@
       <c r="D19" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2440,28 +2454,30 @@
       <c r="D20" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_QOV</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2470,13 +2486,14 @@
       <c r="D22" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2485,13 +2502,14 @@
       <c r="D23" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2500,13 +2518,14 @@
       <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2515,13 +2534,14 @@
       <c r="D25" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2530,13 +2550,14 @@
       <c r="D26" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2545,13 +2566,14 @@
       <c r="D27" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2560,28 +2582,30 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_UMC</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2590,28 +2614,30 @@
       <c r="D30" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_CL_EGT</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2620,13 +2646,14 @@
       <c r="D32" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2635,13 +2662,14 @@
       <c r="D33" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2650,13 +2678,14 @@
       <c r="D34" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2665,13 +2694,14 @@
       <c r="D35" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2680,13 +2710,14 @@
       <c r="D36" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2695,13 +2726,14 @@
       <c r="D37" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2710,13 +2742,14 @@
       <c r="D38" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2725,58 +2758,62 @@
       <c r="D39" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_HGQ</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_EPG</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
         <v>R_GE_MXI</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2785,13 +2822,14 @@
       <c r="D43" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2800,13 +2838,14 @@
       <c r="D44" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2815,13 +2854,14 @@
       <c r="D45" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2830,13 +2870,14 @@
       <c r="D46" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2845,13 +2886,14 @@
       <c r="D47" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2860,13 +2902,14 @@
       <c r="D48" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2875,13 +2918,14 @@
       <c r="D49" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2890,13 +2934,14 @@
       <c r="D50" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2905,13 +2950,14 @@
       <c r="D51" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2920,13 +2966,14 @@
       <c r="D52" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2935,13 +2982,14 @@
       <c r="D53" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2950,13 +2998,14 @@
       <c r="D54" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2965,13 +3014,14 @@
       <c r="D55" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2980,13 +3030,14 @@
       <c r="D56" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -2995,13 +3046,14 @@
       <c r="D57" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3010,13 +3062,14 @@
       <c r="D58" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3025,13 +3078,14 @@
       <c r="D59" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3040,13 +3094,14 @@
       <c r="D60" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3055,13 +3110,14 @@
       <c r="D61" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3070,13 +3126,14 @@
       <c r="D62" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3085,13 +3142,14 @@
       <c r="D63" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3100,13 +3158,14 @@
       <c r="D64" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3115,13 +3174,14 @@
       <c r="D65" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3130,13 +3190,14 @@
       <c r="D66" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3145,13 +3206,14 @@
       <c r="D67" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3160,13 +3222,14 @@
       <c r="D68" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3175,13 +3238,14 @@
       <c r="D69" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>"R_"&amp;VLOOKUP(TabRules[[#This Row],[Group]],TabGroups[#All],2,FALSE)&amp;"_"&amp;TabRules[[#This Row],[ID]]</f>
@@ -3190,26 +3254,22 @@
       <c r="D70" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="11" t="s">
-        <v>336</v>
-      </c>
+      <c r="E70"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="11"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3219,7 +3279,7 @@
   <conditionalFormatting sqref="C2:C70">
     <cfRule type="duplicateValues" dxfId="5" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D70">
+  <conditionalFormatting sqref="D2:E70">
     <cfRule type="duplicateValues" dxfId="4" priority="47"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3260,49 +3320,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3313,10 +3373,10 @@
         <v>R_CL_AIB_A.ttl</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H2" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3333,14 +3393,14 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3351,10 +3411,10 @@
         <v>R_CL_AIB_B.ttl</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H3" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3371,14 +3431,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3389,10 +3449,10 @@
         <v>R_CL_AIB_C.ttl</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3409,14 +3469,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes cannot be specialized by other classes.</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3427,10 +3487,10 @@
         <v>R_CL_AIB_D.ttl</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H5" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3447,14 +3507,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3465,10 +3525,10 @@
         <v>R_CL_BWZ_A.ttl</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H6" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3485,28 +3545,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_BWZ_B</v>
+      </c>
+      <c r="E7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_BWZ_B.ttl</v>
+      </c>
+      <c r="F7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_BWZ_B</v>
-      </c>
-      <c r="E7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_BWZ_B.ttl</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H7" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3523,14 +3583,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3541,10 +3601,10 @@
         <v>R_CL_BWZ_C.ttl</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3561,14 +3621,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3579,10 +3639,10 @@
         <v>R_CL_BWZ_D.ttl</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3597,19 +3657,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_D.ttl,error</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3620,10 +3680,10 @@
         <v>R_CL_BWZ_E.ttl</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3638,19 +3698,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_E.ttl,valid</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with stereotypes of the OntoUML profile.</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3661,10 +3721,10 @@
         <v>R_CL_BWZ_F.ttl</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3679,19 +3739,19 @@
         <v>cwa,R_CL_BWZ,R_CL_BWZ_F.ttl,error</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3702,10 +3762,10 @@
         <v>R_CL_EDA_A.ttl</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H12" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3722,14 +3782,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3740,10 +3800,10 @@
         <v>R_CL_EDA_B.ttl</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3760,14 +3820,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3778,10 +3838,10 @@
         <v>R_CL_EDA_C.ttl</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H14" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3798,14 +3858,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Enumeration classes can only be generalized by classes with stereotype Abstract.</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3816,10 +3876,10 @@
         <v>R_CL_EDA_D.ttl</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H15" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3836,14 +3896,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3854,10 +3914,10 @@
         <v>R_CL_GJU_A.ttl</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H16" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3874,28 +3934,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_GJU_B</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_GJU_B.ttl</v>
+      </c>
+      <c r="F17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="13" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_GJU_B</v>
-      </c>
-      <c r="E17" s="7" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_GJU_B.ttl</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
-      </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H17" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3912,14 +3972,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" s="13" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3930,10 +3990,10 @@
         <v>R_CL_GJU_C.ttl</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H18" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3950,14 +4010,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -3968,10 +4028,10 @@
         <v>R_CL_GJU_D.ttl</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -3986,19 +4046,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_D.ttl,error</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4009,10 +4069,10 @@
         <v>R_CL_GJU_E.ttl</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H20" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4027,19 +4087,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_E.ttl,error</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class must be decorated with exactly one stereotype.</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4050,10 +4110,10 @@
         <v>R_CL_GJU_F.ttl</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H21" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4068,19 +4128,19 @@
         <v>cwa,R_CL_GJU,R_CL_GJU_F.ttl,error</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4091,10 +4151,10 @@
         <v>R_CL_JOJ_A.ttl</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H22" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4111,14 +4171,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4129,10 +4189,10 @@
         <v>R_CL_JOJ_B.ttl</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H23" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4147,19 +4207,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_B.ttl,error</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4170,10 +4230,10 @@
         <v>R_CL_JOJ_C.ttl</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H24" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4188,19 +4248,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_C.ttl,valid</v>
       </c>
       <c r="K24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D25" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4211,10 +4271,10 @@
         <v>R_CL_JOJ_D.ttl</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H25" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4229,19 +4289,19 @@
         <v>cwa,R_CL_JOJ,R_CL_JOJ_D.ttl,error</v>
       </c>
       <c r="K25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4252,10 +4312,10 @@
         <v>R_CL_JOJ_E.ttl</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H26" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4272,14 +4332,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class having enumeration literals must be decorated with the stereotype enumeration.</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4290,10 +4350,10 @@
         <v>R_CL_JOJ_F.ttl</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H27" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4310,14 +4370,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4328,10 +4388,10 @@
         <v>R_CL_UMC_A.ttl</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H28" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4348,14 +4408,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D29" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4366,10 +4426,10 @@
         <v>R_CL_UMC_B.ttl</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H29" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4386,14 +4446,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every enumeration class must have at least two literals.</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D30" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4404,10 +4464,10 @@
         <v>R_CL_UMC_C.ttl</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H30" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4424,14 +4484,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4442,10 +4502,10 @@
         <v>R_CL_XJZ_A.ttl</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H31" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4462,14 +4522,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D32" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4480,10 +4540,10 @@
         <v>R_CL_XJZ_B.ttl</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H32" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4500,14 +4560,14 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D33" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4518,10 +4578,10 @@
         <v>R_CL_XJZ_C.ttl</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H33" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4538,14 +4598,14 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D34" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4556,10 +4616,10 @@
         <v>R_CL_XJZ_D.ttl</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H34" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4576,14 +4636,14 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D35" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4594,10 +4654,10 @@
         <v>R_CL_XJZ_E.ttl</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H35" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4614,14 +4674,14 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with the stereotype «enumeration» must not have attributes.</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4632,10 +4692,10 @@
         <v>R_CL_XJZ_F.ttl</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H36" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4652,14 +4712,14 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D37" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4670,10 +4730,10 @@
         <v>R_CL_ZGT_B01.ttl</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H37" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4688,7 +4748,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B01.ttl,error</v>
       </c>
       <c r="K37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M37" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4697,14 +4757,14 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D38" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4715,10 +4775,10 @@
         <v>R_CL_ZGT_B02.ttl</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H38" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4733,7 +4793,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B02.ttl,error</v>
       </c>
       <c r="K38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M38" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4742,14 +4802,14 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D39" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4760,10 +4820,10 @@
         <v>R_CL_ZGT_B03.ttl</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H39" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4778,7 +4838,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B03.ttl,error</v>
       </c>
       <c r="K39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M39" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4787,14 +4847,14 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D40" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4805,10 +4865,10 @@
         <v>R_CL_ZGT_B04.ttl</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H40" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4823,7 +4883,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B04.ttl,error</v>
       </c>
       <c r="K40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M40" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4832,14 +4892,14 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D41" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4850,10 +4910,10 @@
         <v>R_CL_ZGT_B05.ttl</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H41" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4868,7 +4928,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B05.ttl,valid</v>
       </c>
       <c r="K41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M41" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4877,14 +4937,14 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D42" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4895,10 +4955,10 @@
         <v>R_CL_ZGT_B06.ttl</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H42" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4913,7 +4973,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B06.ttl,error</v>
       </c>
       <c r="K42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M42" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4922,14 +4982,14 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D43" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4940,10 +5000,10 @@
         <v>R_CL_ZGT_B07.ttl</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H43" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -4958,7 +5018,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B07.ttl,error</v>
       </c>
       <c r="K43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M43" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -4967,14 +5027,14 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D44" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -4985,10 +5045,10 @@
         <v>R_CL_ZGT_B08.ttl</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H44" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5003,7 +5063,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B08.ttl,error</v>
       </c>
       <c r="K44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M44" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5012,14 +5072,14 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D45" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5030,10 +5090,10 @@
         <v>R_CL_ZGT_B09.ttl</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H45" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5048,7 +5108,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B09.ttl,valid</v>
       </c>
       <c r="K45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M45" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5057,14 +5117,14 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D46" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5075,10 +5135,10 @@
         <v>R_CL_ZGT_B10.ttl</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H46" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5093,7 +5153,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B10.ttl,valid</v>
       </c>
       <c r="K46" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M46" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5102,14 +5162,14 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D47" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5120,10 +5180,10 @@
         <v>R_CL_ZGT_B11.ttl</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H47" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5138,7 +5198,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B11.ttl,error</v>
       </c>
       <c r="K47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M47" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5147,14 +5207,14 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D48" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5165,10 +5225,10 @@
         <v>R_CL_ZGT_B12.ttl</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H48" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5183,7 +5243,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B12.ttl,valid</v>
       </c>
       <c r="K48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M48" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5192,14 +5252,14 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D49" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5210,10 +5270,10 @@
         <v>R_CL_ZGT_B13.ttl</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H49" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5228,7 +5288,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B13.ttl,error</v>
       </c>
       <c r="K49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M49" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5237,14 +5297,14 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D50" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5255,10 +5315,10 @@
         <v>R_CL_ZGT_B14.ttl</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H50" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5273,7 +5333,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B14.ttl,error</v>
       </c>
       <c r="K50" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M50" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5282,14 +5342,14 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D51" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5300,10 +5360,10 @@
         <v>R_CL_ZGT_B15.ttl</v>
       </c>
       <c r="F51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H51" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5318,7 +5378,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B15.ttl,error</v>
       </c>
       <c r="K51" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M51" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5327,14 +5387,14 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D52" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5345,10 +5405,10 @@
         <v>R_CL_ZGT_B16.ttl</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H52" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5363,7 +5423,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B16.ttl,error</v>
       </c>
       <c r="K52" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M52" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5372,14 +5432,14 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D53" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5390,10 +5450,10 @@
         <v>R_CL_ZGT_B17.ttl</v>
       </c>
       <c r="F53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H53" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5408,7 +5468,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B17.ttl,error</v>
       </c>
       <c r="K53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M53" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5417,14 +5477,14 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D54" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5435,10 +5495,10 @@
         <v>R_CL_ZGT_B18.ttl</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H54" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5453,7 +5513,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B18.ttl,valid</v>
       </c>
       <c r="K54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M54" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5462,14 +5522,14 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D55" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5480,10 +5540,10 @@
         <v>R_CL_ZGT_B19.ttl</v>
       </c>
       <c r="F55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H55" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5498,7 +5558,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_B19.ttl,error</v>
       </c>
       <c r="K55" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M55" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5507,14 +5567,14 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D56" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5525,10 +5585,10 @@
         <v>R_CL_ZGT_N01.ttl</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H56" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5543,7 +5603,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N01.ttl,valid</v>
       </c>
       <c r="K56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M56" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5552,14 +5612,14 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D57" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5570,10 +5630,10 @@
         <v>R_CL_ZGT_N02.ttl</v>
       </c>
       <c r="F57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H57" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5588,7 +5648,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N02.ttl,error</v>
       </c>
       <c r="K57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M57" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5597,14 +5657,14 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D58" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5615,10 +5675,10 @@
         <v>R_CL_ZGT_N03.ttl</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H58" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5633,7 +5693,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N03.ttl,error</v>
       </c>
       <c r="K58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M58" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5642,14 +5702,14 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D59" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5660,10 +5720,10 @@
         <v>R_CL_ZGT_N04.ttl</v>
       </c>
       <c r="F59" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H59" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5678,7 +5738,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N04.ttl,error</v>
       </c>
       <c r="K59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M59" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5687,14 +5747,14 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D60" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5705,10 +5765,10 @@
         <v>R_CL_ZGT_N05.ttl</v>
       </c>
       <c r="F60" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H60" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5723,7 +5783,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N05.ttl,valid</v>
       </c>
       <c r="K60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M60" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5732,14 +5792,14 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D61" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5750,10 +5810,10 @@
         <v>R_CL_ZGT_N06.ttl</v>
       </c>
       <c r="F61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H61" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5768,7 +5828,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N06.ttl,valid</v>
       </c>
       <c r="K61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M61" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5777,14 +5837,14 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D62" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5795,10 +5855,10 @@
         <v>R_CL_ZGT_N07.ttl</v>
       </c>
       <c r="F62" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H62" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5813,7 +5873,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N07.ttl,error</v>
       </c>
       <c r="K62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M62" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5822,14 +5882,14 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D63" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5840,10 +5900,10 @@
         <v>R_CL_ZGT_N08.ttl</v>
       </c>
       <c r="F63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H63" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5858,7 +5918,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N08.ttl,valid</v>
       </c>
       <c r="K63" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M63" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5867,14 +5927,14 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D64" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5885,10 +5945,10 @@
         <v>R_CL_ZGT_N09.ttl</v>
       </c>
       <c r="F64" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H64" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5903,7 +5963,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N09.ttl,valid</v>
       </c>
       <c r="K64" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M64" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5912,14 +5972,14 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5930,10 +5990,10 @@
         <v>R_CL_ZGT_N10.ttl</v>
       </c>
       <c r="F65" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H65" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5948,7 +6008,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N10.ttl,valid</v>
       </c>
       <c r="K65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M65" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -5957,14 +6017,14 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -5975,10 +6035,10 @@
         <v>R_CL_ZGT_N11.ttl</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H66" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -5993,7 +6053,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N11.ttl,error</v>
       </c>
       <c r="K66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M66" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6002,14 +6062,14 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6020,10 +6080,10 @@
         <v>R_CL_ZGT_N12.ttl</v>
       </c>
       <c r="F67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H67" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6038,7 +6098,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N12.ttl,valid</v>
       </c>
       <c r="K67" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M67" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6047,14 +6107,14 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6065,10 +6125,10 @@
         <v>R_CL_ZGT_N13.ttl</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H68" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6083,7 +6143,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N13.ttl,valid</v>
       </c>
       <c r="K68" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M68" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6092,14 +6152,14 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D69" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6110,10 +6170,10 @@
         <v>R_CL_ZGT_N14.ttl</v>
       </c>
       <c r="F69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H69" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6128,7 +6188,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N14.ttl,error</v>
       </c>
       <c r="K69" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M69" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6137,14 +6197,14 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6155,10 +6215,10 @@
         <v>R_CL_ZGT_N15.ttl</v>
       </c>
       <c r="F70" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H70" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6173,7 +6233,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N15.ttl,error</v>
       </c>
       <c r="K70" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M70" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6182,14 +6242,14 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D71" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6200,10 +6260,10 @@
         <v>R_CL_ZGT_N16.ttl</v>
       </c>
       <c r="F71" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H71" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6218,7 +6278,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N16.ttl,error</v>
       </c>
       <c r="K71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M71" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6227,14 +6287,14 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D72" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6245,10 +6305,10 @@
         <v>R_CL_ZGT_N17.ttl</v>
       </c>
       <c r="F72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H72" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6263,7 +6323,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N17.ttl,valid</v>
       </c>
       <c r="K72" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M72" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6272,14 +6332,14 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B73" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D73" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6290,10 +6350,10 @@
         <v>R_CL_ZGT_N18.ttl</v>
       </c>
       <c r="F73" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H73" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6308,7 +6368,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N18.ttl,valid</v>
       </c>
       <c r="K73" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M73" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6317,14 +6377,14 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D74" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6335,10 +6395,10 @@
         <v>R_CL_ZGT_N19.ttl</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H74" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6353,7 +6413,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_N19.ttl,valid</v>
       </c>
       <c r="K74" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M74" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6362,14 +6422,14 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B75" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D75" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6380,10 +6440,10 @@
         <v>R_CL_ZGT_U01.ttl</v>
       </c>
       <c r="F75" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H75" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6398,7 +6458,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U01.ttl,valid</v>
       </c>
       <c r="K75" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M75" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6407,14 +6467,14 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D76" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6425,10 +6485,10 @@
         <v>R_CL_ZGT_U02.ttl</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H76" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6443,7 +6503,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U02.ttl,error</v>
       </c>
       <c r="K76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M76" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6452,14 +6512,14 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D77" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6470,10 +6530,10 @@
         <v>R_CL_ZGT_U03.ttl</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H77" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6488,7 +6548,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U03.ttl,error</v>
       </c>
       <c r="K77" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M77" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6497,14 +6557,14 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C78" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D78" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6515,10 +6575,10 @@
         <v>R_CL_ZGT_U04.ttl</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H78" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6533,7 +6593,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U04.ttl,error</v>
       </c>
       <c r="K78" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M78" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6542,14 +6602,14 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B79" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6560,10 +6620,10 @@
         <v>R_CL_ZGT_U05.ttl</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G79" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H79" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6578,7 +6638,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U05.ttl,valid</v>
       </c>
       <c r="K79" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M79" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6587,14 +6647,14 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B80" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D80" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6605,10 +6665,10 @@
         <v>R_CL_ZGT_U06.ttl</v>
       </c>
       <c r="F80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H80" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6623,7 +6683,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U06.ttl,valid</v>
       </c>
       <c r="K80" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M80" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6632,43 +6692,43 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B81" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C81" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" s="12" t="str">
+        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
+        <v>R_CL_ZGT_U07</v>
+      </c>
+      <c r="E81" t="str">
+        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
+        <v>R_CL_ZGT_U07.ttl</v>
+      </c>
+      <c r="F81" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" t="str">
+        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="I81" t="str">
+        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
+        <v>owa,R_CL_ZGT,R_CL_ZGT_U07.ttl,warning</v>
+      </c>
+      <c r="J81" t="str">
+        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
+        <v>cwa,R_CL_ZGT,R_CL_ZGT_U07.ttl,error</v>
+      </c>
+      <c r="K81" t="s">
         <v>236</v>
-      </c>
-      <c r="D81" s="12" t="str">
-        <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
-        <v>R_CL_ZGT_U07</v>
-      </c>
-      <c r="E81" t="str">
-        <f>TabImp[[#This Row],[Situation Code]]&amp;".ttl"</f>
-        <v>R_CL_ZGT_U07.ttl</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
-      </c>
-      <c r="G81" t="s">
-        <v>72</v>
-      </c>
-      <c r="H81" t="str">
-        <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="I81" t="str">
-        <f>"owa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[OWA Level]])</f>
-        <v>owa,R_CL_ZGT,R_CL_ZGT_U07.ttl,warning</v>
-      </c>
-      <c r="J81" t="str">
-        <f>"cwa"&amp;","&amp;TabImp[[#This Row],[Rule Code]]&amp;","&amp;TabImp[[#This Row],[Test File]]&amp;","&amp;LOWER(TabImp[[#This Row],[CWA Level]])</f>
-        <v>cwa,R_CL_ZGT,R_CL_ZGT_U07.ttl,error</v>
-      </c>
-      <c r="K81" t="s">
-        <v>239</v>
       </c>
       <c r="M81" t="str">
         <f>TabImp[[#This Row],[Situation Description]]&amp;" - result:"&amp;TabImp[[#This Row],[OWA Level]]</f>
@@ -6677,14 +6737,14 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B82" t="str">
         <f>VLOOKUP(TabImp[[#This Row],[Rule Code]],TabRules[[Rule Code]:[Description]],2,FALSE)</f>
         <v>Every class decorated with a base sortal stereotype must specialize a unique class decorated with a ULTIMATE SORTAL stereotype .</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D82" s="12" t="str">
         <f>TabImp[[#This Row],[Rule Code]]&amp;"_"&amp;TabImp[[#This Row],[Situation]]</f>
@@ -6695,10 +6755,10 @@
         <v>R_CL_ZGT_U08.ttl</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G82" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H82" t="str">
         <f>IF(TabImp[[#This Row],[OWA Level]]="Valid","Valid","Error")</f>
@@ -6713,7 +6773,7 @@
         <v>cwa,R_CL_ZGT,R_CL_ZGT_U08.ttl,valid